--- a/generated/spreadsheet/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas.xlsx
+++ b/generated/spreadsheet/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5171,28 +5171,36 @@
           <t>Details of trees and/or hedges that will be affected by the proposed development</t>
         </is>
       </c>
-      <c r="C151" s="2" t="inlineStr"/>
+      <c r="C151" s="2" t="inlineStr">
+        <is>
+          <t>Trees on site</t>
+        </is>
+      </c>
       <c r="D151" s="2" t="inlineStr"/>
       <c r="E151" s="2" t="inlineStr"/>
       <c r="F151" s="2" t="inlineStr"/>
-      <c r="G151" s="2" t="inlineStr"/>
-      <c r="H151" s="2" t="inlineStr"/>
-      <c r="I151" s="2" t="inlineStr"/>
+      <c r="G151" s="2" t="inlineStr">
+        <is>
+          <t>Whether trees or hedges are present on the proposed development site</t>
+        </is>
+      </c>
+      <c r="H151" s="2" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="I151" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="inlineStr">
-        <is>
-          <t>Development type</t>
-        </is>
-      </c>
-      <c r="B152" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
-        </is>
-      </c>
+      <c r="A152" s="2" t="n"/>
+      <c r="B152" s="2" t="n"/>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>Development phase</t>
+          <t>Trees on adjacent land</t>
         </is>
       </c>
       <c r="D152" s="2" t="inlineStr"/>
@@ -5200,12 +5208,12 @@
       <c r="F152" s="2" t="inlineStr"/>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t>Phases of oil and gas development the application covers</t>
+          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
         </is>
       </c>
       <c r="H152" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I152" s="2" t="inlineStr">
@@ -5215,11 +5223,19 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="n"/>
-      <c r="B153" s="2" t="n"/>
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>Development type</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
+        </is>
+      </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>Development description</t>
+          <t>Development phase</t>
         </is>
       </c>
       <c r="D153" s="2" t="inlineStr"/>
@@ -5227,12 +5243,12 @@
       <c r="F153" s="2" t="inlineStr"/>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>Brief description of the development, including main oils, gases, and machinery</t>
+          <t>Phases of oil and gas development the application covers</t>
         </is>
       </c>
       <c r="H153" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I153" s="2" t="inlineStr">
@@ -5246,7 +5262,7 @@
       <c r="B154" s="2" t="n"/>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>Quantity cubic metres</t>
+          <t>Development description</t>
         </is>
       </c>
       <c r="D154" s="2" t="inlineStr"/>
@@ -5254,12 +5270,12 @@
       <c r="F154" s="2" t="inlineStr"/>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>Quantity of oil or gas involved in cubic metres</t>
+          <t>Brief description of the development, including main oils, gases, and machinery</t>
         </is>
       </c>
       <c r="H154" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I154" s="2" t="inlineStr">
@@ -5273,7 +5289,7 @@
       <c r="B155" s="2" t="n"/>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>Permission period years</t>
+          <t>Quantity cubic metres</t>
         </is>
       </c>
       <c r="D155" s="2" t="inlineStr"/>
@@ -5281,7 +5297,7 @@
       <c r="F155" s="2" t="inlineStr"/>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>Period of permission sought in years</t>
+          <t>Quantity of oil or gas involved in cubic metres</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr">
@@ -5291,7 +5307,7 @@
       </c>
       <c r="I155" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5300,7 +5316,7 @@
       <c r="B156" s="2" t="n"/>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>Hydrocarbon licence block</t>
+          <t>Permission period years</t>
         </is>
       </c>
       <c r="D156" s="2" t="inlineStr"/>
@@ -5308,17 +5324,17 @@
       <c r="F156" s="2" t="inlineStr"/>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>Hydrocarbon licence block where the development is located</t>
+          <t>Period of permission sought in years</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I156" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5327,7 +5343,7 @@
       <c r="B157" s="2" t="n"/>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>Surface site area hectares</t>
+          <t>Hydrocarbon licence block</t>
         </is>
       </c>
       <c r="D157" s="2" t="inlineStr"/>
@@ -5335,17 +5351,17 @@
       <c r="F157" s="2" t="inlineStr"/>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>Surface site area in hectares</t>
+          <t>Hydrocarbon licence block where the development is located</t>
         </is>
       </c>
       <c r="H157" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I157" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5354,7 +5370,7 @@
       <c r="B158" s="2" t="n"/>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>Site hectares provided by</t>
+          <t>Surface site area hectares</t>
         </is>
       </c>
       <c r="D158" s="2" t="inlineStr"/>
@@ -5362,12 +5378,12 @@
       <c r="F158" s="2" t="inlineStr"/>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site hectares value (applicant or system)</t>
+          <t>Surface site area in hectares</t>
         </is>
       </c>
       <c r="H158" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I158" s="2" t="inlineStr">
@@ -5381,7 +5397,7 @@
       <c r="B159" s="2" t="n"/>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>Environmental statement</t>
+          <t>Site hectares provided by</t>
         </is>
       </c>
       <c r="D159" s="2" t="inlineStr"/>
@@ -5389,17 +5405,17 @@
       <c r="F159" s="2" t="inlineStr"/>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>Is an Environmental Statement attached to the application</t>
+          <t>Who provided the site hectares value (applicant or system)</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I159" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5408,7 +5424,7 @@
       <c r="B160" s="2" t="n"/>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>Environmental statement reference</t>
+          <t>Environmental statement</t>
         </is>
       </c>
       <c r="D160" s="2" t="inlineStr"/>
@@ -5416,34 +5432,26 @@
       <c r="F160" s="2" t="inlineStr"/>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>Reference to the environmental statement document</t>
+          <t>Is an Environmental Statement attached to the application</t>
         </is>
       </c>
       <c r="H160" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I160" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="inlineStr">
-        <is>
-          <t>Voluntary agreement</t>
-        </is>
-      </c>
-      <c r="B161" s="2" t="inlineStr">
-        <is>
-          <t>Details of any voluntary agreements made as part of an oil and gas extraction application.</t>
-        </is>
-      </c>
+      <c r="A161" s="2" t="n"/>
+      <c r="B161" s="2" t="n"/>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>Draft agreement included</t>
+          <t>Environmental statement reference</t>
         </is>
       </c>
       <c r="D161" s="2" t="inlineStr"/>
@@ -5451,26 +5459,34 @@
       <c r="F161" s="2" t="inlineStr"/>
       <c r="G161" s="2" t="inlineStr">
         <is>
-          <t>Has an outline or draft agreement been included? (True / False)</t>
+          <t>Reference to the environmental statement document</t>
         </is>
       </c>
       <c r="H161" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I161" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="n"/>
-      <c r="B162" s="2" t="n"/>
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>Voluntary agreement</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>Details of any voluntary agreements made as part of an oil and gas extraction application.</t>
+        </is>
+      </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>Agreement summary</t>
+          <t>Draft agreement included</t>
         </is>
       </c>
       <c r="D162" s="2" t="inlineStr"/>
@@ -5478,15 +5494,42 @@
       <c r="F162" s="2" t="inlineStr"/>
       <c r="G162" s="2" t="inlineStr">
         <is>
+          <t>Has an outline or draft agreement been included? (True / False)</t>
+        </is>
+      </c>
+      <c r="H162" s="2" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="I162" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n"/>
+      <c r="B163" s="2" t="n"/>
+      <c r="C163" s="2" t="inlineStr">
+        <is>
+          <t>Agreement summary</t>
+        </is>
+      </c>
+      <c r="D163" s="2" t="inlineStr"/>
+      <c r="E163" s="2" t="inlineStr"/>
+      <c r="F163" s="2" t="inlineStr"/>
+      <c r="G163" s="2" t="inlineStr">
+        <is>
           <t>Summary of the agreement</t>
         </is>
       </c>
-      <c r="H162" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I162" s="2" t="inlineStr">
+      <c r="H163" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I163" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -5494,7 +5537,6 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A151"/>
     <mergeCell ref="B149:B150"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="A57:A59"/>
@@ -5509,9 +5551,10 @@
     <mergeCell ref="B90:B97"/>
     <mergeCell ref="B124:B128"/>
     <mergeCell ref="A129:A137"/>
-    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="A162:A163"/>
     <mergeCell ref="B52:B55"/>
     <mergeCell ref="A84:A89"/>
+    <mergeCell ref="B151:B152"/>
     <mergeCell ref="A148"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="A25:A32"/>
@@ -5525,29 +5568,29 @@
     <mergeCell ref="A90:A97"/>
     <mergeCell ref="A37:A42"/>
     <mergeCell ref="B121:B123"/>
+    <mergeCell ref="A151:A152"/>
     <mergeCell ref="B37:B42"/>
+    <mergeCell ref="B162:B163"/>
     <mergeCell ref="B56"/>
     <mergeCell ref="A79:A83"/>
-    <mergeCell ref="A152:A160"/>
     <mergeCell ref="B129:B137"/>
     <mergeCell ref="A113:A120"/>
     <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B151"/>
     <mergeCell ref="B69:B78"/>
     <mergeCell ref="B60"/>
     <mergeCell ref="B84:B89"/>
     <mergeCell ref="B142:B147"/>
+    <mergeCell ref="B153:B161"/>
     <mergeCell ref="B148"/>
     <mergeCell ref="A61:A67"/>
     <mergeCell ref="A124:A128"/>
     <mergeCell ref="A56"/>
     <mergeCell ref="B57:B59"/>
     <mergeCell ref="A2:A20"/>
-    <mergeCell ref="A161:A162"/>
     <mergeCell ref="B61:B67"/>
     <mergeCell ref="A43:A48"/>
+    <mergeCell ref="A153:A161"/>
     <mergeCell ref="B138:B141"/>
-    <mergeCell ref="B152:B160"/>
     <mergeCell ref="B113:B120"/>
     <mergeCell ref="A98:A112"/>
     <mergeCell ref="A142:A147"/>

--- a/generated/spreadsheet/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas.xlsx
+++ b/generated/spreadsheet/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas.xlsx
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>How the proposed development will impact employment, including existing and proposed employee numbers</t>
+          <t>How the proposed development will impact existing and proposed employee numbers</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice received from the planning authority</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">

--- a/generated/spreadsheet/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas.xlsx
+++ b/generated/spreadsheet/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas.xlsx
@@ -711,7 +711,7 @@
       <c r="F9" s="2" t="inlineStr"/>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>The name or title of the document</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">

--- a/generated/spreadsheet/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas.xlsx
+++ b/generated/spreadsheet/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas.xlsx
@@ -506,10 +506,14 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
           <t>Reference</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
@@ -533,10 +537,14 @@
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
           <t>Application types[]</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="inlineStr"/>
       <c r="G3" s="2" t="inlineStr">
@@ -560,10 +568,14 @@
       <c r="B4" s="2" t="n"/>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>Application sub type</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="inlineStr"/>
       <c r="G4" s="2" t="inlineStr">
@@ -587,10 +599,14 @@
       <c r="B5" s="2" t="n"/>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>Planning authority</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr">
@@ -614,10 +630,14 @@
       <c r="B6" s="2" t="n"/>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>Submission date</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="inlineStr"/>
       <c r="F6" s="2" t="inlineStr"/>
       <c r="G6" s="2" t="inlineStr">
@@ -641,10 +661,14 @@
       <c r="B7" s="2" t="n"/>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>Modules[]</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr"/>
       <c r="F7" s="2" t="inlineStr"/>
       <c r="G7" s="2" t="inlineStr">
@@ -668,15 +692,19 @@
       <c r="B8" s="2" t="n"/>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>Reference</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr"/>
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
@@ -699,15 +727,19 @@
       <c r="B9" s="2" t="n"/>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr"/>
       <c r="F9" s="2" t="inlineStr"/>
       <c r="G9" s="2" t="inlineStr">
         <is>
@@ -730,15 +762,19 @@
       <c r="B10" s="2" t="n"/>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr"/>
       <c r="F10" s="2" t="inlineStr"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
@@ -761,15 +797,19 @@
       <c r="B11" s="2" t="n"/>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>Document types[]</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr"/>
       <c r="F11" s="2" t="inlineStr"/>
       <c r="G11" s="2" t="inlineStr">
         <is>
@@ -792,20 +832,24 @@
       <c r="B12" s="2" t="n"/>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
           <t>A URL pointing to the stored file</t>
@@ -827,20 +871,24 @@
       <c r="B13" s="2" t="n"/>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>Base64</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr"/>
       <c r="G13" s="2" t="inlineStr">
         <is>
           <t>Base64-encoded content of the file for inline file uploads</t>
@@ -862,20 +910,24 @@
       <c r="B14" s="2" t="n"/>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>Filename</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr"/>
       <c r="G14" s="2" t="inlineStr">
         <is>
           <t>Name of the file being uploaded</t>
@@ -897,20 +949,24 @@
       <c r="B15" s="2" t="n"/>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>MIME type</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr"/>
       <c r="G15" s="2" t="inlineStr">
         <is>
           <t>The file's MIME type such as application/pdf or image/jpeg</t>
@@ -932,20 +988,24 @@
       <c r="B16" s="2" t="n"/>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>Checksum</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
           <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
@@ -967,20 +1027,24 @@
       <c r="B17" s="2" t="n"/>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>File size</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
           <t>Size of the file in bytes that can be used to enforce limits</t>
@@ -1002,15 +1066,19 @@
       <c r="B18" s="2" t="n"/>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
           <t>Fee</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
@@ -1033,15 +1101,19 @@
       <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
           <t>Fee</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>Amount paid</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
@@ -1064,15 +1136,19 @@
       <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
           <t>Fee</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>Transactions[]</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>

--- a/generated/spreadsheet/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas.xlsx
+++ b/generated/spreadsheet/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas.xlsx
@@ -616,7 +616,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">

--- a/generated/spreadsheet/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas.xlsx
+++ b/generated/spreadsheet/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas.xlsx
@@ -611,7 +611,7 @@
       <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>The reference of the planning authority the application has been submitted to, e.g. local-authority:CMD</t>
+          <t>A reference of the planning authority the application has been submitted to, e.g. local-authority:CMD for London borough of Camden</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">

--- a/generated/spreadsheet/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas.xlsx
+++ b/generated/spreadsheet/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I163"/>
+  <dimension ref="A1:I174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,7 +438,7 @@
     <col width="58" customWidth="1" min="1" max="1"/>
     <col width="72" customWidth="1" min="2" max="2"/>
     <col width="38" customWidth="1" min="3" max="3"/>
-    <col width="27" customWidth="1" min="4" max="4"/>
+    <col width="29" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="72" customWidth="1" min="7" max="7"/>
@@ -5301,17 +5301,18 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>Development type</t>
+          <t>Oil and gas permission types</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
+          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
+</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>Development phase</t>
+          <t>Oil and gas permission types[]</t>
         </is>
       </c>
       <c r="D153" s="2" t="inlineStr"/>
@@ -5319,7 +5320,7 @@
       <c r="F153" s="2" t="inlineStr"/>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>Phases of oil and gas development the application covers</t>
+          <t>List of permission types being applied for</t>
         </is>
       </c>
       <c r="H153" s="2" t="inlineStr">
@@ -5338,15 +5339,19 @@
       <c r="B154" s="2" t="n"/>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>Development description</t>
-        </is>
-      </c>
-      <c r="D154" s="2" t="inlineStr"/>
+          <t>Related permissions[]</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E154" s="2" t="inlineStr"/>
       <c r="F154" s="2" t="inlineStr"/>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>Brief description of the development, including main oils, gases, and machinery</t>
+          <t>The reference for the related application that permission was received for</t>
         </is>
       </c>
       <c r="H154" s="2" t="inlineStr">
@@ -5365,20 +5370,24 @@
       <c r="B155" s="2" t="n"/>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>Quantity cubic metres</t>
-        </is>
-      </c>
-      <c r="D155" s="2" t="inlineStr"/>
+          <t>Related permissions[]</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="inlineStr">
+        <is>
+          <t>Oil and gas permission type</t>
+        </is>
+      </c>
       <c r="E155" s="2" t="inlineStr"/>
       <c r="F155" s="2" t="inlineStr"/>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>Quantity of oil or gas involved in cubic metres</t>
+          <t>An oil and gas related permission type</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I155" s="2" t="inlineStr">
@@ -5392,25 +5401,29 @@
       <c r="B156" s="2" t="n"/>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>Permission period years</t>
-        </is>
-      </c>
-      <c r="D156" s="2" t="inlineStr"/>
+          <t>Related permissions[]</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="inlineStr">
+        <is>
+          <t>Decision date</t>
+        </is>
+      </c>
       <c r="E156" s="2" t="inlineStr"/>
       <c r="F156" s="2" t="inlineStr"/>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>Period of permission sought in years</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I156" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5419,15 +5432,19 @@
       <c r="B157" s="2" t="n"/>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>Hydrocarbon licence block</t>
-        </is>
-      </c>
-      <c r="D157" s="2" t="inlineStr"/>
+          <t>Related permissions[]</t>
+        </is>
+      </c>
+      <c r="D157" s="2" t="inlineStr">
+        <is>
+          <t>Condition number</t>
+        </is>
+      </c>
       <c r="E157" s="2" t="inlineStr"/>
       <c r="F157" s="2" t="inlineStr"/>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>Hydrocarbon licence block where the development is located</t>
+          <t>Number of any condition being breached</t>
         </is>
       </c>
       <c r="H157" s="2" t="inlineStr">
@@ -5437,7 +5454,7 @@
       </c>
       <c r="I157" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5446,7 +5463,7 @@
       <c r="B158" s="2" t="n"/>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>Surface site area hectares</t>
+          <t>Other details</t>
         </is>
       </c>
       <c r="D158" s="2" t="inlineStr"/>
@@ -5454,12 +5471,12 @@
       <c r="F158" s="2" t="inlineStr"/>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>Surface site area in hectares</t>
+          <t>Explanation if other ground is selected</t>
         </is>
       </c>
       <c r="H158" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I158" s="2" t="inlineStr">
@@ -5473,7 +5490,7 @@
       <c r="B159" s="2" t="n"/>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>Site hectares provided by</t>
+          <t>Will consolidate permissions</t>
         </is>
       </c>
       <c r="D159" s="2" t="inlineStr"/>
@@ -5481,17 +5498,17 @@
       <c r="F159" s="2" t="inlineStr"/>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site hectares value (applicant or system)</t>
+          <t>Is the applicant looking to consolidate permissions?</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I159" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5500,7 +5517,7 @@
       <c r="B160" s="2" t="n"/>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>Environmental statement</t>
+          <t>Details</t>
         </is>
       </c>
       <c r="D160" s="2" t="inlineStr"/>
@@ -5508,17 +5525,17 @@
       <c r="F160" s="2" t="inlineStr"/>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>Is an Environmental Statement attached to the application</t>
+          <t>Details about the consolidation or update of permissions</t>
         </is>
       </c>
       <c r="H160" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I160" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5527,15 +5544,19 @@
       <c r="B161" s="2" t="n"/>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>Environmental statement reference</t>
-        </is>
-      </c>
-      <c r="D161" s="2" t="inlineStr"/>
+          <t>Related proposals[]</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E161" s="2" t="inlineStr"/>
       <c r="F161" s="2" t="inlineStr"/>
       <c r="G161" s="2" t="inlineStr">
         <is>
-          <t>Reference to the environmental statement document</t>
+          <t>The reference for the related application</t>
         </is>
       </c>
       <c r="H161" s="2" t="inlineStr">
@@ -5545,37 +5566,33 @@
       </c>
       <c r="I161" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="inlineStr">
-        <is>
-          <t>Voluntary agreement</t>
-        </is>
-      </c>
-      <c r="B162" s="2" t="inlineStr">
-        <is>
-          <t>Details of any voluntary agreements made as part of an oil and gas extraction application.</t>
-        </is>
-      </c>
+      <c r="A162" s="2" t="n"/>
+      <c r="B162" s="2" t="n"/>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>Draft agreement included</t>
-        </is>
-      </c>
-      <c r="D162" s="2" t="inlineStr"/>
+          <t>Related proposals[]</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="inlineStr">
+        <is>
+          <t>Application type</t>
+        </is>
+      </c>
       <c r="E162" s="2" t="inlineStr"/>
       <c r="F162" s="2" t="inlineStr"/>
       <c r="G162" s="2" t="inlineStr">
         <is>
-          <t>Has an outline or draft agreement been included? (True / False)</t>
+          <t>The type of planning application</t>
         </is>
       </c>
       <c r="H162" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I162" s="2" t="inlineStr">
@@ -5589,30 +5606,347 @@
       <c r="B163" s="2" t="n"/>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>Agreement summary</t>
-        </is>
-      </c>
-      <c r="D163" s="2" t="inlineStr"/>
+          <t>Related proposals[]</t>
+        </is>
+      </c>
+      <c r="D163" s="2" t="inlineStr">
+        <is>
+          <t>Decision date</t>
+        </is>
+      </c>
       <c r="E163" s="2" t="inlineStr"/>
       <c r="F163" s="2" t="inlineStr"/>
       <c r="G163" s="2" t="inlineStr">
         <is>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+        </is>
+      </c>
+      <c r="H163" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I163" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>Development type</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="inlineStr">
+        <is>
+          <t>Development phase</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="inlineStr"/>
+      <c r="E164" s="2" t="inlineStr"/>
+      <c r="F164" s="2" t="inlineStr"/>
+      <c r="G164" s="2" t="inlineStr">
+        <is>
+          <t>Phases of oil and gas development the application covers</t>
+        </is>
+      </c>
+      <c r="H164" s="2" t="inlineStr">
+        <is>
+          <t>enum</t>
+        </is>
+      </c>
+      <c r="I164" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n"/>
+      <c r="B165" s="2" t="n"/>
+      <c r="C165" s="2" t="inlineStr">
+        <is>
+          <t>Development description</t>
+        </is>
+      </c>
+      <c r="D165" s="2" t="inlineStr"/>
+      <c r="E165" s="2" t="inlineStr"/>
+      <c r="F165" s="2" t="inlineStr"/>
+      <c r="G165" s="2" t="inlineStr">
+        <is>
+          <t>Brief description of the development, including main oils, gases, and machinery</t>
+        </is>
+      </c>
+      <c r="H165" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I165" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n"/>
+      <c r="B166" s="2" t="n"/>
+      <c r="C166" s="2" t="inlineStr">
+        <is>
+          <t>Quantity cubic metres</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="inlineStr"/>
+      <c r="E166" s="2" t="inlineStr"/>
+      <c r="F166" s="2" t="inlineStr"/>
+      <c r="G166" s="2" t="inlineStr">
+        <is>
+          <t>Quantity of oil or gas involved in cubic metres</t>
+        </is>
+      </c>
+      <c r="H166" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I166" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n"/>
+      <c r="B167" s="2" t="n"/>
+      <c r="C167" s="2" t="inlineStr">
+        <is>
+          <t>Permission period years</t>
+        </is>
+      </c>
+      <c r="D167" s="2" t="inlineStr"/>
+      <c r="E167" s="2" t="inlineStr"/>
+      <c r="F167" s="2" t="inlineStr"/>
+      <c r="G167" s="2" t="inlineStr">
+        <is>
+          <t>Period of permission sought in years</t>
+        </is>
+      </c>
+      <c r="H167" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I167" s="2" t="inlineStr">
+        <is>
+          <t>MAY</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n"/>
+      <c r="B168" s="2" t="n"/>
+      <c r="C168" s="2" t="inlineStr">
+        <is>
+          <t>Hydrocarbon licence block</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="inlineStr"/>
+      <c r="E168" s="2" t="inlineStr"/>
+      <c r="F168" s="2" t="inlineStr"/>
+      <c r="G168" s="2" t="inlineStr">
+        <is>
+          <t>Hydrocarbon licence block where the development is located</t>
+        </is>
+      </c>
+      <c r="H168" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I168" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n"/>
+      <c r="B169" s="2" t="n"/>
+      <c r="C169" s="2" t="inlineStr">
+        <is>
+          <t>Surface site area hectares</t>
+        </is>
+      </c>
+      <c r="D169" s="2" t="inlineStr"/>
+      <c r="E169" s="2" t="inlineStr"/>
+      <c r="F169" s="2" t="inlineStr"/>
+      <c r="G169" s="2" t="inlineStr">
+        <is>
+          <t>Surface site area in hectares</t>
+        </is>
+      </c>
+      <c r="H169" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I169" s="2" t="inlineStr">
+        <is>
+          <t>MAY</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n"/>
+      <c r="B170" s="2" t="n"/>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>Site hectares provided by</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="inlineStr"/>
+      <c r="E170" s="2" t="inlineStr"/>
+      <c r="F170" s="2" t="inlineStr"/>
+      <c r="G170" s="2" t="inlineStr">
+        <is>
+          <t>Who provided the site hectares value (applicant or system)</t>
+        </is>
+      </c>
+      <c r="H170" s="2" t="inlineStr">
+        <is>
+          <t>enum</t>
+        </is>
+      </c>
+      <c r="I170" s="2" t="inlineStr">
+        <is>
+          <t>MAY</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n"/>
+      <c r="B171" s="2" t="n"/>
+      <c r="C171" s="2" t="inlineStr">
+        <is>
+          <t>Environmental statement</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="inlineStr"/>
+      <c r="E171" s="2" t="inlineStr"/>
+      <c r="F171" s="2" t="inlineStr"/>
+      <c r="G171" s="2" t="inlineStr">
+        <is>
+          <t>Is an Environmental Statement attached to the application</t>
+        </is>
+      </c>
+      <c r="H171" s="2" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="I171" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n"/>
+      <c r="B172" s="2" t="n"/>
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>Environmental statement reference</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="inlineStr"/>
+      <c r="E172" s="2" t="inlineStr"/>
+      <c r="F172" s="2" t="inlineStr"/>
+      <c r="G172" s="2" t="inlineStr">
+        <is>
+          <t>Reference to the environmental statement document</t>
+        </is>
+      </c>
+      <c r="H172" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I172" s="2" t="inlineStr">
+        <is>
+          <t>MAY</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>Voluntary agreement</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="inlineStr">
+        <is>
+          <t>Details of any voluntary agreements made as part of an oil and gas extraction application.</t>
+        </is>
+      </c>
+      <c r="C173" s="2" t="inlineStr">
+        <is>
+          <t>Draft agreement included</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="inlineStr"/>
+      <c r="E173" s="2" t="inlineStr"/>
+      <c r="F173" s="2" t="inlineStr"/>
+      <c r="G173" s="2" t="inlineStr">
+        <is>
+          <t>Has an outline or draft agreement been included? (True / False)</t>
+        </is>
+      </c>
+      <c r="H173" s="2" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="I173" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n"/>
+      <c r="B174" s="2" t="n"/>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>Agreement summary</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="inlineStr"/>
+      <c r="E174" s="2" t="inlineStr"/>
+      <c r="F174" s="2" t="inlineStr"/>
+      <c r="G174" s="2" t="inlineStr">
+        <is>
           <t>Summary of the agreement</t>
         </is>
       </c>
-      <c r="H163" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I163" s="2" t="inlineStr">
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="58">
+  <mergeCells count="60">
     <mergeCell ref="B149:B150"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="A57:A59"/>
@@ -5622,12 +5956,12 @@
     <mergeCell ref="B25:B32"/>
     <mergeCell ref="B43:B48"/>
     <mergeCell ref="A138:A141"/>
+    <mergeCell ref="A164:A172"/>
     <mergeCell ref="A68"/>
     <mergeCell ref="A121:A123"/>
     <mergeCell ref="B90:B97"/>
     <mergeCell ref="B124:B128"/>
     <mergeCell ref="A129:A137"/>
-    <mergeCell ref="A162:A163"/>
     <mergeCell ref="B52:B55"/>
     <mergeCell ref="A84:A89"/>
     <mergeCell ref="B151:B152"/>
@@ -5646,28 +5980,30 @@
     <mergeCell ref="B121:B123"/>
     <mergeCell ref="A151:A152"/>
     <mergeCell ref="B37:B42"/>
-    <mergeCell ref="B162:B163"/>
     <mergeCell ref="B56"/>
+    <mergeCell ref="B164:B172"/>
     <mergeCell ref="A79:A83"/>
     <mergeCell ref="B129:B137"/>
     <mergeCell ref="A113:A120"/>
     <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B173:B174"/>
     <mergeCell ref="B69:B78"/>
     <mergeCell ref="B60"/>
     <mergeCell ref="B84:B89"/>
     <mergeCell ref="B142:B147"/>
-    <mergeCell ref="B153:B161"/>
     <mergeCell ref="B148"/>
     <mergeCell ref="A61:A67"/>
     <mergeCell ref="A124:A128"/>
     <mergeCell ref="A56"/>
     <mergeCell ref="B57:B59"/>
     <mergeCell ref="A2:A20"/>
+    <mergeCell ref="B153:B163"/>
     <mergeCell ref="B61:B67"/>
     <mergeCell ref="A43:A48"/>
-    <mergeCell ref="A153:A161"/>
     <mergeCell ref="B138:B141"/>
+    <mergeCell ref="A153:A163"/>
     <mergeCell ref="B113:B120"/>
+    <mergeCell ref="A173:A174"/>
     <mergeCell ref="A98:A112"/>
     <mergeCell ref="A142:A147"/>
     <mergeCell ref="A52:A55"/>

--- a/generated/spreadsheet/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas.xlsx
+++ b/generated/spreadsheet/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I174"/>
+  <dimension ref="A1:I173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -847,12 +847,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>A URL pointing to the stored file</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>Base64</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -925,12 +925,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Checksum</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1003,17 +1003,17 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1032,22 +1032,18 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1057,7 +1053,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1076,13 +1072,13 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1111,48 +1107,48 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1162,32 +1158,28 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1211,14 +1203,18 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1228,7 +1224,7 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1247,18 +1243,18 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1268,51 +1264,47 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="2" t="n"/>
       <c r="C25" s="2" t="inlineStr">
         <is>
           <t>agent</t>
@@ -1320,14 +1312,18 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1337,7 +1333,7 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1356,13 +1352,13 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -1372,7 +1368,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1391,13 +1387,13 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1426,13 +1422,13 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1461,13 +1457,13 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1477,7 +1473,7 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1491,18 +1487,14 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
@@ -1526,19 +1518,19 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -1548,58 +1540,58 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Telephone number and email address of the applicant.</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>Telephone number and email address of the applicant.</t>
-        </is>
-      </c>
+      <c r="A33" s="2" t="n"/>
+      <c r="B33" s="2" t="n"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -1623,14 +1615,18 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -1640,7 +1636,7 @@
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1659,18 +1655,18 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -1680,51 +1676,47 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information for the parties making the application.</t>
+        </is>
+      </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr"/>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information for the parties making the application.</t>
-        </is>
-      </c>
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="2" t="n"/>
       <c r="C37" s="2" t="inlineStr">
         <is>
           <t>Applicants[]</t>
@@ -1732,14 +1724,18 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E37" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -1749,7 +1745,7 @@
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1768,13 +1764,13 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -1784,7 +1780,7 @@
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1803,13 +1799,13 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -1838,13 +1834,13 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -1873,13 +1869,13 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -1889,59 +1885,51 @@
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n"/>
-      <c r="B42" s="2" t="n"/>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Flood risk assessment</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>Results of any flood risk assessments made for the development site</t>
+        </is>
+      </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Flood risk area</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr"/>
+      <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Is the site within an area at risk of flooding?</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>Flood risk assessment</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>Results of any flood risk assessments made for the development site</t>
-        </is>
-      </c>
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Flood risk area</t>
+          <t>Data provided by</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
@@ -1949,17 +1937,17 @@
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>Is the site within an area at risk of flooding?</t>
+          <t>Who provided the data: Applicant or System/Service?</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1968,7 +1956,7 @@
       <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Data provided by</t>
+          <t>Flood risk assessment</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
@@ -1976,12 +1964,12 @@
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>Who provided the data: Applicant or System/Service?</t>
+          <t>Reference of the flood risk assessment document</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
@@ -1995,7 +1983,7 @@
       <c r="B45" s="2" t="n"/>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Flood risk assessment</t>
+          <t>Within 20m watercourse</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
@@ -2003,17 +1991,17 @@
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Reference of the flood risk assessment document</t>
+          <t>Whether the development is within 20 metres of a watercourse</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2022,7 +2010,7 @@
       <c r="B46" s="2" t="n"/>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Within 20m watercourse</t>
+          <t>Increases flood risk</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
@@ -2030,7 +2018,7 @@
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>Whether the development is within 20 metres of a watercourse</t>
+          <t>Whether the development increases flood risk</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
@@ -2049,7 +2037,7 @@
       <c r="B47" s="2" t="n"/>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Increases flood risk</t>
+          <t>Surface water disposal[]</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
@@ -2057,12 +2045,12 @@
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>Whether the development increases flood risk</t>
+          <t>Method for disposing of surface water</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
@@ -2072,11 +2060,19 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n"/>
-      <c r="B48" s="2" t="n"/>
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Conflict of interest</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+        </is>
+      </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Surface water disposal[]</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
@@ -2084,12 +2080,12 @@
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Method for disposing of surface water</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
@@ -2099,19 +2095,11 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
-        </is>
-      </c>
+      <c r="A49" s="2" t="n"/>
+      <c r="B49" s="2" t="n"/>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
@@ -2119,17 +2107,17 @@
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2138,7 +2126,7 @@
       <c r="B50" s="2" t="n"/>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
@@ -2146,7 +2134,7 @@
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
@@ -2161,11 +2149,19 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n"/>
-      <c r="B51" s="2" t="n"/>
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity, geological and archaeological conservation</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
+        </is>
+      </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Protected species impact</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr"/>
@@ -2173,34 +2169,26 @@
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>Where is there a likelihood of protected and priority species being affected?</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>Biodiversity, geological and archaeological conservation</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
-        </is>
-      </c>
+      <c r="A52" s="2" t="n"/>
+      <c r="B52" s="2" t="n"/>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Protected species impact</t>
+          <t>Biodiversity features impact</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr"/>
@@ -2208,7 +2196,7 @@
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of protected and priority species being affected?</t>
+          <t>Where is there a likelihood of important habitats or biodiversity features being affected?</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
@@ -2227,7 +2215,7 @@
       <c r="B53" s="2" t="n"/>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity features impact</t>
+          <t>Geological features impact</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr"/>
@@ -2235,7 +2223,7 @@
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of important habitats or biodiversity features being affected?</t>
+          <t>Where is there a likelihood of features of geological conservation importance being affected?</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
@@ -2254,7 +2242,7 @@
       <c r="B54" s="2" t="n"/>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Geological features impact</t>
+          <t>Archaeological features impact</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr"/>
@@ -2262,7 +2250,7 @@
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of features of geological conservation importance being affected?</t>
+          <t>Where is there a likelihood of features of archaeological conservation importance being affected?</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
@@ -2277,11 +2265,19 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n"/>
-      <c r="B55" s="2" t="n"/>
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+        </is>
+      </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Archaeological features impact</t>
+          <t>National requirement types[]</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr"/>
@@ -2289,12 +2285,12 @@
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of features of archaeological conservation importance being affected?</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I55" s="2" t="inlineStr">
@@ -2306,17 +2302,17 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Declaration</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr"/>
@@ -2324,7 +2320,7 @@
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
@@ -2339,19 +2335,11 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="inlineStr">
-        <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
-        </is>
-      </c>
+      <c r="A57" s="2" t="n"/>
+      <c r="B57" s="2" t="n"/>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr"/>
@@ -2359,12 +2347,12 @@
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
@@ -2378,7 +2366,7 @@
       <c r="B58" s="2" t="n"/>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr"/>
@@ -2386,12 +2374,12 @@
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
@@ -2401,11 +2389,19 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n"/>
-      <c r="B59" s="2" t="n"/>
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>Designated areas</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>Details of any 'designated area' the develpoment site is on, such as a Conservation Area or National Park.</t>
+        </is>
+      </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Designations[]</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr"/>
@@ -2413,12 +2409,12 @@
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>List of designated areas that apply to the site</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I59" s="2" t="inlineStr">
@@ -2430,30 +2426,34 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>Designated areas</t>
+          <t>Employment</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>Details of any 'designated area' the develpoment site is on, such as a Conservation Area or National Park.</t>
+          <t>How the proposed development will impact existing and proposed employee numbers</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>Designations[]</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="inlineStr"/>
+          <t>Existing employees</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
       <c r="E60" s="2" t="inlineStr"/>
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>List of designated areas that apply to the site</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
@@ -2463,16 +2463,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>Employment</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>How the proposed development will impact existing and proposed employee numbers</t>
-        </is>
-      </c>
+      <c r="A61" s="2" t="n"/>
+      <c r="B61" s="2" t="n"/>
       <c r="C61" s="2" t="inlineStr">
         <is>
           <t>Existing employees</t>
@@ -2480,14 +2472,14 @@
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -2511,14 +2503,14 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -2537,19 +2529,19 @@
       <c r="B63" s="2" t="n"/>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Existing employees</t>
+          <t>Proposed employees</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>Total FTE</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
@@ -2573,14 +2565,14 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -2604,14 +2596,14 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr"/>
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
@@ -2630,38 +2622,42 @@
       <c r="B66" s="2" t="n"/>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Proposed employees</t>
-        </is>
-      </c>
-      <c r="D66" s="2" t="inlineStr">
-        <is>
-          <t>Total FTE</t>
-        </is>
-      </c>
+          <t>Employment impact</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr"/>
       <c r="E66" s="2" t="inlineStr"/>
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Summary of net employment change (gain/loss)</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n"/>
-      <c r="B67" s="2" t="n"/>
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>Equipment and method</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>How oil and gas will be extracted as part of the proposed development.</t>
+        </is>
+      </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Employment impact</t>
+          <t>Equipment plan</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr"/>
@@ -2669,7 +2665,7 @@
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>Summary of net employment change (gain/loss)</t>
+          <t>Details of equipment to be used as part of the application including the maximum height and type of drilling rig to be used</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
@@ -2679,37 +2675,41 @@
       </c>
       <c r="I67" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>Equipment and method</t>
+          <t>Existing use</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>How oil and gas will be extracted as part of the proposed development.</t>
+          <t>How the site is currently being used.</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Equipment plan</t>
-        </is>
-      </c>
-      <c r="D68" s="2" t="inlineStr"/>
+          <t>Existing use details[]</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="E68" s="2" t="inlineStr"/>
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>Details of equipment to be used as part of the application including the maximum height and type of drilling rig to be used</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
@@ -2719,16 +2719,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="inlineStr">
-        <is>
-          <t>Existing use</t>
-        </is>
-      </c>
-      <c r="B69" s="2" t="inlineStr">
-        <is>
-          <t>How the site is currently being used.</t>
-        </is>
-      </c>
+      <c r="A69" s="2" t="n"/>
+      <c r="B69" s="2" t="n"/>
       <c r="C69" s="2" t="inlineStr">
         <is>
           <t>Existing use details[]</t>
@@ -2736,24 +2728,24 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use details</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr"/>
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Further detail of the use</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2767,14 +2759,14 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>Use details</t>
+          <t>Land part</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr"/>
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>Further detail of the use</t>
+          <t>Which part of the land the use relates to</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
@@ -2784,7 +2776,7 @@
       </c>
       <c r="I70" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2793,24 +2785,20 @@
       <c r="B71" s="2" t="n"/>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Existing use details[]</t>
-        </is>
-      </c>
-      <c r="D71" s="2" t="inlineStr">
-        <is>
-          <t>Land part</t>
-        </is>
-      </c>
+          <t>Site vacant</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr"/>
       <c r="E71" s="2" t="inlineStr"/>
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>Which part of the land the use relates to</t>
+          <t>Is the site currently vacant</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I71" s="2" t="inlineStr">
@@ -2824,7 +2812,7 @@
       <c r="B72" s="2" t="n"/>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Site vacant</t>
+          <t>Last use details</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr"/>
@@ -2832,17 +2820,17 @@
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Is the site currently vacant</t>
+          <t>Description of the last use of the site</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I72" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2839,7 @@
       <c r="B73" s="2" t="n"/>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>Last use details</t>
+          <t>Last use end date</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr"/>
@@ -2859,12 +2847,12 @@
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Description of the last use of the site</t>
+          <t>Date the last use ended (YYYY-MM-DD format)</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I73" s="2" t="inlineStr">
@@ -2878,7 +2866,7 @@
       <c r="B74" s="2" t="n"/>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>Last use end date</t>
+          <t>Is contaminated land</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr"/>
@@ -2886,17 +2874,17 @@
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Date the last use ended (YYYY-MM-DD format)</t>
+          <t>Is the site known to be contaminated?</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I74" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2905,7 +2893,7 @@
       <c r="B75" s="2" t="n"/>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Is contaminated land</t>
+          <t>Is suspected contaminated land</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr"/>
@@ -2913,7 +2901,7 @@
       <c r="F75" s="2" t="inlineStr"/>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Is the site known to be contaminated?</t>
+          <t>Is the site suspected of contamination?</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">
@@ -2932,7 +2920,7 @@
       <c r="B76" s="2" t="n"/>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Is suspected contaminated land</t>
+          <t>Proposed use contamination risk</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr"/>
@@ -2940,7 +2928,7 @@
       <c r="F76" s="2" t="inlineStr"/>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>Is the site suspected of contamination?</t>
+          <t>Is the proposed use vulnerable to the presence of contamination?</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
@@ -2959,7 +2947,7 @@
       <c r="B77" s="2" t="n"/>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Proposed use contamination risk</t>
+          <t>Contamination assessment</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr"/>
@@ -2967,26 +2955,34 @@
       <c r="F77" s="2" t="inlineStr"/>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>Is the proposed use vulnerable to the presence of contamination?</t>
+          <t>Reference to contamination assessment document</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I77" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n"/>
-      <c r="B78" s="2" t="n"/>
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>Foul sewage disposal</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>How waste water will leave the property as part of the proposed development</t>
+        </is>
+      </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Contamination assessment</t>
+          <t>Has new disposal arrangements</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr"/>
@@ -2994,34 +2990,26 @@
       <c r="F78" s="2" t="inlineStr"/>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>Reference to contamination assessment document</t>
+          <t>Does the proposal include any new foul sewage disposal arrangments</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I78" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="inlineStr">
-        <is>
-          <t>Foul sewage disposal</t>
-        </is>
-      </c>
-      <c r="B79" s="2" t="inlineStr">
-        <is>
-          <t>How waste water will leave the property as part of the proposed development</t>
-        </is>
-      </c>
+      <c r="A79" s="2" t="n"/>
+      <c r="B79" s="2" t="n"/>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Has new disposal arrangements</t>
+          <t>Foul sewage disposal types[]</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr"/>
@@ -3029,17 +3017,17 @@
       <c r="F79" s="2" t="inlineStr"/>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include any new foul sewage disposal arrangments</t>
+          <t>List of ways foul sewage will be disposed of</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I79" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3048,7 +3036,7 @@
       <c r="B80" s="2" t="n"/>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Foul sewage disposal types[]</t>
+          <t>Produce foul sewage</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr"/>
@@ -3056,17 +3044,17 @@
       <c r="F80" s="2" t="inlineStr"/>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>List of ways foul sewage will be disposed of</t>
+          <t>Whether the proposed development will produce any foul sewage</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I80" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3075,7 +3063,7 @@
       <c r="B81" s="2" t="n"/>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>Produce foul sewage</t>
+          <t>Connect to drainage system</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr"/>
@@ -3083,7 +3071,7 @@
       <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposed development will produce any foul sewage</t>
+          <t>Whether the proposal needs to connect to the existing drainage system</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
@@ -3102,7 +3090,7 @@
       <c r="B82" s="2" t="n"/>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Connect to drainage system</t>
+          <t>Drainage system details</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr"/>
@@ -3110,26 +3098,34 @@
       <c r="F82" s="2" t="inlineStr"/>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal needs to connect to the existing drainage system</t>
+          <t>Details of the drawings/plans that show the existing drainage system</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I82" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n"/>
-      <c r="B83" s="2" t="n"/>
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substances</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>What hazardous substances may be used as part of the development</t>
+        </is>
+      </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Drainage system details</t>
+          <t>Involves hazardous substances</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr"/>
@@ -3137,42 +3133,38 @@
       <c r="F83" s="2" t="inlineStr"/>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>Details of the drawings/plans that show the existing drainage system</t>
+          <t>Indicates if hazardous substances are involved in the proposal</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I83" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous substances</t>
-        </is>
-      </c>
-      <c r="B84" s="2" t="inlineStr">
-        <is>
-          <t>What hazardous substances may be used as part of the development</t>
-        </is>
-      </c>
+      <c r="A84" s="2" t="n"/>
+      <c r="B84" s="2" t="n"/>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>Involves hazardous substances</t>
-        </is>
-      </c>
-      <c r="D84" s="2" t="inlineStr"/>
+          <t>Substance types[]</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substance type</t>
+        </is>
+      </c>
       <c r="E84" s="2" t="inlineStr"/>
       <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>Indicates if hazardous substances are involved in the proposal</t>
+          <t>Reference of hazardous substance type from predefined list</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
@@ -3196,24 +3188,24 @@
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance type</t>
+          <t>Hazardous substance other</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr"/>
       <c r="F85" s="2" t="inlineStr"/>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>Reference of hazardous substance type from predefined list</t>
+          <t>The specific name of the hazardous substance if other is selected</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I85" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3227,24 +3219,24 @@
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance other</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr"/>
       <c r="F86" s="2" t="inlineStr"/>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>The specific name of the hazardous substance if other is selected</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I86" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3253,24 +3245,20 @@
       <c r="B87" s="2" t="n"/>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Substance types[]</t>
-        </is>
-      </c>
-      <c r="D87" s="2" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
+          <t>Hazardous substance consent required</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr"/>
       <c r="E87" s="2" t="inlineStr"/>
       <c r="F87" s="2" t="inlineStr"/>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I87" s="2" t="inlineStr">
@@ -3284,7 +3272,7 @@
       <c r="B88" s="2" t="n"/>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent required</t>
+          <t>Hazardous substance consent details</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr"/>
@@ -3292,58 +3280,62 @@
       <c r="F88" s="2" t="inlineStr"/>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
+          <t>Details of hazardous substance consent requirements</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I88" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n"/>
-      <c r="B89" s="2" t="n"/>
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>Hours of operation</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
+        </is>
+      </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent details</t>
-        </is>
-      </c>
-      <c r="D89" s="2" t="inlineStr"/>
+          <t>Hours of operation[]</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="E89" s="2" t="inlineStr"/>
       <c r="F89" s="2" t="inlineStr"/>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>Details of hazardous substance consent requirements</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I89" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="inlineStr">
-        <is>
-          <t>Hours of operation</t>
-        </is>
-      </c>
-      <c r="B90" s="2" t="inlineStr">
-        <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
-        </is>
-      </c>
+      <c r="A90" s="2" t="n"/>
+      <c r="B90" s="2" t="n"/>
       <c r="C90" s="2" t="inlineStr">
         <is>
           <t>Hours of operation[]</t>
@@ -3351,24 +3343,24 @@
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr"/>
       <c r="F90" s="2" t="inlineStr"/>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I90" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3382,24 +3374,28 @@
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
-        </is>
-      </c>
-      <c r="E91" s="2" t="inlineStr"/>
+          <t>Operational times[]</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr">
+        <is>
+          <t>Day type</t>
+        </is>
+      </c>
       <c r="F91" s="2" t="inlineStr"/>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Day or type of day</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I91" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3418,23 +3414,23 @@
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>Day type</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="F92" s="2" t="inlineStr"/>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>Day or type of day</t>
+          <t>True or False - explicitly state when closed</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I92" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3453,23 +3449,27 @@
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="F93" s="2" t="inlineStr"/>
+          <t>Time ranges[]</t>
+        </is>
+      </c>
+      <c r="F93" s="2" t="inlineStr">
+        <is>
+          <t>Open time</t>
+        </is>
+      </c>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>True or False - explicitly state when closed</t>
+          <t>Opening time</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I93" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3493,12 +3493,12 @@
       </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
-          <t>Open time</t>
+          <t>Close time</t>
         </is>
       </c>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>Opening time</t>
+          <t>Closing time</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr">
@@ -3522,32 +3522,24 @@
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>Operational times[]</t>
-        </is>
-      </c>
-      <c r="E95" s="2" t="inlineStr">
-        <is>
-          <t>Time ranges[]</t>
-        </is>
-      </c>
-      <c r="F95" s="2" t="inlineStr">
-        <is>
-          <t>Close time</t>
-        </is>
-      </c>
+          <t>Hours not known</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="inlineStr"/>
+      <c r="F95" s="2" t="inlineStr"/>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>Closing time</t>
+          <t>Applicant states they do not know the hours of operation</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I95" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3556,24 +3548,20 @@
       <c r="B96" s="2" t="n"/>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation[]</t>
-        </is>
-      </c>
-      <c r="D96" s="2" t="inlineStr">
-        <is>
-          <t>Hours not known</t>
-        </is>
-      </c>
+          <t>Additional information</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr"/>
       <c r="E96" s="2" t="inlineStr"/>
       <c r="F96" s="2" t="inlineStr"/>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>Applicant states they do not know the hours of operation</t>
+          <t>Any additional information (such as hours of use of other machinery within the site-generators, pumps, etc)</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I96" s="2" t="inlineStr">
@@ -3583,11 +3571,19 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n"/>
-      <c r="B97" s="2" t="n"/>
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+        </is>
+      </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>Additional information</t>
+          <t>Sole owner</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr"/>
@@ -3595,34 +3591,26 @@
       <c r="F97" s="2" t="inlineStr"/>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>Any additional information (such as hours of use of other machinery within the site-generators, pumps, etc)</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I97" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B98" s="2" t="inlineStr">
-        <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
-        </is>
-      </c>
+      <c r="A98" s="2" t="n"/>
+      <c r="B98" s="2" t="n"/>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
+          <t>Agricultural tenants</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr"/>
@@ -3630,7 +3618,7 @@
       <c r="F98" s="2" t="inlineStr"/>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr">
@@ -3649,25 +3637,33 @@
       <c r="B99" s="2" t="n"/>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
-        </is>
-      </c>
-      <c r="D99" s="2" t="inlineStr"/>
-      <c r="E99" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F99" s="2" t="inlineStr"/>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I99" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3686,13 +3682,13 @@
       </c>
       <c r="E100" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F100" s="2" t="inlineStr"/>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
@@ -3702,7 +3698,7 @@
       </c>
       <c r="I100" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3721,13 +3717,13 @@
       </c>
       <c r="E101" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F101" s="2" t="inlineStr"/>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
@@ -3756,13 +3752,13 @@
       </c>
       <c r="E102" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F102" s="2" t="inlineStr"/>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr">
@@ -3791,13 +3787,13 @@
       </c>
       <c r="E103" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F103" s="2" t="inlineStr"/>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr">
@@ -3807,7 +3803,7 @@
       </c>
       <c r="I103" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3821,23 +3817,19 @@
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E104" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="inlineStr"/>
       <c r="F104" s="2" t="inlineStr"/>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I104" s="2" t="inlineStr">
@@ -3851,24 +3843,20 @@
       <c r="B105" s="2" t="n"/>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="D105" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="inlineStr"/>
       <c r="E105" s="2" t="inlineStr"/>
       <c r="F105" s="2" t="inlineStr"/>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I105" s="2" t="inlineStr">
@@ -3882,15 +3870,19 @@
       <c r="B106" s="2" t="n"/>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="D106" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="E106" s="2" t="inlineStr"/>
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
@@ -3900,7 +3892,7 @@
       </c>
       <c r="I106" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3914,19 +3906,19 @@
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr"/>
       <c r="F107" s="2" t="inlineStr"/>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I107" s="2" t="inlineStr">
@@ -3940,29 +3932,25 @@
       <c r="B108" s="2" t="n"/>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="D108" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr"/>
       <c r="E108" s="2" t="inlineStr"/>
       <c r="F108" s="2" t="inlineStr"/>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I108" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3959,7 @@
       <c r="B109" s="2" t="n"/>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="D109" s="2" t="inlineStr"/>
@@ -3979,12 +3967,12 @@
       <c r="F109" s="2" t="inlineStr"/>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I109" s="2" t="inlineStr">
@@ -3998,7 +3986,7 @@
       <c r="B110" s="2" t="n"/>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr"/>
@@ -4006,7 +3994,7 @@
       <c r="F110" s="2" t="inlineStr"/>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
@@ -4025,7 +4013,7 @@
       <c r="B111" s="2" t="n"/>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="D111" s="2" t="inlineStr"/>
@@ -4033,12 +4021,12 @@
       <c r="F111" s="2" t="inlineStr"/>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I111" s="2" t="inlineStr">
@@ -4048,11 +4036,19 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n"/>
-      <c r="B112" s="2" t="n"/>
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>Access and rights of way</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
+        </is>
+      </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>New or altered vehicle access</t>
         </is>
       </c>
       <c r="D112" s="2" t="inlineStr"/>
@@ -4060,34 +4056,26 @@
       <c r="F112" s="2" t="inlineStr"/>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I112" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="inlineStr">
-        <is>
-          <t>Access and rights of way</t>
-        </is>
-      </c>
-      <c r="B113" s="2" t="inlineStr">
-        <is>
-          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
-        </is>
-      </c>
+      <c r="A113" s="2" t="n"/>
+      <c r="B113" s="2" t="n"/>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>New or altered vehicle access</t>
+          <t>New or altered pedestrian access</t>
         </is>
       </c>
       <c r="D113" s="2" t="inlineStr"/>
@@ -4095,7 +4083,7 @@
       <c r="F113" s="2" t="inlineStr"/>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
+          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -4114,7 +4102,7 @@
       <c r="B114" s="2" t="n"/>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>New or altered pedestrian access</t>
+          <t>New right of way</t>
         </is>
       </c>
       <c r="D114" s="2" t="inlineStr"/>
@@ -4122,7 +4110,7 @@
       <c r="F114" s="2" t="inlineStr"/>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
+          <t>Will new public rights of way be provided within or adjacent to the site</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -4141,7 +4129,7 @@
       <c r="B115" s="2" t="n"/>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>New right of way</t>
+          <t>New public road</t>
         </is>
       </c>
       <c r="D115" s="2" t="inlineStr"/>
@@ -4149,7 +4137,7 @@
       <c r="F115" s="2" t="inlineStr"/>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>Will new public rights of way be provided within or adjacent to the site</t>
+          <t>Will new public roads be provided within the site</t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr">
@@ -4168,7 +4156,7 @@
       <c r="B116" s="2" t="n"/>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>New public road</t>
+          <t>Temporary right of way changes</t>
         </is>
       </c>
       <c r="D116" s="2" t="inlineStr"/>
@@ -4176,7 +4164,7 @@
       <c r="F116" s="2" t="inlineStr"/>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>Will new public roads be provided within the site</t>
+          <t>Are temporary changes to rights of way needed while the site is worked</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
@@ -4195,7 +4183,7 @@
       <c r="B117" s="2" t="n"/>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>Temporary right of way changes</t>
+          <t>Future new right of way</t>
         </is>
       </c>
       <c r="D117" s="2" t="inlineStr"/>
@@ -4203,7 +4191,7 @@
       <c r="F117" s="2" t="inlineStr"/>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>Are temporary changes to rights of way needed while the site is worked</t>
+          <t>Will new public rights of way be provided after extraction?</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
@@ -4222,20 +4210,24 @@
       <c r="B118" s="2" t="n"/>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>Future new right of way</t>
-        </is>
-      </c>
-      <c r="D118" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E118" s="2" t="inlineStr"/>
       <c r="F118" s="2" t="inlineStr"/>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>Will new public rights of way be provided after extraction?</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I118" s="2" t="inlineStr">
@@ -4254,14 +4246,14 @@
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr"/>
       <c r="F119" s="2" t="inlineStr"/>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -4276,23 +4268,31 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n"/>
-      <c r="B120" s="2" t="n"/>
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>Plans, drawings and supporting materials</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>Additional materials and specifications that form part of the planning application</t>
+        </is>
+      </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
+          <t>Plans documents[]</t>
         </is>
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Reference number</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr"/>
       <c r="F120" s="2" t="inlineStr"/>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Unique identifier for the document</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
@@ -4307,16 +4307,8 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="inlineStr">
-        <is>
-          <t>Plans, drawings and supporting materials</t>
-        </is>
-      </c>
-      <c r="B121" s="2" t="inlineStr">
-        <is>
-          <t>Additional materials and specifications that form part of the planning application</t>
-        </is>
-      </c>
+      <c r="A121" s="2" t="n"/>
+      <c r="B121" s="2" t="n"/>
       <c r="C121" s="2" t="inlineStr">
         <is>
           <t>Plans documents[]</t>
@@ -4324,14 +4316,14 @@
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>Reference number</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr"/>
       <c r="F121" s="2" t="inlineStr"/>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>Unique identifier for the document</t>
+          <t>Name of the document (descriptive)</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
@@ -4350,19 +4342,15 @@
       <c r="B122" s="2" t="n"/>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>Plans documents[]</t>
-        </is>
-      </c>
-      <c r="D122" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Inspection address</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr"/>
       <c r="E122" s="2" t="inlineStr"/>
       <c r="F122" s="2" t="inlineStr"/>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>Name of the document (descriptive)</t>
+          <t>Full postal address where supporting material can be inspected</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
@@ -4377,11 +4365,19 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n"/>
-      <c r="B123" s="2" t="n"/>
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>Inspection address</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="D123" s="2" t="inlineStr"/>
@@ -4389,12 +4385,12 @@
       <c r="F123" s="2" t="inlineStr"/>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t>Full postal address where supporting material can be inspected</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="H123" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I123" s="2" t="inlineStr">
@@ -4404,19 +4400,11 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B124" s="2" t="inlineStr">
-        <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
-        </is>
-      </c>
+      <c r="A124" s="2" t="n"/>
+      <c r="B124" s="2" t="n"/>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="D124" s="2" t="inlineStr"/>
@@ -4424,17 +4412,17 @@
       <c r="F124" s="2" t="inlineStr"/>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I124" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4443,7 +4431,7 @@
       <c r="B125" s="2" t="n"/>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="D125" s="2" t="inlineStr"/>
@@ -4451,7 +4439,7 @@
       <c r="F125" s="2" t="inlineStr"/>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr">
@@ -4470,7 +4458,7 @@
       <c r="B126" s="2" t="n"/>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="D126" s="2" t="inlineStr"/>
@@ -4478,7 +4466,7 @@
       <c r="F126" s="2" t="inlineStr"/>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr">
@@ -4497,7 +4485,7 @@
       <c r="B127" s="2" t="n"/>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="D127" s="2" t="inlineStr"/>
@@ -4505,7 +4493,7 @@
       <c r="F127" s="2" t="inlineStr"/>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
@@ -4520,24 +4508,36 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n"/>
-      <c r="B128" s="2" t="n"/>
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
-        </is>
-      </c>
-      <c r="D128" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="E128" s="2" t="inlineStr"/>
       <c r="F128" s="2" t="inlineStr"/>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I128" s="2" t="inlineStr">
@@ -4547,16 +4547,8 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B129" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A129" s="2" t="n"/>
+      <c r="B129" s="2" t="n"/>
       <c r="C129" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -4564,19 +4556,19 @@
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr"/>
       <c r="F129" s="2" t="inlineStr"/>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I129" s="2" t="inlineStr">
@@ -4595,14 +4587,14 @@
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr"/>
       <c r="F130" s="2" t="inlineStr"/>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr">
@@ -4626,19 +4618,19 @@
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr"/>
       <c r="F131" s="2" t="inlineStr"/>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I131" s="2" t="inlineStr">
@@ -4657,14 +4649,14 @@
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr"/>
       <c r="F132" s="2" t="inlineStr"/>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr">
@@ -4688,14 +4680,14 @@
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr"/>
       <c r="F133" s="2" t="inlineStr"/>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr">
@@ -4719,14 +4711,14 @@
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr"/>
       <c r="F134" s="2" t="inlineStr"/>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr">
@@ -4750,19 +4742,19 @@
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr"/>
       <c r="F135" s="2" t="inlineStr"/>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I135" s="2" t="inlineStr">
@@ -4781,14 +4773,14 @@
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr"/>
       <c r="F136" s="2" t="inlineStr"/>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr">
@@ -4803,23 +4795,31 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="n"/>
-      <c r="B137" s="2" t="n"/>
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>Site ownership</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="inlineStr">
+        <is>
+          <t>For oil and gas extraction developments, who owns or has an interest in the site.</t>
+        </is>
+      </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
+          <t>Site owner</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>UPRNs[]</t>
+          <t>Full name</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
       <c r="F137" s="2" t="inlineStr"/>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr">
@@ -4829,21 +4829,13 @@
       </c>
       <c r="I137" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="inlineStr">
-        <is>
-          <t>Site ownership</t>
-        </is>
-      </c>
-      <c r="B138" s="2" t="inlineStr">
-        <is>
-          <t>For oil and gas extraction developments, who owns or has an interest in the site.</t>
-        </is>
-      </c>
+      <c r="A138" s="2" t="n"/>
+      <c r="B138" s="2" t="n"/>
       <c r="C138" s="2" t="inlineStr">
         <is>
           <t>Site owner</t>
@@ -4851,14 +4843,14 @@
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr"/>
       <c r="F138" s="2" t="inlineStr"/>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -4877,19 +4869,15 @@
       <c r="B139" s="2" t="n"/>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>Site owner</t>
-        </is>
-      </c>
-      <c r="D139" s="2" t="inlineStr">
-        <is>
-          <t>Address Text</t>
-        </is>
-      </c>
+          <t>Applicant interest</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="inlineStr"/>
       <c r="E139" s="2" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr"/>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Description of the applicant's interest in the land</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -4908,7 +4896,7 @@
       <c r="B140" s="2" t="n"/>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>Applicant interest</t>
+          <t>Applicant interest adjoining land</t>
         </is>
       </c>
       <c r="D140" s="2" t="inlineStr"/>
@@ -4916,7 +4904,7 @@
       <c r="F140" s="2" t="inlineStr"/>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>Description of the applicant's interest in the land</t>
+          <t>Description of the applicant's interest in the adjacent land</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -4931,11 +4919,19 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n"/>
-      <c r="B141" s="2" t="n"/>
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>Applicant interest adjoining land</t>
+          <t>Site seen from public area</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr"/>
@@ -4943,12 +4939,12 @@
       <c r="F141" s="2" t="inlineStr"/>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>Description of the applicant's interest in the adjacent land</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I141" s="2" t="inlineStr">
@@ -4958,19 +4954,11 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B142" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A142" s="2" t="n"/>
+      <c r="B142" s="2" t="n"/>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="D142" s="2" t="inlineStr"/>
@@ -4978,12 +4966,12 @@
       <c r="F142" s="2" t="inlineStr"/>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I142" s="2" t="inlineStr">
@@ -4997,7 +4985,7 @@
       <c r="B143" s="2" t="n"/>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="D143" s="2" t="inlineStr"/>
@@ -5005,17 +4993,17 @@
       <c r="F143" s="2" t="inlineStr"/>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I143" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5024,15 +5012,19 @@
       <c r="B144" s="2" t="n"/>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="D144" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="E144" s="2" t="inlineStr"/>
       <c r="F144" s="2" t="inlineStr"/>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
@@ -5042,7 +5034,7 @@
       </c>
       <c r="I144" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5056,14 +5048,14 @@
       </c>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr"/>
       <c r="F145" s="2" t="inlineStr"/>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -5087,14 +5079,14 @@
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr"/>
       <c r="F146" s="2" t="inlineStr"/>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr">
@@ -5109,23 +5101,27 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n"/>
-      <c r="B147" s="2" t="n"/>
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>Storage facilities</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>For oil and gas extraction developments, how chemicals will be stored</t>
+        </is>
+      </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D147" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Storage facilities description</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="inlineStr"/>
       <c r="E147" s="2" t="inlineStr"/>
       <c r="F147" s="2" t="inlineStr"/>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Details and proposed facilities for the storage of oil, fuel and chemicals and the proposed means of their protection</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
@@ -5142,17 +5138,17 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>Storage facilities</t>
+          <t>Trade effluent</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>For oil and gas extraction developments, how chemicals will be stored</t>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>Storage facilities description</t>
+          <t>Disposal required</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr"/>
@@ -5160,12 +5156,12 @@
       <c r="F148" s="2" t="inlineStr"/>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>Details and proposed facilities for the storage of oil, fuel and chemicals and the proposed means of their protection</t>
+          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I148" s="2" t="inlineStr">
@@ -5175,19 +5171,11 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="inlineStr">
-        <is>
-          <t>Trade effluent</t>
-        </is>
-      </c>
-      <c r="B149" s="2" t="inlineStr">
-        <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
-        </is>
-      </c>
+      <c r="A149" s="2" t="n"/>
+      <c r="B149" s="2" t="n"/>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>Disposal required</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D149" s="2" t="inlineStr"/>
@@ -5195,26 +5183,34 @@
       <c r="F149" s="2" t="inlineStr"/>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
+          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I149" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n"/>
-      <c r="B150" s="2" t="n"/>
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+        </is>
+      </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Trees on site</t>
         </is>
       </c>
       <c r="D150" s="2" t="inlineStr"/>
@@ -5222,34 +5218,26 @@
       <c r="F150" s="2" t="inlineStr"/>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
+          <t>Whether trees or hedges are present on the proposed development site</t>
         </is>
       </c>
       <c r="H150" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I150" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="inlineStr">
-        <is>
-          <t>Trees and hedges information</t>
-        </is>
-      </c>
-      <c r="B151" s="2" t="inlineStr">
-        <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
-        </is>
-      </c>
+      <c r="A151" s="2" t="n"/>
+      <c r="B151" s="2" t="n"/>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>Trees on site</t>
+          <t>Trees on adjacent land</t>
         </is>
       </c>
       <c r="D151" s="2" t="inlineStr"/>
@@ -5257,7 +5245,7 @@
       <c r="F151" s="2" t="inlineStr"/>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges are present on the proposed development site</t>
+          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
         </is>
       </c>
       <c r="H151" s="2" t="inlineStr">
@@ -5272,11 +5260,20 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="n"/>
-      <c r="B152" s="2" t="n"/>
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>Oil and gas permission types</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
+</t>
+        </is>
+      </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>Trees on adjacent land</t>
+          <t>Oil and gas permission types[]</t>
         </is>
       </c>
       <c r="D152" s="2" t="inlineStr"/>
@@ -5284,12 +5281,12 @@
       <c r="F152" s="2" t="inlineStr"/>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
+          <t>List of permission types being applied for</t>
         </is>
       </c>
       <c r="H152" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I152" s="2" t="inlineStr">
@@ -5299,33 +5296,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="inlineStr">
-        <is>
-          <t>Oil and gas permission types</t>
-        </is>
-      </c>
-      <c r="B153" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
-</t>
-        </is>
-      </c>
+      <c r="A153" s="2" t="n"/>
+      <c r="B153" s="2" t="n"/>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>Oil and gas permission types[]</t>
-        </is>
-      </c>
-      <c r="D153" s="2" t="inlineStr"/>
+          <t>Related permissions[]</t>
+        </is>
+      </c>
+      <c r="D153" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E153" s="2" t="inlineStr"/>
       <c r="F153" s="2" t="inlineStr"/>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>List of permission types being applied for</t>
+          <t>The reference for the related application that permission was received for</t>
         </is>
       </c>
       <c r="H153" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I153" s="2" t="inlineStr">
@@ -5344,19 +5336,19 @@
       </c>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Oil and gas permission type</t>
         </is>
       </c>
       <c r="E154" s="2" t="inlineStr"/>
       <c r="F154" s="2" t="inlineStr"/>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>The reference for the related application that permission was received for</t>
+          <t>An oil and gas related permission type</t>
         </is>
       </c>
       <c r="H154" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I154" s="2" t="inlineStr">
@@ -5375,19 +5367,19 @@
       </c>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>Oil and gas permission type</t>
+          <t>Decision date</t>
         </is>
       </c>
       <c r="E155" s="2" t="inlineStr"/>
       <c r="F155" s="2" t="inlineStr"/>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>An oil and gas related permission type</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I155" s="2" t="inlineStr">
@@ -5406,14 +5398,14 @@
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>Decision date</t>
+          <t>Condition number</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr"/>
       <c r="F156" s="2" t="inlineStr"/>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+          <t>Number of any condition being breached</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr">
@@ -5423,7 +5415,7 @@
       </c>
       <c r="I156" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5432,19 +5424,15 @@
       <c r="B157" s="2" t="n"/>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>Related permissions[]</t>
-        </is>
-      </c>
-      <c r="D157" s="2" t="inlineStr">
-        <is>
-          <t>Condition number</t>
-        </is>
-      </c>
+          <t>Other details</t>
+        </is>
+      </c>
+      <c r="D157" s="2" t="inlineStr"/>
       <c r="E157" s="2" t="inlineStr"/>
       <c r="F157" s="2" t="inlineStr"/>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>Number of any condition being breached</t>
+          <t>Explanation if other ground is selected</t>
         </is>
       </c>
       <c r="H157" s="2" t="inlineStr">
@@ -5463,7 +5451,7 @@
       <c r="B158" s="2" t="n"/>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>Other details</t>
+          <t>Will consolidate permissions</t>
         </is>
       </c>
       <c r="D158" s="2" t="inlineStr"/>
@@ -5471,17 +5459,17 @@
       <c r="F158" s="2" t="inlineStr"/>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>Explanation if other ground is selected</t>
+          <t>Is the applicant looking to consolidate permissions?</t>
         </is>
       </c>
       <c r="H158" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I158" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5490,7 +5478,7 @@
       <c r="B159" s="2" t="n"/>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>Will consolidate permissions</t>
+          <t>Details</t>
         </is>
       </c>
       <c r="D159" s="2" t="inlineStr"/>
@@ -5498,17 +5486,17 @@
       <c r="F159" s="2" t="inlineStr"/>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant looking to consolidate permissions?</t>
+          <t>Details about the consolidation or update of permissions</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I159" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5517,15 +5505,19 @@
       <c r="B160" s="2" t="n"/>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>Details</t>
-        </is>
-      </c>
-      <c r="D160" s="2" t="inlineStr"/>
+          <t>Related proposals[]</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E160" s="2" t="inlineStr"/>
       <c r="F160" s="2" t="inlineStr"/>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>Details about the consolidation or update of permissions</t>
+          <t>The reference for the related application</t>
         </is>
       </c>
       <c r="H160" s="2" t="inlineStr">
@@ -5535,7 +5527,7 @@
       </c>
       <c r="I160" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5549,19 +5541,19 @@
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Application type</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr"/>
       <c r="F161" s="2" t="inlineStr"/>
       <c r="G161" s="2" t="inlineStr">
         <is>
-          <t>The reference for the related application</t>
+          <t>The type of planning application</t>
         </is>
       </c>
       <c r="H161" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I161" s="2" t="inlineStr">
@@ -5580,19 +5572,19 @@
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>Application type</t>
+          <t>Decision date</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr"/>
       <c r="F162" s="2" t="inlineStr"/>
       <c r="G162" s="2" t="inlineStr">
         <is>
-          <t>The type of planning application</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H162" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I162" s="2" t="inlineStr">
@@ -5602,28 +5594,32 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="n"/>
-      <c r="B163" s="2" t="n"/>
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>Development type</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
+        </is>
+      </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>Related proposals[]</t>
-        </is>
-      </c>
-      <c r="D163" s="2" t="inlineStr">
-        <is>
-          <t>Decision date</t>
-        </is>
-      </c>
+          <t>Development phase</t>
+        </is>
+      </c>
+      <c r="D163" s="2" t="inlineStr"/>
       <c r="E163" s="2" t="inlineStr"/>
       <c r="F163" s="2" t="inlineStr"/>
       <c r="G163" s="2" t="inlineStr">
         <is>
-          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+          <t>Phases of oil and gas development the application covers</t>
         </is>
       </c>
       <c r="H163" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I163" s="2" t="inlineStr">
@@ -5633,19 +5629,11 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="inlineStr">
-        <is>
-          <t>Development type</t>
-        </is>
-      </c>
-      <c r="B164" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
-        </is>
-      </c>
+      <c r="A164" s="2" t="n"/>
+      <c r="B164" s="2" t="n"/>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>Development phase</t>
+          <t>Development description</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr"/>
@@ -5653,12 +5641,12 @@
       <c r="F164" s="2" t="inlineStr"/>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>Phases of oil and gas development the application covers</t>
+          <t>Brief description of the development, including main oils, gases, and machinery</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I164" s="2" t="inlineStr">
@@ -5672,7 +5660,7 @@
       <c r="B165" s="2" t="n"/>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>Development description</t>
+          <t>Quantity cubic metres</t>
         </is>
       </c>
       <c r="D165" s="2" t="inlineStr"/>
@@ -5680,12 +5668,12 @@
       <c r="F165" s="2" t="inlineStr"/>
       <c r="G165" s="2" t="inlineStr">
         <is>
-          <t>Brief description of the development, including main oils, gases, and machinery</t>
+          <t>Quantity of oil or gas involved in cubic metres</t>
         </is>
       </c>
       <c r="H165" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I165" s="2" t="inlineStr">
@@ -5699,7 +5687,7 @@
       <c r="B166" s="2" t="n"/>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>Quantity cubic metres</t>
+          <t>Permission period years</t>
         </is>
       </c>
       <c r="D166" s="2" t="inlineStr"/>
@@ -5707,7 +5695,7 @@
       <c r="F166" s="2" t="inlineStr"/>
       <c r="G166" s="2" t="inlineStr">
         <is>
-          <t>Quantity of oil or gas involved in cubic metres</t>
+          <t>Period of permission sought in years</t>
         </is>
       </c>
       <c r="H166" s="2" t="inlineStr">
@@ -5717,7 +5705,7 @@
       </c>
       <c r="I166" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5726,7 +5714,7 @@
       <c r="B167" s="2" t="n"/>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>Permission period years</t>
+          <t>Hydrocarbon licence block</t>
         </is>
       </c>
       <c r="D167" s="2" t="inlineStr"/>
@@ -5734,17 +5722,17 @@
       <c r="F167" s="2" t="inlineStr"/>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>Period of permission sought in years</t>
+          <t>Hydrocarbon licence block where the development is located</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I167" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5753,7 +5741,7 @@
       <c r="B168" s="2" t="n"/>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>Hydrocarbon licence block</t>
+          <t>Surface site area hectares</t>
         </is>
       </c>
       <c r="D168" s="2" t="inlineStr"/>
@@ -5761,17 +5749,17 @@
       <c r="F168" s="2" t="inlineStr"/>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>Hydrocarbon licence block where the development is located</t>
+          <t>Surface site area in hectares</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I168" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5780,7 +5768,7 @@
       <c r="B169" s="2" t="n"/>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>Surface site area hectares</t>
+          <t>Site hectares provided by</t>
         </is>
       </c>
       <c r="D169" s="2" t="inlineStr"/>
@@ -5788,12 +5776,12 @@
       <c r="F169" s="2" t="inlineStr"/>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>Surface site area in hectares</t>
+          <t>Who provided the site hectares value (applicant or system)</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I169" s="2" t="inlineStr">
@@ -5807,7 +5795,7 @@
       <c r="B170" s="2" t="n"/>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>Site hectares provided by</t>
+          <t>Environmental statement</t>
         </is>
       </c>
       <c r="D170" s="2" t="inlineStr"/>
@@ -5815,17 +5803,17 @@
       <c r="F170" s="2" t="inlineStr"/>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site hectares value (applicant or system)</t>
+          <t>Is an Environmental Statement attached to the application</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I170" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5834,7 +5822,7 @@
       <c r="B171" s="2" t="n"/>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>Environmental statement</t>
+          <t>Environmental statement reference</t>
         </is>
       </c>
       <c r="D171" s="2" t="inlineStr"/>
@@ -5842,26 +5830,34 @@
       <c r="F171" s="2" t="inlineStr"/>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>Is an Environmental Statement attached to the application</t>
+          <t>Reference to the environmental statement document</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I171" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n"/>
-      <c r="B172" s="2" t="n"/>
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>Voluntary agreement</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>Details of any voluntary agreements made as part of an oil and gas extraction application.</t>
+        </is>
+      </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>Environmental statement reference</t>
+          <t>Draft agreement included</t>
         </is>
       </c>
       <c r="D172" s="2" t="inlineStr"/>
@@ -5869,34 +5865,26 @@
       <c r="F172" s="2" t="inlineStr"/>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>Reference to the environmental statement document</t>
+          <t>Has an outline or draft agreement been included? (True / False)</t>
         </is>
       </c>
       <c r="H172" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I172" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="inlineStr">
-        <is>
-          <t>Voluntary agreement</t>
-        </is>
-      </c>
-      <c r="B173" s="2" t="inlineStr">
-        <is>
-          <t>Details of any voluntary agreements made as part of an oil and gas extraction application.</t>
-        </is>
-      </c>
+      <c r="A173" s="2" t="n"/>
+      <c r="B173" s="2" t="n"/>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>Draft agreement included</t>
+          <t>Agreement summary</t>
         </is>
       </c>
       <c r="D173" s="2" t="inlineStr"/>
@@ -5904,42 +5892,15 @@
       <c r="F173" s="2" t="inlineStr"/>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t>Has an outline or draft agreement been included? (True / False)</t>
+          <t>Summary of the agreement</t>
         </is>
       </c>
       <c r="H173" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I173" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="2" t="n"/>
-      <c r="B174" s="2" t="n"/>
-      <c r="C174" s="2" t="inlineStr">
-        <is>
-          <t>Agreement summary</t>
-        </is>
-      </c>
-      <c r="D174" s="2" t="inlineStr"/>
-      <c r="E174" s="2" t="inlineStr"/>
-      <c r="F174" s="2" t="inlineStr"/>
-      <c r="G174" s="2" t="inlineStr">
-        <is>
-          <t>Summary of the agreement</t>
-        </is>
-      </c>
-      <c r="H174" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I174" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -5947,66 +5908,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B68"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="A164:A172"/>
-    <mergeCell ref="A68"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="B90:B97"/>
-    <mergeCell ref="B124:B128"/>
-    <mergeCell ref="A129:A137"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="A84:A89"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="A148"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B98:B112"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="B2:B20"/>
-    <mergeCell ref="A60"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="A90:A97"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="B56"/>
-    <mergeCell ref="B164:B172"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="B129:B137"/>
-    <mergeCell ref="A113:A120"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="B69:B78"/>
-    <mergeCell ref="B60"/>
-    <mergeCell ref="B84:B89"/>
-    <mergeCell ref="B142:B147"/>
-    <mergeCell ref="B148"/>
-    <mergeCell ref="A61:A67"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="B153:B163"/>
-    <mergeCell ref="B61:B67"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="A153:A163"/>
-    <mergeCell ref="B113:B120"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="A98:A112"/>
-    <mergeCell ref="A142:A147"/>
-    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B97:B111"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="A68:A77"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="B141:B146"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="A147"/>
+    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="B55"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="A163:A171"/>
+    <mergeCell ref="A67"/>
+    <mergeCell ref="B128:B136"/>
+    <mergeCell ref="A112:A119"/>
+    <mergeCell ref="A59"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B123:B127"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="B59"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B137:B140"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A152:A162"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B112:B119"/>
+    <mergeCell ref="B67"/>
+    <mergeCell ref="B163:B171"/>
+    <mergeCell ref="A97:A111"/>
+    <mergeCell ref="A141:A146"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="A55"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B147"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B68:B77"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="B152:B162"/>
+    <mergeCell ref="B89:B96"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A128:A136"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas.xlsx
+++ b/generated/spreadsheet/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I173"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,17 +964,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -993,22 +993,18 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1018,7 +1014,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1037,13 +1033,13 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1072,48 +1068,48 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1123,32 +1119,28 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1172,14 +1164,18 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1189,7 +1185,7 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1208,18 +1204,18 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1229,51 +1225,47 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n"/>
-      <c r="B23" s="2" t="n"/>
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="2" t="n"/>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>agent</t>
@@ -1281,14 +1273,18 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -1298,7 +1294,7 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1317,13 +1313,13 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1333,7 +1329,7 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1352,13 +1348,13 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -1387,13 +1383,13 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1422,13 +1418,13 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1438,7 +1434,7 @@
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1452,18 +1448,14 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr"/>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1487,19 +1479,19 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -1509,58 +1501,58 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n"/>
-      <c r="B31" s="2" t="n"/>
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Telephone number and email address of the applicant.</t>
+        </is>
+      </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>Telephone number and email address of the applicant.</t>
-        </is>
-      </c>
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="2" t="n"/>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -1584,14 +1576,18 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -1601,7 +1597,7 @@
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1620,18 +1616,18 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -1641,51 +1637,47 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n"/>
-      <c r="B35" s="2" t="n"/>
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information for the parties making the application.</t>
+        </is>
+      </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr"/>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information for the parties making the application.</t>
-        </is>
-      </c>
+      <c r="A36" s="2" t="n"/>
+      <c r="B36" s="2" t="n"/>
       <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Applicants[]</t>
@@ -1693,14 +1685,18 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -1710,7 +1706,7 @@
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1729,13 +1725,13 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -1745,7 +1741,7 @@
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1764,13 +1760,13 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -1799,13 +1795,13 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -1834,13 +1830,13 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -1850,59 +1846,51 @@
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n"/>
-      <c r="B41" s="2" t="n"/>
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>Flood risk assessment</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>Results of any flood risk assessments made for the development site</t>
+        </is>
+      </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Flood risk area</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr"/>
+      <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Is the site within an area at risk of flooding?</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>Flood risk assessment</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>Results of any flood risk assessments made for the development site</t>
-        </is>
-      </c>
+      <c r="A42" s="2" t="n"/>
+      <c r="B42" s="2" t="n"/>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Flood risk area</t>
+          <t>Data provided by</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
@@ -1910,17 +1898,17 @@
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>Is the site within an area at risk of flooding?</t>
+          <t>Who provided the data: Applicant or System/Service?</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1917,7 @@
       <c r="B43" s="2" t="n"/>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Data provided by</t>
+          <t>Flood risk assessment</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
@@ -1937,12 +1925,12 @@
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>Who provided the data: Applicant or System/Service?</t>
+          <t>Reference of the flood risk assessment document</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
@@ -1956,7 +1944,7 @@
       <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Flood risk assessment</t>
+          <t>Within 20m watercourse</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
@@ -1964,17 +1952,17 @@
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>Reference of the flood risk assessment document</t>
+          <t>Whether the development is within 20 metres of a watercourse</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1983,7 +1971,7 @@
       <c r="B45" s="2" t="n"/>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Within 20m watercourse</t>
+          <t>Increases flood risk</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
@@ -1991,7 +1979,7 @@
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Whether the development is within 20 metres of a watercourse</t>
+          <t>Whether the development increases flood risk</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -2010,7 +1998,7 @@
       <c r="B46" s="2" t="n"/>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Increases flood risk</t>
+          <t>Surface water disposal[]</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
@@ -2018,12 +2006,12 @@
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>Whether the development increases flood risk</t>
+          <t>Method for disposing of surface water</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
@@ -2033,11 +2021,19 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n"/>
-      <c r="B47" s="2" t="n"/>
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>Conflict of interest</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+        </is>
+      </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Surface water disposal[]</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
@@ -2045,12 +2041,12 @@
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>Method for disposing of surface water</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
@@ -2060,19 +2056,11 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
-        </is>
-      </c>
+      <c r="A48" s="2" t="n"/>
+      <c r="B48" s="2" t="n"/>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
@@ -2080,17 +2068,17 @@
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2099,7 +2087,7 @@
       <c r="B49" s="2" t="n"/>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
@@ -2107,7 +2095,7 @@
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
@@ -2122,11 +2110,19 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n"/>
-      <c r="B50" s="2" t="n"/>
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity, geological and archaeological conservation</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
+        </is>
+      </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Protected species impact</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
@@ -2134,34 +2130,26 @@
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>Where is there a likelihood of protected and priority species being affected?</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>Biodiversity, geological and archaeological conservation</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
-        </is>
-      </c>
+      <c r="A51" s="2" t="n"/>
+      <c r="B51" s="2" t="n"/>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Protected species impact</t>
+          <t>Biodiversity features impact</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr"/>
@@ -2169,7 +2157,7 @@
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of protected and priority species being affected?</t>
+          <t>Where is there a likelihood of important habitats or biodiversity features being affected?</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
@@ -2188,7 +2176,7 @@
       <c r="B52" s="2" t="n"/>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity features impact</t>
+          <t>Geological features impact</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr"/>
@@ -2196,7 +2184,7 @@
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of important habitats or biodiversity features being affected?</t>
+          <t>Where is there a likelihood of features of geological conservation importance being affected?</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
@@ -2215,7 +2203,7 @@
       <c r="B53" s="2" t="n"/>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Geological features impact</t>
+          <t>Archaeological features impact</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr"/>
@@ -2223,7 +2211,7 @@
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of features of geological conservation importance being affected?</t>
+          <t>Where is there a likelihood of features of archaeological conservation importance being affected?</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
@@ -2238,11 +2226,19 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n"/>
-      <c r="B54" s="2" t="n"/>
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+        </is>
+      </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Archaeological features impact</t>
+          <t>National requirement types[]</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr"/>
@@ -2250,12 +2246,12 @@
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of features of archaeological conservation importance being affected?</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I54" s="2" t="inlineStr">
@@ -2267,17 +2263,17 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Declaration</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr"/>
@@ -2285,7 +2281,7 @@
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
@@ -2300,19 +2296,11 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
-        </is>
-      </c>
+      <c r="A56" s="2" t="n"/>
+      <c r="B56" s="2" t="n"/>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr"/>
@@ -2320,12 +2308,12 @@
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
@@ -2339,7 +2327,7 @@
       <c r="B57" s="2" t="n"/>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr"/>
@@ -2347,12 +2335,12 @@
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
@@ -2362,11 +2350,19 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n"/>
-      <c r="B58" s="2" t="n"/>
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>Designated areas</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>Details of any 'designated area' the develpoment site is on, such as a Conservation Area or National Park.</t>
+        </is>
+      </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Designations[]</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr"/>
@@ -2374,12 +2370,12 @@
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>List of designated areas that apply to the site</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
@@ -2391,30 +2387,34 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>Designated areas</t>
+          <t>Employment</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>Details of any 'designated area' the develpoment site is on, such as a Conservation Area or National Park.</t>
+          <t>How the proposed development will impact existing and proposed employee numbers</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Designations[]</t>
-        </is>
-      </c>
-      <c r="D59" s="2" t="inlineStr"/>
+          <t>Existing employees</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
       <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>List of designated areas that apply to the site</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I59" s="2" t="inlineStr">
@@ -2424,16 +2424,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="inlineStr">
-        <is>
-          <t>Employment</t>
-        </is>
-      </c>
-      <c r="B60" s="2" t="inlineStr">
-        <is>
-          <t>How the proposed development will impact existing and proposed employee numbers</t>
-        </is>
-      </c>
+      <c r="A60" s="2" t="n"/>
+      <c r="B60" s="2" t="n"/>
       <c r="C60" s="2" t="inlineStr">
         <is>
           <t>Existing employees</t>
@@ -2441,14 +2433,14 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr"/>
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -2472,14 +2464,14 @@
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -2498,19 +2490,19 @@
       <c r="B62" s="2" t="n"/>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Existing employees</t>
+          <t>Proposed employees</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>Total FTE</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -2534,14 +2526,14 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
@@ -2565,14 +2557,14 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -2591,38 +2583,42 @@
       <c r="B65" s="2" t="n"/>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Proposed employees</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="inlineStr">
-        <is>
-          <t>Total FTE</t>
-        </is>
-      </c>
+          <t>Employment impact</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr"/>
       <c r="E65" s="2" t="inlineStr"/>
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Summary of net employment change (gain/loss)</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n"/>
-      <c r="B66" s="2" t="n"/>
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>Equipment and method</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>How oil and gas will be extracted as part of the proposed development.</t>
+        </is>
+      </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Employment impact</t>
+          <t>Equipment plan</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr"/>
@@ -2630,7 +2626,7 @@
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>Summary of net employment change (gain/loss)</t>
+          <t>Details of equipment to be used as part of the application including the maximum height and type of drilling rig to be used</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -2640,37 +2636,41 @@
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>Equipment and method</t>
+          <t>Existing use</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>How oil and gas will be extracted as part of the proposed development.</t>
+          <t>How the site is currently being used.</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Equipment plan</t>
-        </is>
-      </c>
-      <c r="D67" s="2" t="inlineStr"/>
+          <t>Existing use details[]</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="E67" s="2" t="inlineStr"/>
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>Details of equipment to be used as part of the application including the maximum height and type of drilling rig to be used</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I67" s="2" t="inlineStr">
@@ -2680,16 +2680,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="inlineStr">
-        <is>
-          <t>Existing use</t>
-        </is>
-      </c>
-      <c r="B68" s="2" t="inlineStr">
-        <is>
-          <t>How the site is currently being used.</t>
-        </is>
-      </c>
+      <c r="A68" s="2" t="n"/>
+      <c r="B68" s="2" t="n"/>
       <c r="C68" s="2" t="inlineStr">
         <is>
           <t>Existing use details[]</t>
@@ -2697,24 +2689,24 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use details</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr"/>
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Further detail of the use</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2728,14 +2720,14 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>Use details</t>
+          <t>Land part</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr"/>
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Further detail of the use</t>
+          <t>Which part of the land the use relates to</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -2745,7 +2737,7 @@
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2754,24 +2746,20 @@
       <c r="B70" s="2" t="n"/>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>Existing use details[]</t>
-        </is>
-      </c>
-      <c r="D70" s="2" t="inlineStr">
-        <is>
-          <t>Land part</t>
-        </is>
-      </c>
+          <t>Site vacant</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr"/>
       <c r="E70" s="2" t="inlineStr"/>
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>Which part of the land the use relates to</t>
+          <t>Is the site currently vacant</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I70" s="2" t="inlineStr">
@@ -2785,7 +2773,7 @@
       <c r="B71" s="2" t="n"/>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Site vacant</t>
+          <t>Last use details</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr"/>
@@ -2793,17 +2781,17 @@
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>Is the site currently vacant</t>
+          <t>Description of the last use of the site</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I71" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2800,7 @@
       <c r="B72" s="2" t="n"/>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Last use details</t>
+          <t>Last use end date</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr"/>
@@ -2820,12 +2808,12 @@
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Description of the last use of the site</t>
+          <t>Date the last use ended (YYYY-MM-DD format)</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I72" s="2" t="inlineStr">
@@ -2839,7 +2827,7 @@
       <c r="B73" s="2" t="n"/>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>Last use end date</t>
+          <t>Is contaminated land</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr"/>
@@ -2847,17 +2835,17 @@
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Date the last use ended (YYYY-MM-DD format)</t>
+          <t>Is the site known to be contaminated?</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I73" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2866,7 +2854,7 @@
       <c r="B74" s="2" t="n"/>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>Is contaminated land</t>
+          <t>Is suspected contaminated land</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr"/>
@@ -2874,7 +2862,7 @@
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Is the site known to be contaminated?</t>
+          <t>Is the site suspected of contamination?</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr">
@@ -2893,7 +2881,7 @@
       <c r="B75" s="2" t="n"/>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Is suspected contaminated land</t>
+          <t>Proposed use contamination risk</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr"/>
@@ -2901,7 +2889,7 @@
       <c r="F75" s="2" t="inlineStr"/>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Is the site suspected of contamination?</t>
+          <t>Is the proposed use vulnerable to the presence of contamination?</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">
@@ -2920,7 +2908,7 @@
       <c r="B76" s="2" t="n"/>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Proposed use contamination risk</t>
+          <t>Contamination assessment</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr"/>
@@ -2928,26 +2916,34 @@
       <c r="F76" s="2" t="inlineStr"/>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>Is the proposed use vulnerable to the presence of contamination?</t>
+          <t>Reference to contamination assessment document</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I76" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n"/>
-      <c r="B77" s="2" t="n"/>
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>Foul sewage disposal</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>How waste water will leave the property as part of the proposed development</t>
+        </is>
+      </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Contamination assessment</t>
+          <t>Has new disposal arrangements</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr"/>
@@ -2955,34 +2951,26 @@
       <c r="F77" s="2" t="inlineStr"/>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>Reference to contamination assessment document</t>
+          <t>Does the proposal include any new foul sewage disposal arrangments</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I77" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="inlineStr">
-        <is>
-          <t>Foul sewage disposal</t>
-        </is>
-      </c>
-      <c r="B78" s="2" t="inlineStr">
-        <is>
-          <t>How waste water will leave the property as part of the proposed development</t>
-        </is>
-      </c>
+      <c r="A78" s="2" t="n"/>
+      <c r="B78" s="2" t="n"/>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Has new disposal arrangements</t>
+          <t>Foul sewage disposal types[]</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr"/>
@@ -2990,17 +2978,17 @@
       <c r="F78" s="2" t="inlineStr"/>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include any new foul sewage disposal arrangments</t>
+          <t>List of ways foul sewage will be disposed of</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I78" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3009,7 +2997,7 @@
       <c r="B79" s="2" t="n"/>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Foul sewage disposal types[]</t>
+          <t>Produce foul sewage</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr"/>
@@ -3017,17 +3005,17 @@
       <c r="F79" s="2" t="inlineStr"/>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>List of ways foul sewage will be disposed of</t>
+          <t>Whether the proposed development will produce any foul sewage</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I79" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3024,7 @@
       <c r="B80" s="2" t="n"/>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Produce foul sewage</t>
+          <t>Connect to drainage system</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr"/>
@@ -3044,7 +3032,7 @@
       <c r="F80" s="2" t="inlineStr"/>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposed development will produce any foul sewage</t>
+          <t>Whether the proposal needs to connect to the existing drainage system</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
@@ -3063,7 +3051,7 @@
       <c r="B81" s="2" t="n"/>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>Connect to drainage system</t>
+          <t>Drainage system details</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr"/>
@@ -3071,26 +3059,34 @@
       <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal needs to connect to the existing drainage system</t>
+          <t>Details of the drawings/plans that show the existing drainage system</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I81" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n"/>
-      <c r="B82" s="2" t="n"/>
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substances</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>What hazardous substances may be used as part of the development</t>
+        </is>
+      </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Drainage system details</t>
+          <t>Involves hazardous substances</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr"/>
@@ -3098,42 +3094,38 @@
       <c r="F82" s="2" t="inlineStr"/>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>Details of the drawings/plans that show the existing drainage system</t>
+          <t>Indicates if hazardous substances are involved in the proposal</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I82" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous substances</t>
-        </is>
-      </c>
-      <c r="B83" s="2" t="inlineStr">
-        <is>
-          <t>What hazardous substances may be used as part of the development</t>
-        </is>
-      </c>
+      <c r="A83" s="2" t="n"/>
+      <c r="B83" s="2" t="n"/>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Involves hazardous substances</t>
-        </is>
-      </c>
-      <c r="D83" s="2" t="inlineStr"/>
+          <t>Substance types[]</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substance type</t>
+        </is>
+      </c>
       <c r="E83" s="2" t="inlineStr"/>
       <c r="F83" s="2" t="inlineStr"/>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>Indicates if hazardous substances are involved in the proposal</t>
+          <t>Reference of hazardous substance type from predefined list</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
@@ -3157,24 +3149,24 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance type</t>
+          <t>Hazardous substance other</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr"/>
       <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>Reference of hazardous substance type from predefined list</t>
+          <t>The specific name of the hazardous substance if other is selected</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I84" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3188,24 +3180,24 @@
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance other</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr"/>
       <c r="F85" s="2" t="inlineStr"/>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>The specific name of the hazardous substance if other is selected</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I85" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3214,24 +3206,20 @@
       <c r="B86" s="2" t="n"/>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>Substance types[]</t>
-        </is>
-      </c>
-      <c r="D86" s="2" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
+          <t>Hazardous substance consent required</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr"/>
       <c r="E86" s="2" t="inlineStr"/>
       <c r="F86" s="2" t="inlineStr"/>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I86" s="2" t="inlineStr">
@@ -3245,7 +3233,7 @@
       <c r="B87" s="2" t="n"/>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent required</t>
+          <t>Hazardous substance consent details</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr"/>
@@ -3253,58 +3241,62 @@
       <c r="F87" s="2" t="inlineStr"/>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
+          <t>Details of hazardous substance consent requirements</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I87" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n"/>
-      <c r="B88" s="2" t="n"/>
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>Hours of operation</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
+        </is>
+      </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent details</t>
-        </is>
-      </c>
-      <c r="D88" s="2" t="inlineStr"/>
+          <t>Hours of operation[]</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="E88" s="2" t="inlineStr"/>
       <c r="F88" s="2" t="inlineStr"/>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>Details of hazardous substance consent requirements</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I88" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="inlineStr">
-        <is>
-          <t>Hours of operation</t>
-        </is>
-      </c>
-      <c r="B89" s="2" t="inlineStr">
-        <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
-        </is>
-      </c>
+      <c r="A89" s="2" t="n"/>
+      <c r="B89" s="2" t="n"/>
       <c r="C89" s="2" t="inlineStr">
         <is>
           <t>Hours of operation[]</t>
@@ -3312,24 +3304,24 @@
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr"/>
       <c r="F89" s="2" t="inlineStr"/>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I89" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3343,24 +3335,28 @@
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
-        </is>
-      </c>
-      <c r="E90" s="2" t="inlineStr"/>
+          <t>Operational times[]</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>Day type</t>
+        </is>
+      </c>
       <c r="F90" s="2" t="inlineStr"/>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Day or type of day</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I90" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3379,23 +3375,23 @@
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
-          <t>Day type</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="F91" s="2" t="inlineStr"/>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>Day or type of day</t>
+          <t>True or False - explicitly state when closed</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I91" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3414,23 +3410,27 @@
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="F92" s="2" t="inlineStr"/>
+          <t>Time ranges[]</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>Open time</t>
+        </is>
+      </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>True or False - explicitly state when closed</t>
+          <t>Opening time</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I92" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3454,12 +3454,12 @@
       </c>
       <c r="F93" s="2" t="inlineStr">
         <is>
-          <t>Open time</t>
+          <t>Close time</t>
         </is>
       </c>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>Opening time</t>
+          <t>Closing time</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
@@ -3483,32 +3483,24 @@
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>Operational times[]</t>
-        </is>
-      </c>
-      <c r="E94" s="2" t="inlineStr">
-        <is>
-          <t>Time ranges[]</t>
-        </is>
-      </c>
-      <c r="F94" s="2" t="inlineStr">
-        <is>
-          <t>Close time</t>
-        </is>
-      </c>
+          <t>Hours not known</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="inlineStr"/>
+      <c r="F94" s="2" t="inlineStr"/>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>Closing time</t>
+          <t>Applicant states they do not know the hours of operation</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I94" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3517,24 +3509,20 @@
       <c r="B95" s="2" t="n"/>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation[]</t>
-        </is>
-      </c>
-      <c r="D95" s="2" t="inlineStr">
-        <is>
-          <t>Hours not known</t>
-        </is>
-      </c>
+          <t>Additional information</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="inlineStr"/>
       <c r="E95" s="2" t="inlineStr"/>
       <c r="F95" s="2" t="inlineStr"/>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>Applicant states they do not know the hours of operation</t>
+          <t>Any additional information (such as hours of use of other machinery within the site-generators, pumps, etc)</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I95" s="2" t="inlineStr">
@@ -3544,11 +3532,19 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n"/>
-      <c r="B96" s="2" t="n"/>
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+        </is>
+      </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Additional information</t>
+          <t>Sole owner</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr"/>
@@ -3556,34 +3552,26 @@
       <c r="F96" s="2" t="inlineStr"/>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>Any additional information (such as hours of use of other machinery within the site-generators, pumps, etc)</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I96" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B97" s="2" t="inlineStr">
-        <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
-        </is>
-      </c>
+      <c r="A97" s="2" t="n"/>
+      <c r="B97" s="2" t="n"/>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
+          <t>Agricultural tenants</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr"/>
@@ -3591,7 +3579,7 @@
       <c r="F97" s="2" t="inlineStr"/>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr">
@@ -3610,25 +3598,33 @@
       <c r="B98" s="2" t="n"/>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
-        </is>
-      </c>
-      <c r="D98" s="2" t="inlineStr"/>
-      <c r="E98" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F98" s="2" t="inlineStr"/>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I98" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3647,13 +3643,13 @@
       </c>
       <c r="E99" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F99" s="2" t="inlineStr"/>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
@@ -3663,7 +3659,7 @@
       </c>
       <c r="I99" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3682,13 +3678,13 @@
       </c>
       <c r="E100" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F100" s="2" t="inlineStr"/>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
@@ -3717,13 +3713,13 @@
       </c>
       <c r="E101" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F101" s="2" t="inlineStr"/>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
@@ -3752,13 +3748,13 @@
       </c>
       <c r="E102" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F102" s="2" t="inlineStr"/>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr">
@@ -3768,7 +3764,7 @@
       </c>
       <c r="I102" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3782,23 +3778,19 @@
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E103" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="inlineStr"/>
       <c r="F103" s="2" t="inlineStr"/>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I103" s="2" t="inlineStr">
@@ -3812,24 +3804,20 @@
       <c r="B104" s="2" t="n"/>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="D104" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr"/>
       <c r="E104" s="2" t="inlineStr"/>
       <c r="F104" s="2" t="inlineStr"/>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I104" s="2" t="inlineStr">
@@ -3843,15 +3831,19 @@
       <c r="B105" s="2" t="n"/>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="D105" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="E105" s="2" t="inlineStr"/>
       <c r="F105" s="2" t="inlineStr"/>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
@@ -3861,7 +3853,7 @@
       </c>
       <c r="I105" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3875,19 +3867,19 @@
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr"/>
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I106" s="2" t="inlineStr">
@@ -3901,29 +3893,25 @@
       <c r="B107" s="2" t="n"/>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="D107" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="inlineStr"/>
       <c r="E107" s="2" t="inlineStr"/>
       <c r="F107" s="2" t="inlineStr"/>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I107" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3932,7 +3920,7 @@
       <c r="B108" s="2" t="n"/>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="D108" s="2" t="inlineStr"/>
@@ -3940,12 +3928,12 @@
       <c r="F108" s="2" t="inlineStr"/>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I108" s="2" t="inlineStr">
@@ -3959,7 +3947,7 @@
       <c r="B109" s="2" t="n"/>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="D109" s="2" t="inlineStr"/>
@@ -3967,7 +3955,7 @@
       <c r="F109" s="2" t="inlineStr"/>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr">
@@ -3986,7 +3974,7 @@
       <c r="B110" s="2" t="n"/>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr"/>
@@ -3994,12 +3982,12 @@
       <c r="F110" s="2" t="inlineStr"/>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I110" s="2" t="inlineStr">
@@ -4009,11 +3997,19 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n"/>
-      <c r="B111" s="2" t="n"/>
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>Access and rights of way</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
+        </is>
+      </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>New or altered vehicle access</t>
         </is>
       </c>
       <c r="D111" s="2" t="inlineStr"/>
@@ -4021,34 +4017,26 @@
       <c r="F111" s="2" t="inlineStr"/>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I111" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="inlineStr">
-        <is>
-          <t>Access and rights of way</t>
-        </is>
-      </c>
-      <c r="B112" s="2" t="inlineStr">
-        <is>
-          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
-        </is>
-      </c>
+      <c r="A112" s="2" t="n"/>
+      <c r="B112" s="2" t="n"/>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>New or altered vehicle access</t>
+          <t>New or altered pedestrian access</t>
         </is>
       </c>
       <c r="D112" s="2" t="inlineStr"/>
@@ -4056,7 +4044,7 @@
       <c r="F112" s="2" t="inlineStr"/>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
+          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -4075,7 +4063,7 @@
       <c r="B113" s="2" t="n"/>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>New or altered pedestrian access</t>
+          <t>New right of way</t>
         </is>
       </c>
       <c r="D113" s="2" t="inlineStr"/>
@@ -4083,7 +4071,7 @@
       <c r="F113" s="2" t="inlineStr"/>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
+          <t>Will new public rights of way be provided within or adjacent to the site</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -4102,7 +4090,7 @@
       <c r="B114" s="2" t="n"/>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>New right of way</t>
+          <t>New public road</t>
         </is>
       </c>
       <c r="D114" s="2" t="inlineStr"/>
@@ -4110,7 +4098,7 @@
       <c r="F114" s="2" t="inlineStr"/>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>Will new public rights of way be provided within or adjacent to the site</t>
+          <t>Will new public roads be provided within the site</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -4129,7 +4117,7 @@
       <c r="B115" s="2" t="n"/>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>New public road</t>
+          <t>Temporary right of way changes</t>
         </is>
       </c>
       <c r="D115" s="2" t="inlineStr"/>
@@ -4137,7 +4125,7 @@
       <c r="F115" s="2" t="inlineStr"/>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>Will new public roads be provided within the site</t>
+          <t>Are temporary changes to rights of way needed while the site is worked</t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr">
@@ -4156,7 +4144,7 @@
       <c r="B116" s="2" t="n"/>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>Temporary right of way changes</t>
+          <t>Future new right of way</t>
         </is>
       </c>
       <c r="D116" s="2" t="inlineStr"/>
@@ -4164,7 +4152,7 @@
       <c r="F116" s="2" t="inlineStr"/>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>Are temporary changes to rights of way needed while the site is worked</t>
+          <t>Will new public rights of way be provided after extraction?</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
@@ -4183,20 +4171,24 @@
       <c r="B117" s="2" t="n"/>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>Future new right of way</t>
-        </is>
-      </c>
-      <c r="D117" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E117" s="2" t="inlineStr"/>
       <c r="F117" s="2" t="inlineStr"/>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>Will new public rights of way be provided after extraction?</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I117" s="2" t="inlineStr">
@@ -4215,14 +4207,14 @@
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr"/>
       <c r="F118" s="2" t="inlineStr"/>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
@@ -4237,23 +4229,31 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n"/>
-      <c r="B119" s="2" t="n"/>
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>Plans, drawings and supporting materials</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="inlineStr">
+        <is>
+          <t>Additional materials and specifications that form part of the planning application</t>
+        </is>
+      </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
+          <t>Plans documents[]</t>
         </is>
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Reference number</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr"/>
       <c r="F119" s="2" t="inlineStr"/>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Unique identifier for the document</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -4268,16 +4268,8 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="inlineStr">
-        <is>
-          <t>Plans, drawings and supporting materials</t>
-        </is>
-      </c>
-      <c r="B120" s="2" t="inlineStr">
-        <is>
-          <t>Additional materials and specifications that form part of the planning application</t>
-        </is>
-      </c>
+      <c r="A120" s="2" t="n"/>
+      <c r="B120" s="2" t="n"/>
       <c r="C120" s="2" t="inlineStr">
         <is>
           <t>Plans documents[]</t>
@@ -4285,14 +4277,14 @@
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>Reference number</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr"/>
       <c r="F120" s="2" t="inlineStr"/>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>Unique identifier for the document</t>
+          <t>Name of the document (descriptive)</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
@@ -4311,19 +4303,15 @@
       <c r="B121" s="2" t="n"/>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>Plans documents[]</t>
-        </is>
-      </c>
-      <c r="D121" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Inspection address</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="inlineStr"/>
       <c r="E121" s="2" t="inlineStr"/>
       <c r="F121" s="2" t="inlineStr"/>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>Name of the document (descriptive)</t>
+          <t>Full postal address where supporting material can be inspected</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
@@ -4338,11 +4326,19 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n"/>
-      <c r="B122" s="2" t="n"/>
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>Inspection address</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="D122" s="2" t="inlineStr"/>
@@ -4350,12 +4346,12 @@
       <c r="F122" s="2" t="inlineStr"/>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>Full postal address where supporting material can be inspected</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I122" s="2" t="inlineStr">
@@ -4365,19 +4361,11 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B123" s="2" t="inlineStr">
-        <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
-        </is>
-      </c>
+      <c r="A123" s="2" t="n"/>
+      <c r="B123" s="2" t="n"/>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="D123" s="2" t="inlineStr"/>
@@ -4385,17 +4373,17 @@
       <c r="F123" s="2" t="inlineStr"/>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="H123" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I123" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4404,7 +4392,7 @@
       <c r="B124" s="2" t="n"/>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="D124" s="2" t="inlineStr"/>
@@ -4412,7 +4400,7 @@
       <c r="F124" s="2" t="inlineStr"/>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr">
@@ -4431,7 +4419,7 @@
       <c r="B125" s="2" t="n"/>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="D125" s="2" t="inlineStr"/>
@@ -4439,7 +4427,7 @@
       <c r="F125" s="2" t="inlineStr"/>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr">
@@ -4458,7 +4446,7 @@
       <c r="B126" s="2" t="n"/>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="D126" s="2" t="inlineStr"/>
@@ -4466,7 +4454,7 @@
       <c r="F126" s="2" t="inlineStr"/>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr">
@@ -4481,24 +4469,36 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n"/>
-      <c r="B127" s="2" t="n"/>
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
-        </is>
-      </c>
-      <c r="D127" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="E127" s="2" t="inlineStr"/>
       <c r="F127" s="2" t="inlineStr"/>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I127" s="2" t="inlineStr">
@@ -4508,16 +4508,8 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B128" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A128" s="2" t="n"/>
+      <c r="B128" s="2" t="n"/>
       <c r="C128" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -4525,19 +4517,19 @@
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr"/>
       <c r="F128" s="2" t="inlineStr"/>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I128" s="2" t="inlineStr">
@@ -4556,14 +4548,14 @@
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr"/>
       <c r="F129" s="2" t="inlineStr"/>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr">
@@ -4587,19 +4579,19 @@
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr"/>
       <c r="F130" s="2" t="inlineStr"/>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I130" s="2" t="inlineStr">
@@ -4618,14 +4610,14 @@
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr"/>
       <c r="F131" s="2" t="inlineStr"/>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
@@ -4649,14 +4641,14 @@
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr"/>
       <c r="F132" s="2" t="inlineStr"/>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr">
@@ -4680,14 +4672,14 @@
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr"/>
       <c r="F133" s="2" t="inlineStr"/>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr">
@@ -4711,19 +4703,19 @@
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr"/>
       <c r="F134" s="2" t="inlineStr"/>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I134" s="2" t="inlineStr">
@@ -4742,14 +4734,14 @@
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr"/>
       <c r="F135" s="2" t="inlineStr"/>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr">
@@ -4764,23 +4756,31 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n"/>
-      <c r="B136" s="2" t="n"/>
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>Site ownership</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>For oil and gas extraction developments, who owns or has an interest in the site.</t>
+        </is>
+      </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
+          <t>Site owner</t>
         </is>
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>UPRNs[]</t>
+          <t>Full name</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr"/>
       <c r="F136" s="2" t="inlineStr"/>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr">
@@ -4790,21 +4790,13 @@
       </c>
       <c r="I136" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="inlineStr">
-        <is>
-          <t>Site ownership</t>
-        </is>
-      </c>
-      <c r="B137" s="2" t="inlineStr">
-        <is>
-          <t>For oil and gas extraction developments, who owns or has an interest in the site.</t>
-        </is>
-      </c>
+      <c r="A137" s="2" t="n"/>
+      <c r="B137" s="2" t="n"/>
       <c r="C137" s="2" t="inlineStr">
         <is>
           <t>Site owner</t>
@@ -4812,14 +4804,14 @@
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
       <c r="F137" s="2" t="inlineStr"/>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr">
@@ -4838,19 +4830,15 @@
       <c r="B138" s="2" t="n"/>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>Site owner</t>
-        </is>
-      </c>
-      <c r="D138" s="2" t="inlineStr">
-        <is>
-          <t>Address Text</t>
-        </is>
-      </c>
+          <t>Applicant interest</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="inlineStr"/>
       <c r="E138" s="2" t="inlineStr"/>
       <c r="F138" s="2" t="inlineStr"/>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Description of the applicant's interest in the land</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -4869,7 +4857,7 @@
       <c r="B139" s="2" t="n"/>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>Applicant interest</t>
+          <t>Applicant interest adjoining land</t>
         </is>
       </c>
       <c r="D139" s="2" t="inlineStr"/>
@@ -4877,7 +4865,7 @@
       <c r="F139" s="2" t="inlineStr"/>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>Description of the applicant's interest in the land</t>
+          <t>Description of the applicant's interest in the adjacent land</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -4892,11 +4880,19 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n"/>
-      <c r="B140" s="2" t="n"/>
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>Applicant interest adjoining land</t>
+          <t>Site seen from public area</t>
         </is>
       </c>
       <c r="D140" s="2" t="inlineStr"/>
@@ -4904,12 +4900,12 @@
       <c r="F140" s="2" t="inlineStr"/>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>Description of the applicant's interest in the adjacent land</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I140" s="2" t="inlineStr">
@@ -4919,19 +4915,11 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B141" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A141" s="2" t="n"/>
+      <c r="B141" s="2" t="n"/>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr"/>
@@ -4939,12 +4927,12 @@
       <c r="F141" s="2" t="inlineStr"/>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I141" s="2" t="inlineStr">
@@ -4958,7 +4946,7 @@
       <c r="B142" s="2" t="n"/>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="D142" s="2" t="inlineStr"/>
@@ -4966,17 +4954,17 @@
       <c r="F142" s="2" t="inlineStr"/>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I142" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4985,15 +4973,19 @@
       <c r="B143" s="2" t="n"/>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="D143" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="E143" s="2" t="inlineStr"/>
       <c r="F143" s="2" t="inlineStr"/>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr">
@@ -5003,7 +4995,7 @@
       </c>
       <c r="I143" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5017,14 +5009,14 @@
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr"/>
       <c r="F144" s="2" t="inlineStr"/>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
@@ -5048,14 +5040,14 @@
       </c>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr"/>
       <c r="F145" s="2" t="inlineStr"/>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -5070,23 +5062,27 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n"/>
-      <c r="B146" s="2" t="n"/>
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>Storage facilities</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>For oil and gas extraction developments, how chemicals will be stored</t>
+        </is>
+      </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D146" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Storage facilities description</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="inlineStr"/>
       <c r="E146" s="2" t="inlineStr"/>
       <c r="F146" s="2" t="inlineStr"/>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Details and proposed facilities for the storage of oil, fuel and chemicals and the proposed means of their protection</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr">
@@ -5103,17 +5099,17 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>Storage facilities</t>
+          <t>Trade effluent</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>For oil and gas extraction developments, how chemicals will be stored</t>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>Storage facilities description</t>
+          <t>Disposal required</t>
         </is>
       </c>
       <c r="D147" s="2" t="inlineStr"/>
@@ -5121,12 +5117,12 @@
       <c r="F147" s="2" t="inlineStr"/>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>Details and proposed facilities for the storage of oil, fuel and chemicals and the proposed means of their protection</t>
+          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I147" s="2" t="inlineStr">
@@ -5136,19 +5132,11 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="inlineStr">
-        <is>
-          <t>Trade effluent</t>
-        </is>
-      </c>
-      <c r="B148" s="2" t="inlineStr">
-        <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
-        </is>
-      </c>
+      <c r="A148" s="2" t="n"/>
+      <c r="B148" s="2" t="n"/>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>Disposal required</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr"/>
@@ -5156,26 +5144,34 @@
       <c r="F148" s="2" t="inlineStr"/>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
+          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I148" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n"/>
-      <c r="B149" s="2" t="n"/>
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+        </is>
+      </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Trees on site</t>
         </is>
       </c>
       <c r="D149" s="2" t="inlineStr"/>
@@ -5183,34 +5179,26 @@
       <c r="F149" s="2" t="inlineStr"/>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
+          <t>Whether trees or hedges are present on the proposed development site</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I149" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="inlineStr">
-        <is>
-          <t>Trees and hedges information</t>
-        </is>
-      </c>
-      <c r="B150" s="2" t="inlineStr">
-        <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
-        </is>
-      </c>
+      <c r="A150" s="2" t="n"/>
+      <c r="B150" s="2" t="n"/>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>Trees on site</t>
+          <t>Trees on adjacent land</t>
         </is>
       </c>
       <c r="D150" s="2" t="inlineStr"/>
@@ -5218,7 +5206,7 @@
       <c r="F150" s="2" t="inlineStr"/>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges are present on the proposed development site</t>
+          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
         </is>
       </c>
       <c r="H150" s="2" t="inlineStr">
@@ -5233,11 +5221,20 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="n"/>
-      <c r="B151" s="2" t="n"/>
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>Oil and gas permission types</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
+</t>
+        </is>
+      </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>Trees on adjacent land</t>
+          <t>Oil and gas permission types[]</t>
         </is>
       </c>
       <c r="D151" s="2" t="inlineStr"/>
@@ -5245,12 +5242,12 @@
       <c r="F151" s="2" t="inlineStr"/>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
+          <t>List of permission types being applied for</t>
         </is>
       </c>
       <c r="H151" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I151" s="2" t="inlineStr">
@@ -5260,33 +5257,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="inlineStr">
-        <is>
-          <t>Oil and gas permission types</t>
-        </is>
-      </c>
-      <c r="B152" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
-</t>
-        </is>
-      </c>
+      <c r="A152" s="2" t="n"/>
+      <c r="B152" s="2" t="n"/>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>Oil and gas permission types[]</t>
-        </is>
-      </c>
-      <c r="D152" s="2" t="inlineStr"/>
+          <t>Related permissions[]</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E152" s="2" t="inlineStr"/>
       <c r="F152" s="2" t="inlineStr"/>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t>List of permission types being applied for</t>
+          <t>The reference for the related application that permission was received for</t>
         </is>
       </c>
       <c r="H152" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I152" s="2" t="inlineStr">
@@ -5305,19 +5297,19 @@
       </c>
       <c r="D153" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Oil and gas permission type</t>
         </is>
       </c>
       <c r="E153" s="2" t="inlineStr"/>
       <c r="F153" s="2" t="inlineStr"/>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>The reference for the related application that permission was received for</t>
+          <t>An oil and gas related permission type</t>
         </is>
       </c>
       <c r="H153" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I153" s="2" t="inlineStr">
@@ -5336,19 +5328,19 @@
       </c>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>Oil and gas permission type</t>
+          <t>Decision date</t>
         </is>
       </c>
       <c r="E154" s="2" t="inlineStr"/>
       <c r="F154" s="2" t="inlineStr"/>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>An oil and gas related permission type</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H154" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I154" s="2" t="inlineStr">
@@ -5367,14 +5359,14 @@
       </c>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>Decision date</t>
+          <t>Condition number</t>
         </is>
       </c>
       <c r="E155" s="2" t="inlineStr"/>
       <c r="F155" s="2" t="inlineStr"/>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+          <t>Number of any condition being breached</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr">
@@ -5384,7 +5376,7 @@
       </c>
       <c r="I155" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5393,19 +5385,15 @@
       <c r="B156" s="2" t="n"/>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>Related permissions[]</t>
-        </is>
-      </c>
-      <c r="D156" s="2" t="inlineStr">
-        <is>
-          <t>Condition number</t>
-        </is>
-      </c>
+          <t>Other details</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="inlineStr"/>
       <c r="E156" s="2" t="inlineStr"/>
       <c r="F156" s="2" t="inlineStr"/>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>Number of any condition being breached</t>
+          <t>Explanation if other ground is selected</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr">
@@ -5424,7 +5412,7 @@
       <c r="B157" s="2" t="n"/>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>Other details</t>
+          <t>Will consolidate permissions</t>
         </is>
       </c>
       <c r="D157" s="2" t="inlineStr"/>
@@ -5432,17 +5420,17 @@
       <c r="F157" s="2" t="inlineStr"/>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>Explanation if other ground is selected</t>
+          <t>Is the applicant looking to consolidate permissions?</t>
         </is>
       </c>
       <c r="H157" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I157" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5451,7 +5439,7 @@
       <c r="B158" s="2" t="n"/>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>Will consolidate permissions</t>
+          <t>Details</t>
         </is>
       </c>
       <c r="D158" s="2" t="inlineStr"/>
@@ -5459,17 +5447,17 @@
       <c r="F158" s="2" t="inlineStr"/>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant looking to consolidate permissions?</t>
+          <t>Details about the consolidation or update of permissions</t>
         </is>
       </c>
       <c r="H158" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I158" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5478,15 +5466,19 @@
       <c r="B159" s="2" t="n"/>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>Details</t>
-        </is>
-      </c>
-      <c r="D159" s="2" t="inlineStr"/>
+          <t>Related proposals[]</t>
+        </is>
+      </c>
+      <c r="D159" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E159" s="2" t="inlineStr"/>
       <c r="F159" s="2" t="inlineStr"/>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>Details about the consolidation or update of permissions</t>
+          <t>The reference for the related application</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr">
@@ -5496,7 +5488,7 @@
       </c>
       <c r="I159" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5510,19 +5502,19 @@
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Application type</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr"/>
       <c r="F160" s="2" t="inlineStr"/>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>The reference for the related application</t>
+          <t>The type of planning application</t>
         </is>
       </c>
       <c r="H160" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I160" s="2" t="inlineStr">
@@ -5541,19 +5533,19 @@
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>Application type</t>
+          <t>Decision date</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr"/>
       <c r="F161" s="2" t="inlineStr"/>
       <c r="G161" s="2" t="inlineStr">
         <is>
-          <t>The type of planning application</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H161" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I161" s="2" t="inlineStr">
@@ -5563,28 +5555,32 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="n"/>
-      <c r="B162" s="2" t="n"/>
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>Development type</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
+        </is>
+      </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>Related proposals[]</t>
-        </is>
-      </c>
-      <c r="D162" s="2" t="inlineStr">
-        <is>
-          <t>Decision date</t>
-        </is>
-      </c>
+          <t>Development phase</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="inlineStr"/>
       <c r="E162" s="2" t="inlineStr"/>
       <c r="F162" s="2" t="inlineStr"/>
       <c r="G162" s="2" t="inlineStr">
         <is>
-          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+          <t>Phases of oil and gas development the application covers</t>
         </is>
       </c>
       <c r="H162" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I162" s="2" t="inlineStr">
@@ -5594,19 +5590,11 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="inlineStr">
-        <is>
-          <t>Development type</t>
-        </is>
-      </c>
-      <c r="B163" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
-        </is>
-      </c>
+      <c r="A163" s="2" t="n"/>
+      <c r="B163" s="2" t="n"/>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>Development phase</t>
+          <t>Development description</t>
         </is>
       </c>
       <c r="D163" s="2" t="inlineStr"/>
@@ -5614,12 +5602,12 @@
       <c r="F163" s="2" t="inlineStr"/>
       <c r="G163" s="2" t="inlineStr">
         <is>
-          <t>Phases of oil and gas development the application covers</t>
+          <t>Brief description of the development, including main oils, gases, and machinery</t>
         </is>
       </c>
       <c r="H163" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I163" s="2" t="inlineStr">
@@ -5633,7 +5621,7 @@
       <c r="B164" s="2" t="n"/>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>Development description</t>
+          <t>Quantity cubic metres</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr"/>
@@ -5641,12 +5629,12 @@
       <c r="F164" s="2" t="inlineStr"/>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>Brief description of the development, including main oils, gases, and machinery</t>
+          <t>Quantity of oil or gas involved in cubic metres</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I164" s="2" t="inlineStr">
@@ -5660,7 +5648,7 @@
       <c r="B165" s="2" t="n"/>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>Quantity cubic metres</t>
+          <t>Permission period years</t>
         </is>
       </c>
       <c r="D165" s="2" t="inlineStr"/>
@@ -5668,7 +5656,7 @@
       <c r="F165" s="2" t="inlineStr"/>
       <c r="G165" s="2" t="inlineStr">
         <is>
-          <t>Quantity of oil or gas involved in cubic metres</t>
+          <t>Period of permission sought in years</t>
         </is>
       </c>
       <c r="H165" s="2" t="inlineStr">
@@ -5678,7 +5666,7 @@
       </c>
       <c r="I165" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5687,7 +5675,7 @@
       <c r="B166" s="2" t="n"/>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>Permission period years</t>
+          <t>Hydrocarbon licence block</t>
         </is>
       </c>
       <c r="D166" s="2" t="inlineStr"/>
@@ -5695,17 +5683,17 @@
       <c r="F166" s="2" t="inlineStr"/>
       <c r="G166" s="2" t="inlineStr">
         <is>
-          <t>Period of permission sought in years</t>
+          <t>Hydrocarbon licence block where the development is located</t>
         </is>
       </c>
       <c r="H166" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I166" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5714,7 +5702,7 @@
       <c r="B167" s="2" t="n"/>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>Hydrocarbon licence block</t>
+          <t>Surface site area hectares</t>
         </is>
       </c>
       <c r="D167" s="2" t="inlineStr"/>
@@ -5722,17 +5710,17 @@
       <c r="F167" s="2" t="inlineStr"/>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>Hydrocarbon licence block where the development is located</t>
+          <t>Surface site area in hectares</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I167" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5741,7 +5729,7 @@
       <c r="B168" s="2" t="n"/>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>Surface site area hectares</t>
+          <t>Site hectares provided by</t>
         </is>
       </c>
       <c r="D168" s="2" t="inlineStr"/>
@@ -5749,12 +5737,12 @@
       <c r="F168" s="2" t="inlineStr"/>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>Surface site area in hectares</t>
+          <t>Who provided the site hectares value (applicant or system)</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I168" s="2" t="inlineStr">
@@ -5768,7 +5756,7 @@
       <c r="B169" s="2" t="n"/>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>Site hectares provided by</t>
+          <t>Environmental statement</t>
         </is>
       </c>
       <c r="D169" s="2" t="inlineStr"/>
@@ -5776,17 +5764,17 @@
       <c r="F169" s="2" t="inlineStr"/>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site hectares value (applicant or system)</t>
+          <t>Is an Environmental Statement attached to the application</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I169" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5795,7 +5783,7 @@
       <c r="B170" s="2" t="n"/>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>Environmental statement</t>
+          <t>Environmental statement reference</t>
         </is>
       </c>
       <c r="D170" s="2" t="inlineStr"/>
@@ -5803,26 +5791,34 @@
       <c r="F170" s="2" t="inlineStr"/>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>Is an Environmental Statement attached to the application</t>
+          <t>Reference to the environmental statement document</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I170" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="n"/>
-      <c r="B171" s="2" t="n"/>
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>Voluntary agreement</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="inlineStr">
+        <is>
+          <t>Details of any voluntary agreements made as part of an oil and gas extraction application.</t>
+        </is>
+      </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>Environmental statement reference</t>
+          <t>Draft agreement included</t>
         </is>
       </c>
       <c r="D171" s="2" t="inlineStr"/>
@@ -5830,34 +5826,26 @@
       <c r="F171" s="2" t="inlineStr"/>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>Reference to the environmental statement document</t>
+          <t>Has an outline or draft agreement been included? (True / False)</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I171" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="inlineStr">
-        <is>
-          <t>Voluntary agreement</t>
-        </is>
-      </c>
-      <c r="B172" s="2" t="inlineStr">
-        <is>
-          <t>Details of any voluntary agreements made as part of an oil and gas extraction application.</t>
-        </is>
-      </c>
+      <c r="A172" s="2" t="n"/>
+      <c r="B172" s="2" t="n"/>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>Draft agreement included</t>
+          <t>Agreement summary</t>
         </is>
       </c>
       <c r="D172" s="2" t="inlineStr"/>
@@ -5865,42 +5853,15 @@
       <c r="F172" s="2" t="inlineStr"/>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>Has an outline or draft agreement been included? (True / False)</t>
+          <t>Summary of the agreement</t>
         </is>
       </c>
       <c r="H172" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I172" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="2" t="n"/>
-      <c r="B173" s="2" t="n"/>
-      <c r="C173" s="2" t="inlineStr">
-        <is>
-          <t>Agreement summary</t>
-        </is>
-      </c>
-      <c r="D173" s="2" t="inlineStr"/>
-      <c r="E173" s="2" t="inlineStr"/>
-      <c r="F173" s="2" t="inlineStr"/>
-      <c r="G173" s="2" t="inlineStr">
-        <is>
-          <t>Summary of the agreement</t>
-        </is>
-      </c>
-      <c r="H173" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I173" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -5908,66 +5869,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B97:B111"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="A68:A77"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="B141:B146"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="A147"/>
-    <mergeCell ref="B60:B66"/>
-    <mergeCell ref="B55"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="A163:A171"/>
-    <mergeCell ref="A67"/>
-    <mergeCell ref="B128:B136"/>
-    <mergeCell ref="A112:A119"/>
-    <mergeCell ref="A59"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B123:B127"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="B59"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B137:B140"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="A89:A96"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A152:A162"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B112:B119"/>
-    <mergeCell ref="B67"/>
-    <mergeCell ref="B163:B171"/>
-    <mergeCell ref="A97:A111"/>
-    <mergeCell ref="A141:A146"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="A55"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B147"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B68:B77"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="B24:B31"/>
-    <mergeCell ref="B152:B162"/>
-    <mergeCell ref="B89:B96"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A128:A136"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="A162:A170"/>
+    <mergeCell ref="A111:A118"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B96:B110"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A151:A161"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="B140:B145"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="A67:A76"/>
+    <mergeCell ref="A58"/>
+    <mergeCell ref="B136:B139"/>
+    <mergeCell ref="B162:B170"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="B111:B118"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="B151:B161"/>
+    <mergeCell ref="B127:B135"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B54"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="B82:B87"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B66"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A59:A65"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="A136:A139"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="B67:B76"/>
+    <mergeCell ref="B58"/>
+    <mergeCell ref="A146"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="B88:B95"/>
+    <mergeCell ref="A127:A135"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A54"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="A66"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="A96:A110"/>
+    <mergeCell ref="A140:A145"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="B146"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="B41:B46"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas.xlsx
+++ b/generated/spreadsheet/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I172"/>
+  <dimension ref="A1:I167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -842,27 +842,23 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>Base64</t>
-        </is>
-      </c>
+          <t>Uploaded date</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>The date the document was uploaded to the application</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -886,12 +882,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -901,7 +897,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -925,12 +921,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -940,7 +936,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -964,17 +960,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>File size</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -993,18 +989,22 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Fee</t>
+          <t>Documents[]</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr"/>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>File size</t>
+        </is>
+      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1033,13 +1033,13 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1068,48 +1068,48 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Transactions[]</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr"/>
-      <c r="E19" s="2" t="inlineStr"/>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>Fee</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>Transactions[]</t>
+        </is>
+      </c>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1119,28 +1119,32 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1164,18 +1168,14 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1204,18 +1204,18 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1225,47 +1225,51 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="2" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>agent</t>
@@ -1273,18 +1277,14 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1313,13 +1313,13 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1348,13 +1348,13 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -1383,13 +1383,13 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1418,13 +1418,13 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1448,14 +1448,18 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1479,19 +1483,19 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>User role</t>
+          <t>Company</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -1501,58 +1505,58 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>Telephone number and email address of the applicant.</t>
-        </is>
-      </c>
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr"/>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>User role</t>
+        </is>
+      </c>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Telephone number and email address of the applicant.</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -1576,18 +1580,14 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1616,18 +1616,18 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -1637,47 +1637,51 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information for the parties making the application.</t>
-        </is>
-      </c>
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="2" t="n"/>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information for the parties making the application.</t>
+        </is>
+      </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Applicants[]</t>
@@ -1685,18 +1689,14 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr"/>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1725,13 +1725,13 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1760,13 +1760,13 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -1795,13 +1795,13 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -1830,13 +1830,13 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -1846,51 +1846,59 @@
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>Flood risk assessment</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>Results of any flood risk assessments made for the development site</t>
-        </is>
-      </c>
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="2" t="n"/>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Flood risk area</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr"/>
-      <c r="E41" s="2" t="inlineStr"/>
+          <t>Applicants[]</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>Is the site within an area at risk of flooding?</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n"/>
-      <c r="B42" s="2" t="n"/>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Flood risk assessment</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>Results of any flood risk assessments made for the development site</t>
+        </is>
+      </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Data provided by</t>
+          <t>Flood risk area</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
@@ -1898,17 +1906,17 @@
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>Who provided the data: Applicant or System/Service?</t>
+          <t>Is the site within an area at risk of flooding?</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1925,7 @@
       <c r="B43" s="2" t="n"/>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Flood risk assessment</t>
+          <t>Data provided by</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
@@ -1925,12 +1933,12 @@
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>Reference of the flood risk assessment document</t>
+          <t>Who provided the data: Applicant or System/Service?</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
@@ -1944,7 +1952,7 @@
       <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Within 20m watercourse</t>
+          <t>Flood risk assessment</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
@@ -1952,17 +1960,17 @@
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>Whether the development is within 20 metres of a watercourse</t>
+          <t>Reference of the flood risk assessment document</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1979,7 @@
       <c r="B45" s="2" t="n"/>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Increases flood risk</t>
+          <t>Within 20m watercourse</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
@@ -1979,7 +1987,7 @@
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Whether the development increases flood risk</t>
+          <t>Whether the development is within 20 metres of a watercourse</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -1998,7 +2006,7 @@
       <c r="B46" s="2" t="n"/>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Surface water disposal[]</t>
+          <t>Increases flood risk</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
@@ -2006,12 +2014,12 @@
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>Method for disposing of surface water</t>
+          <t>Whether the development increases flood risk</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
@@ -2021,19 +2029,11 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
-        </is>
-      </c>
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="2" t="n"/>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Surface water disposal[]</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
@@ -2041,12 +2041,12 @@
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Method for disposing of surface water</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
@@ -2056,11 +2056,19 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n"/>
-      <c r="B48" s="2" t="n"/>
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Conflict of interest</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+        </is>
+      </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
@@ -2068,17 +2076,17 @@
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2095,7 @@
       <c r="B49" s="2" t="n"/>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
@@ -2095,7 +2103,7 @@
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
@@ -2110,19 +2118,11 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>Biodiversity, geological and archaeological conservation</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
-        </is>
-      </c>
+      <c r="A50" s="2" t="n"/>
+      <c r="B50" s="2" t="n"/>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Protected species impact</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
@@ -2130,26 +2130,34 @@
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of protected and priority species being affected?</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n"/>
-      <c r="B51" s="2" t="n"/>
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity, geological and archaeological conservation</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
+        </is>
+      </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity features impact</t>
+          <t>Protected species impact</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr"/>
@@ -2157,7 +2165,7 @@
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of important habitats or biodiversity features being affected?</t>
+          <t>Where is there a likelihood of protected and priority species being affected?</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
@@ -2176,7 +2184,7 @@
       <c r="B52" s="2" t="n"/>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Geological features impact</t>
+          <t>Biodiversity features impact</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr"/>
@@ -2184,7 +2192,7 @@
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of features of geological conservation importance being affected?</t>
+          <t>Where is there a likelihood of important habitats or biodiversity features being affected?</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
@@ -2203,7 +2211,7 @@
       <c r="B53" s="2" t="n"/>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Archaeological features impact</t>
+          <t>Geological features impact</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr"/>
@@ -2211,7 +2219,7 @@
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of features of archaeological conservation importance being affected?</t>
+          <t>Where is there a likelihood of features of geological conservation importance being affected?</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
@@ -2226,19 +2234,11 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="inlineStr">
-        <is>
-          <t>Checklist</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
-        </is>
-      </c>
+      <c r="A54" s="2" t="n"/>
+      <c r="B54" s="2" t="n"/>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Archaeological features impact</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr"/>
@@ -2246,12 +2246,12 @@
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Where is there a likelihood of features of archaeological conservation importance being affected?</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I54" s="2" t="inlineStr">
@@ -2263,17 +2263,17 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>Declaration</t>
+          <t>Checklist</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>National requirement types[]</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr"/>
@@ -2281,7 +2281,7 @@
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
@@ -2296,11 +2296,19 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n"/>
-      <c r="B56" s="2" t="n"/>
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>Signed and dated verification of the application's accuracy.</t>
+        </is>
+      </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr"/>
@@ -2308,12 +2316,12 @@
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
@@ -2327,7 +2335,7 @@
       <c r="B57" s="2" t="n"/>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr"/>
@@ -2335,12 +2343,12 @@
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
@@ -2350,19 +2358,11 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr">
-        <is>
-          <t>Designated areas</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>Details of any 'designated area' the develpoment site is on, such as a Conservation Area or National Park.</t>
-        </is>
-      </c>
+      <c r="A58" s="2" t="n"/>
+      <c r="B58" s="2" t="n"/>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Designations[]</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr"/>
@@ -2370,12 +2370,12 @@
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>List of designated areas that apply to the site</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
@@ -2387,34 +2387,30 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Designated areas</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>How the proposed development will impact existing and proposed employee numbers</t>
+          <t>Details of any 'designated area' the develpoment site is on, such as a Conservation Area or National Park.</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Existing employees</t>
-        </is>
-      </c>
-      <c r="D59" s="2" t="inlineStr">
-        <is>
-          <t>Full-time</t>
-        </is>
-      </c>
+          <t>Designations[]</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr"/>
       <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>List of designated areas that apply to the site</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I59" s="2" t="inlineStr">
@@ -2424,8 +2420,16 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n"/>
-      <c r="B60" s="2" t="n"/>
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>Employment</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>How the proposed development will impact existing and proposed employee numbers</t>
+        </is>
+      </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
           <t>Existing employees</t>
@@ -2433,14 +2437,14 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr"/>
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -2464,14 +2468,14 @@
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>Total FTE</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -2490,19 +2494,19 @@
       <c r="B62" s="2" t="n"/>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Proposed employees</t>
+          <t>Existing employees</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -2526,14 +2530,14 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
@@ -2557,14 +2561,14 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>Total FTE</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -2583,42 +2587,38 @@
       <c r="B65" s="2" t="n"/>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Employment impact</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="inlineStr"/>
+          <t>Proposed employees</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>Total FTE</t>
+        </is>
+      </c>
       <c r="E65" s="2" t="inlineStr"/>
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>Summary of net employment change (gain/loss)</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="inlineStr">
-        <is>
-          <t>Equipment and method</t>
-        </is>
-      </c>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>How oil and gas will be extracted as part of the proposed development.</t>
-        </is>
-      </c>
+      <c r="A66" s="2" t="n"/>
+      <c r="B66" s="2" t="n"/>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Equipment plan</t>
+          <t>Employment impact</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr"/>
@@ -2626,7 +2626,7 @@
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>Details of equipment to be used as part of the application including the maximum height and type of drilling rig to be used</t>
+          <t>Summary of net employment change (gain/loss)</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -2636,41 +2636,37 @@
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>Existing use</t>
+          <t>Equipment and method</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>How the site is currently being used.</t>
+          <t>How oil and gas will be extracted as part of the proposed development.</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Existing use details[]</t>
-        </is>
-      </c>
-      <c r="D67" s="2" t="inlineStr">
-        <is>
-          <t>Use</t>
-        </is>
-      </c>
+          <t>Equipment plan</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr"/>
       <c r="E67" s="2" t="inlineStr"/>
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Details of equipment to be used as part of the application including the maximum height and type of drilling rig to be used</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I67" s="2" t="inlineStr">
@@ -2680,8 +2676,16 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n"/>
-      <c r="B68" s="2" t="n"/>
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>Existing use</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>How the site is currently being used.</t>
+        </is>
+      </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
           <t>Existing use details[]</t>
@@ -2689,24 +2693,24 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>Use details</t>
+          <t>Use</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr"/>
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>Further detail of the use</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2720,14 +2724,14 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>Land part</t>
+          <t>Use details</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr"/>
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Which part of the land the use relates to</t>
+          <t>Further detail of the use</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -2737,7 +2741,7 @@
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2746,20 +2750,24 @@
       <c r="B70" s="2" t="n"/>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>Site vacant</t>
-        </is>
-      </c>
-      <c r="D70" s="2" t="inlineStr"/>
+          <t>Existing use details[]</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>Land part</t>
+        </is>
+      </c>
       <c r="E70" s="2" t="inlineStr"/>
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>Is the site currently vacant</t>
+          <t>Which part of the land the use relates to</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I70" s="2" t="inlineStr">
@@ -2773,7 +2781,7 @@
       <c r="B71" s="2" t="n"/>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Last use details</t>
+          <t>Site vacant</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr"/>
@@ -2781,17 +2789,17 @@
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>Description of the last use of the site</t>
+          <t>Is the site currently vacant</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I71" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2800,7 +2808,7 @@
       <c r="B72" s="2" t="n"/>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Last use end date</t>
+          <t>Last use details</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr"/>
@@ -2808,12 +2816,12 @@
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Date the last use ended (YYYY-MM-DD format)</t>
+          <t>Description of the last use of the site</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I72" s="2" t="inlineStr">
@@ -2827,7 +2835,7 @@
       <c r="B73" s="2" t="n"/>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>Is contaminated land</t>
+          <t>Last use end date</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr"/>
@@ -2835,17 +2843,17 @@
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Is the site known to be contaminated?</t>
+          <t>Date the last use ended (YYYY-MM-DD format)</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I73" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2854,7 +2862,7 @@
       <c r="B74" s="2" t="n"/>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>Is suspected contaminated land</t>
+          <t>Is contaminated land</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr"/>
@@ -2862,7 +2870,7 @@
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Is the site suspected of contamination?</t>
+          <t>Is the site known to be contaminated?</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr">
@@ -2881,7 +2889,7 @@
       <c r="B75" s="2" t="n"/>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Proposed use contamination risk</t>
+          <t>Is suspected contaminated land</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr"/>
@@ -2889,7 +2897,7 @@
       <c r="F75" s="2" t="inlineStr"/>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Is the proposed use vulnerable to the presence of contamination?</t>
+          <t>Is the site suspected of contamination?</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">
@@ -2908,7 +2916,7 @@
       <c r="B76" s="2" t="n"/>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Contamination assessment</t>
+          <t>Proposed use contamination risk</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr"/>
@@ -2916,34 +2924,26 @@
       <c r="F76" s="2" t="inlineStr"/>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>Reference to contamination assessment document</t>
+          <t>Is the proposed use vulnerable to the presence of contamination?</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I76" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="inlineStr">
-        <is>
-          <t>Foul sewage disposal</t>
-        </is>
-      </c>
-      <c r="B77" s="2" t="inlineStr">
-        <is>
-          <t>How waste water will leave the property as part of the proposed development</t>
-        </is>
-      </c>
+      <c r="A77" s="2" t="n"/>
+      <c r="B77" s="2" t="n"/>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Has new disposal arrangements</t>
+          <t>Contamination assessment</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr"/>
@@ -2951,26 +2951,34 @@
       <c r="F77" s="2" t="inlineStr"/>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include any new foul sewage disposal arrangments</t>
+          <t>Reference to contamination assessment document</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I77" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n"/>
-      <c r="B78" s="2" t="n"/>
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>Foul sewage disposal</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>How waste water will leave the property as part of the proposed development</t>
+        </is>
+      </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Foul sewage disposal types[]</t>
+          <t>Has new disposal arrangements</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr"/>
@@ -2978,17 +2986,17 @@
       <c r="F78" s="2" t="inlineStr"/>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>List of ways foul sewage will be disposed of</t>
+          <t>Does the proposal include any new foul sewage disposal arrangments</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I78" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2997,7 +3005,7 @@
       <c r="B79" s="2" t="n"/>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Produce foul sewage</t>
+          <t>Foul sewage disposal types[]</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr"/>
@@ -3005,17 +3013,17 @@
       <c r="F79" s="2" t="inlineStr"/>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposed development will produce any foul sewage</t>
+          <t>List of ways foul sewage will be disposed of</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I79" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3024,7 +3032,7 @@
       <c r="B80" s="2" t="n"/>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Connect to drainage system</t>
+          <t>Produce foul sewage</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr"/>
@@ -3032,7 +3040,7 @@
       <c r="F80" s="2" t="inlineStr"/>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal needs to connect to the existing drainage system</t>
+          <t>Whether the proposed development will produce any foul sewage</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
@@ -3051,7 +3059,7 @@
       <c r="B81" s="2" t="n"/>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>Drainage system details</t>
+          <t>Connect to drainage system</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr"/>
@@ -3059,34 +3067,26 @@
       <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>Details of the drawings/plans that show the existing drainage system</t>
+          <t>Whether the proposal needs to connect to the existing drainage system</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I81" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous substances</t>
-        </is>
-      </c>
-      <c r="B82" s="2" t="inlineStr">
-        <is>
-          <t>What hazardous substances may be used as part of the development</t>
-        </is>
-      </c>
+      <c r="A82" s="2" t="n"/>
+      <c r="B82" s="2" t="n"/>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Involves hazardous substances</t>
+          <t>Drainage system details</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr"/>
@@ -3094,43 +3094,47 @@
       <c r="F82" s="2" t="inlineStr"/>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>Indicates if hazardous substances are involved in the proposal</t>
+          <t>Details of the drawings/plans that show the existing drainage system</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I82" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n"/>
-      <c r="B83" s="2" t="n"/>
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substances</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>Details of hazardous substances requiring consent used as part of the development</t>
+        </is>
+      </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Substance types[]</t>
-        </is>
-      </c>
-      <c r="D83" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous substance type</t>
-        </is>
-      </c>
+          <t>Hazardous substance consent required</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr"/>
       <c r="E83" s="2" t="inlineStr"/>
       <c r="F83" s="2" t="inlineStr"/>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>Reference of hazardous substance type from predefined list</t>
+          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I83" s="2" t="inlineStr">
@@ -3144,19 +3148,15 @@
       <c r="B84" s="2" t="n"/>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>Substance types[]</t>
-        </is>
-      </c>
-      <c r="D84" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous substance other</t>
-        </is>
-      </c>
+          <t>Hazardous substance consent details</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr"/>
       <c r="E84" s="2" t="inlineStr"/>
       <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>The specific name of the hazardous substance if other is selected</t>
+          <t>Details of hazardous substance consent requirements</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
@@ -3171,28 +3171,36 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n"/>
-      <c r="B85" s="2" t="n"/>
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>Hours of operation</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
+        </is>
+      </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Substance types[]</t>
+          <t>Hours of operation[]</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Use</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr"/>
       <c r="F85" s="2" t="inlineStr"/>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I85" s="2" t="inlineStr">
@@ -3206,25 +3214,29 @@
       <c r="B86" s="2" t="n"/>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent required</t>
-        </is>
-      </c>
-      <c r="D86" s="2" t="inlineStr"/>
+          <t>Hours of operation[]</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>Use other</t>
+        </is>
+      </c>
       <c r="E86" s="2" t="inlineStr"/>
       <c r="F86" s="2" t="inlineStr"/>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I86" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3233,39 +3245,39 @@
       <c r="B87" s="2" t="n"/>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent details</t>
-        </is>
-      </c>
-      <c r="D87" s="2" t="inlineStr"/>
-      <c r="E87" s="2" t="inlineStr"/>
+          <t>Hours of operation[]</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>Operational times[]</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>Day type</t>
+        </is>
+      </c>
       <c r="F87" s="2" t="inlineStr"/>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>Details of hazardous substance consent requirements</t>
+          <t>Day or type of day</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I87" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="inlineStr">
-        <is>
-          <t>Hours of operation</t>
-        </is>
-      </c>
-      <c r="B88" s="2" t="inlineStr">
-        <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
-        </is>
-      </c>
+      <c r="A88" s="2" t="n"/>
+      <c r="B88" s="2" t="n"/>
       <c r="C88" s="2" t="inlineStr">
         <is>
           <t>Hours of operation[]</t>
@@ -3273,24 +3285,28 @@
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
-        </is>
-      </c>
-      <c r="E88" s="2" t="inlineStr"/>
+          <t>Operational times[]</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
       <c r="F88" s="2" t="inlineStr"/>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>True or False - explicitly state when closed</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I88" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3304,14 +3320,22 @@
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
-        </is>
-      </c>
-      <c r="E89" s="2" t="inlineStr"/>
-      <c r="F89" s="2" t="inlineStr"/>
+          <t>Operational times[]</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>Time ranges[]</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>Open time</t>
+        </is>
+      </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Opening time</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
@@ -3321,7 +3345,7 @@
       </c>
       <c r="I89" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3340,18 +3364,22 @@
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t>Day type</t>
-        </is>
-      </c>
-      <c r="F90" s="2" t="inlineStr"/>
+          <t>Time ranges[]</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>Close time</t>
+        </is>
+      </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>Day or type of day</t>
+          <t>Closing time</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I90" s="2" t="inlineStr">
@@ -3370,18 +3398,14 @@
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>Operational times[]</t>
-        </is>
-      </c>
-      <c r="E91" s="2" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
+          <t>Hours not known</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr"/>
       <c r="F91" s="2" t="inlineStr"/>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>True or False - explicitly state when closed</t>
+          <t>Applicant states they do not know the hours of operation</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
@@ -3400,27 +3424,15 @@
       <c r="B92" s="2" t="n"/>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation[]</t>
-        </is>
-      </c>
-      <c r="D92" s="2" t="inlineStr">
-        <is>
-          <t>Operational times[]</t>
-        </is>
-      </c>
-      <c r="E92" s="2" t="inlineStr">
-        <is>
-          <t>Time ranges[]</t>
-        </is>
-      </c>
-      <c r="F92" s="2" t="inlineStr">
-        <is>
-          <t>Open time</t>
-        </is>
-      </c>
+          <t>Additional information</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr"/>
+      <c r="E92" s="2" t="inlineStr"/>
+      <c r="F92" s="2" t="inlineStr"/>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>Opening time</t>
+          <t>Any additional information (such as hours of use of other machinery within the site-generators, pumps, etc)</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
@@ -3430,41 +3442,37 @@
       </c>
       <c r="I92" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n"/>
-      <c r="B93" s="2" t="n"/>
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+        </is>
+      </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation[]</t>
-        </is>
-      </c>
-      <c r="D93" s="2" t="inlineStr">
-        <is>
-          <t>Operational times[]</t>
-        </is>
-      </c>
-      <c r="E93" s="2" t="inlineStr">
-        <is>
-          <t>Time ranges[]</t>
-        </is>
-      </c>
-      <c r="F93" s="2" t="inlineStr">
-        <is>
-          <t>Close time</t>
-        </is>
-      </c>
+          <t>Sole owner</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="inlineStr"/>
+      <c r="E93" s="2" t="inlineStr"/>
+      <c r="F93" s="2" t="inlineStr"/>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>Closing time</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I93" s="2" t="inlineStr">
@@ -3478,19 +3486,15 @@
       <c r="B94" s="2" t="n"/>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation[]</t>
-        </is>
-      </c>
-      <c r="D94" s="2" t="inlineStr">
-        <is>
-          <t>Hours not known</t>
-        </is>
-      </c>
+          <t>Agricultural tenants</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr"/>
       <c r="E94" s="2" t="inlineStr"/>
       <c r="F94" s="2" t="inlineStr"/>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>Applicant states they do not know the hours of operation</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr">
@@ -3500,7 +3504,7 @@
       </c>
       <c r="I94" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3509,15 +3513,23 @@
       <c r="B95" s="2" t="n"/>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>Additional information</t>
-        </is>
-      </c>
-      <c r="D95" s="2" t="inlineStr"/>
-      <c r="E95" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F95" s="2" t="inlineStr"/>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>Any additional information (such as hours of use of other machinery within the site-generators, pumps, etc)</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -3532,32 +3544,32 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B96" s="2" t="inlineStr">
-        <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
-        </is>
-      </c>
+      <c r="A96" s="2" t="n"/>
+      <c r="B96" s="2" t="n"/>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
-        </is>
-      </c>
-      <c r="D96" s="2" t="inlineStr"/>
-      <c r="E96" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
       <c r="F96" s="2" t="inlineStr"/>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I96" s="2" t="inlineStr">
@@ -3571,20 +3583,28 @@
       <c r="B97" s="2" t="n"/>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
-        </is>
-      </c>
-      <c r="D97" s="2" t="inlineStr"/>
-      <c r="E97" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
       <c r="F97" s="2" t="inlineStr"/>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I97" s="2" t="inlineStr">
@@ -3608,13 +3628,13 @@
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F98" s="2" t="inlineStr"/>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr">
@@ -3624,7 +3644,7 @@
       </c>
       <c r="I98" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3643,13 +3663,13 @@
       </c>
       <c r="E99" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F99" s="2" t="inlineStr"/>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
@@ -3659,7 +3679,7 @@
       </c>
       <c r="I99" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3673,28 +3693,24 @@
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E100" s="2" t="inlineStr">
-        <is>
-          <t>Last Name</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="inlineStr"/>
       <c r="F100" s="2" t="inlineStr"/>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I100" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3703,23 +3719,15 @@
       <c r="B101" s="2" t="n"/>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="D101" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E101" s="2" t="inlineStr">
-        <is>
-          <t>Address Text</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="inlineStr"/>
+      <c r="E101" s="2" t="inlineStr"/>
       <c r="F101" s="2" t="inlineStr"/>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
@@ -3729,7 +3737,7 @@
       </c>
       <c r="I101" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3738,23 +3746,19 @@
       <c r="B102" s="2" t="n"/>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
+          <t>Newspaper notices[]</t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E102" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Newspaper name</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="inlineStr"/>
       <c r="F102" s="2" t="inlineStr"/>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr">
@@ -3764,7 +3768,7 @@
       </c>
       <c r="I102" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3773,19 +3777,19 @@
       <c r="B103" s="2" t="n"/>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
+          <t>Newspaper notices[]</t>
         </is>
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>Notice date</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
       <c r="F103" s="2" t="inlineStr"/>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr">
@@ -3795,7 +3799,7 @@
       </c>
       <c r="I103" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3804,7 +3808,7 @@
       <c r="B104" s="2" t="n"/>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
+          <t>Ownership certificate type</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr"/>
@@ -3812,12 +3816,12 @@
       <c r="F104" s="2" t="inlineStr"/>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I104" s="2" t="inlineStr">
@@ -3831,19 +3835,15 @@
       <c r="B105" s="2" t="n"/>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="D105" s="2" t="inlineStr">
-        <is>
-          <t>Newspaper name</t>
-        </is>
-      </c>
+          <t>Applicant signature</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="inlineStr"/>
       <c r="E105" s="2" t="inlineStr"/>
       <c r="F105" s="2" t="inlineStr"/>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="I105" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3862,29 +3862,25 @@
       <c r="B106" s="2" t="n"/>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="D106" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Agent signature</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr"/>
       <c r="E106" s="2" t="inlineStr"/>
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I106" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3893,7 +3889,7 @@
       <c r="B107" s="2" t="n"/>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="D107" s="2" t="inlineStr"/>
@@ -3901,12 +3897,12 @@
       <c r="F107" s="2" t="inlineStr"/>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I107" s="2" t="inlineStr">
@@ -3916,11 +3912,19 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n"/>
-      <c r="B108" s="2" t="n"/>
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>Access and rights of way</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
+        </is>
+      </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>New or altered vehicle access</t>
         </is>
       </c>
       <c r="D108" s="2" t="inlineStr"/>
@@ -3928,17 +3932,17 @@
       <c r="F108" s="2" t="inlineStr"/>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I108" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3947,7 +3951,7 @@
       <c r="B109" s="2" t="n"/>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>New or altered pedestrian access</t>
         </is>
       </c>
       <c r="D109" s="2" t="inlineStr"/>
@@ -3955,17 +3959,17 @@
       <c r="F109" s="2" t="inlineStr"/>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I109" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3974,7 +3978,7 @@
       <c r="B110" s="2" t="n"/>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>New right of way</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr"/>
@@ -3982,34 +3986,26 @@
       <c r="F110" s="2" t="inlineStr"/>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Will new public rights of way be provided within or adjacent to the site</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I110" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="inlineStr">
-        <is>
-          <t>Access and rights of way</t>
-        </is>
-      </c>
-      <c r="B111" s="2" t="inlineStr">
-        <is>
-          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
-        </is>
-      </c>
+      <c r="A111" s="2" t="n"/>
+      <c r="B111" s="2" t="n"/>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>New or altered vehicle access</t>
+          <t>New public road</t>
         </is>
       </c>
       <c r="D111" s="2" t="inlineStr"/>
@@ -4017,7 +4013,7 @@
       <c r="F111" s="2" t="inlineStr"/>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
+          <t>Will new public roads be provided within the site</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr">
@@ -4036,7 +4032,7 @@
       <c r="B112" s="2" t="n"/>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>New or altered pedestrian access</t>
+          <t>Temporary right of way changes</t>
         </is>
       </c>
       <c r="D112" s="2" t="inlineStr"/>
@@ -4044,7 +4040,7 @@
       <c r="F112" s="2" t="inlineStr"/>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
+          <t>Are temporary changes to rights of way needed while the site is worked</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -4063,7 +4059,7 @@
       <c r="B113" s="2" t="n"/>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>New right of way</t>
+          <t>Future new right of way</t>
         </is>
       </c>
       <c r="D113" s="2" t="inlineStr"/>
@@ -4071,7 +4067,7 @@
       <c r="F113" s="2" t="inlineStr"/>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>Will new public rights of way be provided within or adjacent to the site</t>
+          <t>Will new public rights of way be provided after extraction?</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -4090,20 +4086,24 @@
       <c r="B114" s="2" t="n"/>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>New public road</t>
-        </is>
-      </c>
-      <c r="D114" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E114" s="2" t="inlineStr"/>
       <c r="F114" s="2" t="inlineStr"/>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>Will new public roads be provided within the site</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I114" s="2" t="inlineStr">
@@ -4113,24 +4113,36 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n"/>
-      <c r="B115" s="2" t="n"/>
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>Plans, drawings and supporting materials</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="inlineStr">
+        <is>
+          <t>Additional materials and specifications that form part of the planning application</t>
+        </is>
+      </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>Temporary right of way changes</t>
-        </is>
-      </c>
-      <c r="D115" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E115" s="2" t="inlineStr"/>
       <c r="F115" s="2" t="inlineStr"/>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>Are temporary changes to rights of way needed while the site is worked</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I115" s="2" t="inlineStr">
@@ -4144,7 +4156,7 @@
       <c r="B116" s="2" t="n"/>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>Future new right of way</t>
+          <t>Inspection address</t>
         </is>
       </c>
       <c r="D116" s="2" t="inlineStr"/>
@@ -4152,12 +4164,12 @@
       <c r="F116" s="2" t="inlineStr"/>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>Will new public rights of way be provided after extraction?</t>
+          <t>Full postal address where supporting material can be inspected</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I116" s="2" t="inlineStr">
@@ -4167,28 +4179,32 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n"/>
-      <c r="B117" s="2" t="n"/>
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D117" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Pre-application advice sought</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="inlineStr"/>
       <c r="E117" s="2" t="inlineStr"/>
       <c r="F117" s="2" t="inlineStr"/>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I117" s="2" t="inlineStr">
@@ -4202,19 +4218,15 @@
       <c r="B118" s="2" t="n"/>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D118" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Officer name</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="inlineStr"/>
       <c r="E118" s="2" t="inlineStr"/>
       <c r="F118" s="2" t="inlineStr"/>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
@@ -4224,36 +4236,24 @@
       </c>
       <c r="I118" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="inlineStr">
-        <is>
-          <t>Plans, drawings and supporting materials</t>
-        </is>
-      </c>
-      <c r="B119" s="2" t="inlineStr">
-        <is>
-          <t>Additional materials and specifications that form part of the planning application</t>
-        </is>
-      </c>
+      <c r="A119" s="2" t="n"/>
+      <c r="B119" s="2" t="n"/>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>Plans documents[]</t>
-        </is>
-      </c>
-      <c r="D119" s="2" t="inlineStr">
-        <is>
-          <t>Reference number</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="inlineStr"/>
       <c r="E119" s="2" t="inlineStr"/>
       <c r="F119" s="2" t="inlineStr"/>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>Unique identifier for the document</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -4263,7 +4263,7 @@
       </c>
       <c r="I119" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4272,19 +4272,15 @@
       <c r="B120" s="2" t="n"/>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>Plans documents[]</t>
-        </is>
-      </c>
-      <c r="D120" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Advice date</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr"/>
       <c r="E120" s="2" t="inlineStr"/>
       <c r="F120" s="2" t="inlineStr"/>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>Name of the document (descriptive)</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
@@ -4294,7 +4290,7 @@
       </c>
       <c r="I120" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4303,7 +4299,7 @@
       <c r="B121" s="2" t="n"/>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>Inspection address</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="D121" s="2" t="inlineStr"/>
@@ -4311,7 +4307,7 @@
       <c r="F121" s="2" t="inlineStr"/>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>Full postal address where supporting material can be inspected</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
@@ -4321,42 +4317,46 @@
       </c>
       <c r="I121" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice</t>
+          <t>Site details</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
-        </is>
-      </c>
-      <c r="D122" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="E122" s="2" t="inlineStr"/>
       <c r="F122" s="2" t="inlineStr"/>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I122" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4365,15 +4365,19 @@
       <c r="B123" s="2" t="n"/>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
-        </is>
-      </c>
-      <c r="D123" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="inlineStr">
+        <is>
+          <t>Address Text</t>
+        </is>
+      </c>
       <c r="E123" s="2" t="inlineStr"/>
       <c r="F123" s="2" t="inlineStr"/>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H123" s="2" t="inlineStr">
@@ -4392,15 +4396,19 @@
       <c r="B124" s="2" t="n"/>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="D124" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="E124" s="2" t="inlineStr"/>
       <c r="F124" s="2" t="inlineStr"/>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr">
@@ -4419,20 +4427,24 @@
       <c r="B125" s="2" t="n"/>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
-        </is>
-      </c>
-      <c r="D125" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="inlineStr">
+        <is>
+          <t>Easting</t>
+        </is>
+      </c>
       <c r="E125" s="2" t="inlineStr"/>
       <c r="F125" s="2" t="inlineStr"/>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I125" s="2" t="inlineStr">
@@ -4446,20 +4458,24 @@
       <c r="B126" s="2" t="n"/>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
-        </is>
-      </c>
-      <c r="D126" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="inlineStr">
+        <is>
+          <t>Northing</t>
+        </is>
+      </c>
       <c r="E126" s="2" t="inlineStr"/>
       <c r="F126" s="2" t="inlineStr"/>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I126" s="2" t="inlineStr">
@@ -4469,16 +4485,8 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B127" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A127" s="2" t="n"/>
+      <c r="B127" s="2" t="n"/>
       <c r="C127" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -4486,19 +4494,19 @@
       </c>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr"/>
       <c r="F127" s="2" t="inlineStr"/>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I127" s="2" t="inlineStr">
@@ -4517,19 +4525,19 @@
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr"/>
       <c r="F128" s="2" t="inlineStr"/>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I128" s="2" t="inlineStr">
@@ -4548,14 +4556,14 @@
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr"/>
       <c r="F129" s="2" t="inlineStr"/>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr">
@@ -4579,19 +4587,19 @@
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr"/>
       <c r="F130" s="2" t="inlineStr"/>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I130" s="2" t="inlineStr">
@@ -4601,33 +4609,41 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n"/>
-      <c r="B131" s="2" t="n"/>
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>Site ownership</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>For oil and gas extraction developments, who owns or has an interest in the site.</t>
+        </is>
+      </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
+          <t>Site owner</t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Full name</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr"/>
       <c r="F131" s="2" t="inlineStr"/>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I131" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4636,29 +4652,29 @@
       <c r="B132" s="2" t="n"/>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
+          <t>Site owner</t>
         </is>
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr"/>
       <c r="F132" s="2" t="inlineStr"/>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I132" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4667,29 +4683,25 @@
       <c r="B133" s="2" t="n"/>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D133" s="2" t="inlineStr">
-        <is>
-          <t>Longitude</t>
-        </is>
-      </c>
+          <t>Applicant interest</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="inlineStr"/>
       <c r="E133" s="2" t="inlineStr"/>
       <c r="F133" s="2" t="inlineStr"/>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Description of the applicant's interest in the land</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I133" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4698,19 +4710,15 @@
       <c r="B134" s="2" t="n"/>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D134" s="2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+          <t>Applicant interest adjoining land</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="inlineStr"/>
       <c r="E134" s="2" t="inlineStr"/>
       <c r="F134" s="2" t="inlineStr"/>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Description of the applicant's interest in the adjacent land</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr">
@@ -4720,72 +4728,64 @@
       </c>
       <c r="I134" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n"/>
-      <c r="B135" s="2" t="n"/>
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D135" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="inlineStr"/>
       <c r="E135" s="2" t="inlineStr"/>
       <c r="F135" s="2" t="inlineStr"/>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I135" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="inlineStr">
-        <is>
-          <t>Site ownership</t>
-        </is>
-      </c>
-      <c r="B136" s="2" t="inlineStr">
-        <is>
-          <t>For oil and gas extraction developments, who owns or has an interest in the site.</t>
-        </is>
-      </c>
+      <c r="A136" s="2" t="n"/>
+      <c r="B136" s="2" t="n"/>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>Site owner</t>
-        </is>
-      </c>
-      <c r="D136" s="2" t="inlineStr">
-        <is>
-          <t>Full name</t>
-        </is>
-      </c>
+          <t>Site visit contact type</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="inlineStr"/>
       <c r="E136" s="2" t="inlineStr"/>
       <c r="F136" s="2" t="inlineStr"/>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I136" s="2" t="inlineStr">
@@ -4799,19 +4799,15 @@
       <c r="B137" s="2" t="n"/>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>Site owner</t>
-        </is>
-      </c>
-      <c r="D137" s="2" t="inlineStr">
-        <is>
-          <t>Address Text</t>
-        </is>
-      </c>
+          <t>Contact reference</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="inlineStr"/>
       <c r="E137" s="2" t="inlineStr"/>
       <c r="F137" s="2" t="inlineStr"/>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr">
@@ -4821,7 +4817,7 @@
       </c>
       <c r="I137" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4830,15 +4826,19 @@
       <c r="B138" s="2" t="n"/>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>Applicant interest</t>
-        </is>
-      </c>
-      <c r="D138" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="E138" s="2" t="inlineStr"/>
       <c r="F138" s="2" t="inlineStr"/>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>Description of the applicant's interest in the land</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -4857,15 +4857,19 @@
       <c r="B139" s="2" t="n"/>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>Applicant interest adjoining land</t>
-        </is>
-      </c>
-      <c r="D139" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="E139" s="2" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr"/>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>Description of the applicant's interest in the adjacent land</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -4880,32 +4884,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B140" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A140" s="2" t="n"/>
+      <c r="B140" s="2" t="n"/>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
-        </is>
-      </c>
-      <c r="D140" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E140" s="2" t="inlineStr"/>
       <c r="F140" s="2" t="inlineStr"/>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I140" s="2" t="inlineStr">
@@ -4915,11 +4915,19 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n"/>
-      <c r="B141" s="2" t="n"/>
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>Storage facilities</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>For oil and gas extraction developments, how chemicals will be stored</t>
+        </is>
+      </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Storage facilities description</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr"/>
@@ -4927,12 +4935,12 @@
       <c r="F141" s="2" t="inlineStr"/>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>Details and proposed facilities for the storage of oil, fuel and chemicals and the proposed means of their protection</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I141" s="2" t="inlineStr">
@@ -4942,11 +4950,19 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n"/>
-      <c r="B142" s="2" t="n"/>
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>Trade effluent</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
+        </is>
+      </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
+          <t>Disposal required</t>
         </is>
       </c>
       <c r="D142" s="2" t="inlineStr"/>
@@ -4954,17 +4970,17 @@
       <c r="F142" s="2" t="inlineStr"/>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I142" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4973,19 +4989,15 @@
       <c r="B143" s="2" t="n"/>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D143" s="2" t="inlineStr">
-        <is>
-          <t>Full name</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="inlineStr"/>
       <c r="E143" s="2" t="inlineStr"/>
       <c r="F143" s="2" t="inlineStr"/>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr">
@@ -4995,33 +5007,37 @@
       </c>
       <c r="I143" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n"/>
-      <c r="B144" s="2" t="n"/>
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+        </is>
+      </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D144" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Trees on site</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="inlineStr"/>
       <c r="E144" s="2" t="inlineStr"/>
       <c r="F144" s="2" t="inlineStr"/>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>Whether trees or hedges are present on the proposed development site</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I144" s="2" t="inlineStr">
@@ -5035,24 +5051,20 @@
       <c r="B145" s="2" t="n"/>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D145" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Trees on adjacent land</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="inlineStr"/>
       <c r="E145" s="2" t="inlineStr"/>
       <c r="F145" s="2" t="inlineStr"/>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I145" s="2" t="inlineStr">
@@ -5064,17 +5076,18 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>Storage facilities</t>
+          <t>Oil and gas permission types</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>For oil and gas extraction developments, how chemicals will be stored</t>
+          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
+</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>Storage facilities description</t>
+          <t>Oil and gas permission types[]</t>
         </is>
       </c>
       <c r="D146" s="2" t="inlineStr"/>
@@ -5082,12 +5095,12 @@
       <c r="F146" s="2" t="inlineStr"/>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>Details and proposed facilities for the storage of oil, fuel and chemicals and the proposed means of their protection</t>
+          <t>List of permission types being applied for</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I146" s="2" t="inlineStr">
@@ -5097,32 +5110,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="inlineStr">
-        <is>
-          <t>Trade effluent</t>
-        </is>
-      </c>
-      <c r="B147" s="2" t="inlineStr">
-        <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
-        </is>
-      </c>
+      <c r="A147" s="2" t="n"/>
+      <c r="B147" s="2" t="n"/>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>Disposal required</t>
-        </is>
-      </c>
-      <c r="D147" s="2" t="inlineStr"/>
+          <t>Related permissions[]</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E147" s="2" t="inlineStr"/>
       <c r="F147" s="2" t="inlineStr"/>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
+          <t>The reference for the related application that permission was received for</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I147" s="2" t="inlineStr">
@@ -5136,55 +5145,55 @@
       <c r="B148" s="2" t="n"/>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D148" s="2" t="inlineStr"/>
+          <t>Related permissions[]</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="inlineStr">
+        <is>
+          <t>Oil and gas permission type</t>
+        </is>
+      </c>
       <c r="E148" s="2" t="inlineStr"/>
       <c r="F148" s="2" t="inlineStr"/>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
+          <t>An oil and gas related permission type</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I148" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="inlineStr">
-        <is>
-          <t>Trees and hedges information</t>
-        </is>
-      </c>
-      <c r="B149" s="2" t="inlineStr">
-        <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
-        </is>
-      </c>
+      <c r="A149" s="2" t="n"/>
+      <c r="B149" s="2" t="n"/>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>Trees on site</t>
-        </is>
-      </c>
-      <c r="D149" s="2" t="inlineStr"/>
+          <t>Related permissions[]</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="inlineStr">
+        <is>
+          <t>Decision date</t>
+        </is>
+      </c>
       <c r="E149" s="2" t="inlineStr"/>
       <c r="F149" s="2" t="inlineStr"/>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges are present on the proposed development site</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I149" s="2" t="inlineStr">
@@ -5198,43 +5207,38 @@
       <c r="B150" s="2" t="n"/>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>Trees on adjacent land</t>
-        </is>
-      </c>
-      <c r="D150" s="2" t="inlineStr"/>
+          <t>Related permissions[]</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="inlineStr">
+        <is>
+          <t>Condition number</t>
+        </is>
+      </c>
       <c r="E150" s="2" t="inlineStr"/>
       <c r="F150" s="2" t="inlineStr"/>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
+          <t>Number of any condition being breached</t>
         </is>
       </c>
       <c r="H150" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I150" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="inlineStr">
-        <is>
-          <t>Oil and gas permission types</t>
-        </is>
-      </c>
-      <c r="B151" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
-</t>
-        </is>
-      </c>
+      <c r="A151" s="2" t="n"/>
+      <c r="B151" s="2" t="n"/>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>Oil and gas permission types[]</t>
+          <t>Other details</t>
         </is>
       </c>
       <c r="D151" s="2" t="inlineStr"/>
@@ -5242,17 +5246,17 @@
       <c r="F151" s="2" t="inlineStr"/>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>List of permission types being applied for</t>
+          <t>Explanation if other ground is selected</t>
         </is>
       </c>
       <c r="H151" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I151" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5261,24 +5265,20 @@
       <c r="B152" s="2" t="n"/>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>Related permissions[]</t>
-        </is>
-      </c>
-      <c r="D152" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Will consolidate permissions</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="inlineStr"/>
       <c r="E152" s="2" t="inlineStr"/>
       <c r="F152" s="2" t="inlineStr"/>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t>The reference for the related application that permission was received for</t>
+          <t>Is the applicant looking to consolidate permissions?</t>
         </is>
       </c>
       <c r="H152" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I152" s="2" t="inlineStr">
@@ -5292,29 +5292,25 @@
       <c r="B153" s="2" t="n"/>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>Related permissions[]</t>
-        </is>
-      </c>
-      <c r="D153" s="2" t="inlineStr">
-        <is>
-          <t>Oil and gas permission type</t>
-        </is>
-      </c>
+          <t>Details</t>
+        </is>
+      </c>
+      <c r="D153" s="2" t="inlineStr"/>
       <c r="E153" s="2" t="inlineStr"/>
       <c r="F153" s="2" t="inlineStr"/>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>An oil and gas related permission type</t>
+          <t>Details about the consolidation or update of permissions</t>
         </is>
       </c>
       <c r="H153" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I153" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5323,19 +5319,19 @@
       <c r="B154" s="2" t="n"/>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>Related permissions[]</t>
+          <t>Related proposals[]</t>
         </is>
       </c>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>Decision date</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="E154" s="2" t="inlineStr"/>
       <c r="F154" s="2" t="inlineStr"/>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+          <t>The reference for the related application</t>
         </is>
       </c>
       <c r="H154" s="2" t="inlineStr">
@@ -5354,29 +5350,29 @@
       <c r="B155" s="2" t="n"/>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>Related permissions[]</t>
+          <t>Related proposals[]</t>
         </is>
       </c>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>Condition number</t>
+          <t>Application type</t>
         </is>
       </c>
       <c r="E155" s="2" t="inlineStr"/>
       <c r="F155" s="2" t="inlineStr"/>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>Number of any condition being breached</t>
+          <t>The type of planning application</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I155" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5385,15 +5381,19 @@
       <c r="B156" s="2" t="n"/>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>Other details</t>
-        </is>
-      </c>
-      <c r="D156" s="2" t="inlineStr"/>
+          <t>Related proposals[]</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="inlineStr">
+        <is>
+          <t>Decision date</t>
+        </is>
+      </c>
       <c r="E156" s="2" t="inlineStr"/>
       <c r="F156" s="2" t="inlineStr"/>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>Explanation if other ground is selected</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr">
@@ -5403,16 +5403,24 @@
       </c>
       <c r="I156" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="n"/>
-      <c r="B157" s="2" t="n"/>
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>Development type</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
+        </is>
+      </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>Will consolidate permissions</t>
+          <t>Development phase</t>
         </is>
       </c>
       <c r="D157" s="2" t="inlineStr"/>
@@ -5420,12 +5428,12 @@
       <c r="F157" s="2" t="inlineStr"/>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant looking to consolidate permissions?</t>
+          <t>Phases of oil and gas development the application covers</t>
         </is>
       </c>
       <c r="H157" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I157" s="2" t="inlineStr">
@@ -5439,7 +5447,7 @@
       <c r="B158" s="2" t="n"/>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>Details</t>
+          <t>Development description</t>
         </is>
       </c>
       <c r="D158" s="2" t="inlineStr"/>
@@ -5447,7 +5455,7 @@
       <c r="F158" s="2" t="inlineStr"/>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>Details about the consolidation or update of permissions</t>
+          <t>Brief description of the development, including main oils, gases, and machinery</t>
         </is>
       </c>
       <c r="H158" s="2" t="inlineStr">
@@ -5457,7 +5465,7 @@
       </c>
       <c r="I158" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5466,24 +5474,20 @@
       <c r="B159" s="2" t="n"/>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>Related proposals[]</t>
-        </is>
-      </c>
-      <c r="D159" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Quantity cubic metres</t>
+        </is>
+      </c>
+      <c r="D159" s="2" t="inlineStr"/>
       <c r="E159" s="2" t="inlineStr"/>
       <c r="F159" s="2" t="inlineStr"/>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>The reference for the related application</t>
+          <t>Quantity of oil or gas involved in cubic metres</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I159" s="2" t="inlineStr">
@@ -5497,29 +5501,25 @@
       <c r="B160" s="2" t="n"/>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>Related proposals[]</t>
-        </is>
-      </c>
-      <c r="D160" s="2" t="inlineStr">
-        <is>
-          <t>Application type</t>
-        </is>
-      </c>
+          <t>Permission period years</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="inlineStr"/>
       <c r="E160" s="2" t="inlineStr"/>
       <c r="F160" s="2" t="inlineStr"/>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>The type of planning application</t>
+          <t>Period of permission sought in years</t>
         </is>
       </c>
       <c r="H160" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I160" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5528,19 +5528,15 @@
       <c r="B161" s="2" t="n"/>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>Related proposals[]</t>
-        </is>
-      </c>
-      <c r="D161" s="2" t="inlineStr">
-        <is>
-          <t>Decision date</t>
-        </is>
-      </c>
+          <t>Hydrocarbon licence block</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="inlineStr"/>
       <c r="E161" s="2" t="inlineStr"/>
       <c r="F161" s="2" t="inlineStr"/>
       <c r="G161" s="2" t="inlineStr">
         <is>
-          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+          <t>Hydrocarbon licence block where the development is located</t>
         </is>
       </c>
       <c r="H161" s="2" t="inlineStr">
@@ -5555,19 +5551,11 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="inlineStr">
-        <is>
-          <t>Development type</t>
-        </is>
-      </c>
-      <c r="B162" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
-        </is>
-      </c>
+      <c r="A162" s="2" t="n"/>
+      <c r="B162" s="2" t="n"/>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>Development phase</t>
+          <t>Surface site area hectares</t>
         </is>
       </c>
       <c r="D162" s="2" t="inlineStr"/>
@@ -5575,17 +5563,17 @@
       <c r="F162" s="2" t="inlineStr"/>
       <c r="G162" s="2" t="inlineStr">
         <is>
-          <t>Phases of oil and gas development the application covers</t>
+          <t>Surface site area in hectares</t>
         </is>
       </c>
       <c r="H162" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I162" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5594,7 +5582,7 @@
       <c r="B163" s="2" t="n"/>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>Development description</t>
+          <t>Site hectares provided by</t>
         </is>
       </c>
       <c r="D163" s="2" t="inlineStr"/>
@@ -5602,17 +5590,17 @@
       <c r="F163" s="2" t="inlineStr"/>
       <c r="G163" s="2" t="inlineStr">
         <is>
-          <t>Brief description of the development, including main oils, gases, and machinery</t>
+          <t>Who provided the site hectares value (applicant or system)</t>
         </is>
       </c>
       <c r="H163" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I163" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5609,7 @@
       <c r="B164" s="2" t="n"/>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>Quantity cubic metres</t>
+          <t>Environmental statement</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr"/>
@@ -5629,12 +5617,12 @@
       <c r="F164" s="2" t="inlineStr"/>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>Quantity of oil or gas involved in cubic metres</t>
+          <t>Is an Environmental Statement attached to the application</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I164" s="2" t="inlineStr">
@@ -5648,7 +5636,7 @@
       <c r="B165" s="2" t="n"/>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>Permission period years</t>
+          <t>Environmental statement reference</t>
         </is>
       </c>
       <c r="D165" s="2" t="inlineStr"/>
@@ -5656,12 +5644,12 @@
       <c r="F165" s="2" t="inlineStr"/>
       <c r="G165" s="2" t="inlineStr">
         <is>
-          <t>Period of permission sought in years</t>
+          <t>Reference to the environmental statement document</t>
         </is>
       </c>
       <c r="H165" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I165" s="2" t="inlineStr">
@@ -5671,11 +5659,19 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="n"/>
-      <c r="B166" s="2" t="n"/>
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>Voluntary agreement</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>Details of any voluntary agreements made as part of an oil and gas extraction application.</t>
+        </is>
+      </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>Hydrocarbon licence block</t>
+          <t>Draft agreement included</t>
         </is>
       </c>
       <c r="D166" s="2" t="inlineStr"/>
@@ -5683,12 +5679,12 @@
       <c r="F166" s="2" t="inlineStr"/>
       <c r="G166" s="2" t="inlineStr">
         <is>
-          <t>Hydrocarbon licence block where the development is located</t>
+          <t>Has an outline or draft agreement been included? (True / False)</t>
         </is>
       </c>
       <c r="H166" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I166" s="2" t="inlineStr">
@@ -5702,7 +5698,7 @@
       <c r="B167" s="2" t="n"/>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>Surface site area hectares</t>
+          <t>Agreement summary</t>
         </is>
       </c>
       <c r="D167" s="2" t="inlineStr"/>
@@ -5710,158 +5706,15 @@
       <c r="F167" s="2" t="inlineStr"/>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>Surface site area in hectares</t>
+          <t>Summary of the agreement</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I167" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="2" t="n"/>
-      <c r="B168" s="2" t="n"/>
-      <c r="C168" s="2" t="inlineStr">
-        <is>
-          <t>Site hectares provided by</t>
-        </is>
-      </c>
-      <c r="D168" s="2" t="inlineStr"/>
-      <c r="E168" s="2" t="inlineStr"/>
-      <c r="F168" s="2" t="inlineStr"/>
-      <c r="G168" s="2" t="inlineStr">
-        <is>
-          <t>Who provided the site hectares value (applicant or system)</t>
-        </is>
-      </c>
-      <c r="H168" s="2" t="inlineStr">
-        <is>
-          <t>enum</t>
-        </is>
-      </c>
-      <c r="I168" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="2" t="n"/>
-      <c r="B169" s="2" t="n"/>
-      <c r="C169" s="2" t="inlineStr">
-        <is>
-          <t>Environmental statement</t>
-        </is>
-      </c>
-      <c r="D169" s="2" t="inlineStr"/>
-      <c r="E169" s="2" t="inlineStr"/>
-      <c r="F169" s="2" t="inlineStr"/>
-      <c r="G169" s="2" t="inlineStr">
-        <is>
-          <t>Is an Environmental Statement attached to the application</t>
-        </is>
-      </c>
-      <c r="H169" s="2" t="inlineStr">
-        <is>
-          <t>boolean</t>
-        </is>
-      </c>
-      <c r="I169" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="2" t="n"/>
-      <c r="B170" s="2" t="n"/>
-      <c r="C170" s="2" t="inlineStr">
-        <is>
-          <t>Environmental statement reference</t>
-        </is>
-      </c>
-      <c r="D170" s="2" t="inlineStr"/>
-      <c r="E170" s="2" t="inlineStr"/>
-      <c r="F170" s="2" t="inlineStr"/>
-      <c r="G170" s="2" t="inlineStr">
-        <is>
-          <t>Reference to the environmental statement document</t>
-        </is>
-      </c>
-      <c r="H170" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I170" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="2" t="inlineStr">
-        <is>
-          <t>Voluntary agreement</t>
-        </is>
-      </c>
-      <c r="B171" s="2" t="inlineStr">
-        <is>
-          <t>Details of any voluntary agreements made as part of an oil and gas extraction application.</t>
-        </is>
-      </c>
-      <c r="C171" s="2" t="inlineStr">
-        <is>
-          <t>Draft agreement included</t>
-        </is>
-      </c>
-      <c r="D171" s="2" t="inlineStr"/>
-      <c r="E171" s="2" t="inlineStr"/>
-      <c r="F171" s="2" t="inlineStr"/>
-      <c r="G171" s="2" t="inlineStr">
-        <is>
-          <t>Has an outline or draft agreement been included? (True / False)</t>
-        </is>
-      </c>
-      <c r="H171" s="2" t="inlineStr">
-        <is>
-          <t>boolean</t>
-        </is>
-      </c>
-      <c r="I171" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="2" t="n"/>
-      <c r="B172" s="2" t="n"/>
-      <c r="C172" s="2" t="inlineStr">
-        <is>
-          <t>Agreement summary</t>
-        </is>
-      </c>
-      <c r="D172" s="2" t="inlineStr"/>
-      <c r="E172" s="2" t="inlineStr"/>
-      <c r="F172" s="2" t="inlineStr"/>
-      <c r="G172" s="2" t="inlineStr">
-        <is>
-          <t>Summary of the agreement</t>
-        </is>
-      </c>
-      <c r="H172" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I172" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -5869,66 +5722,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="A162:A170"/>
-    <mergeCell ref="A111:A118"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B96:B110"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A151:A161"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="B140:B145"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="A67:A76"/>
-    <mergeCell ref="A58"/>
-    <mergeCell ref="B136:B139"/>
-    <mergeCell ref="B162:B170"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="B111:B118"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="B151:B161"/>
-    <mergeCell ref="B127:B135"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B54"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="B82:B87"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B66"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="A59:A65"/>
-    <mergeCell ref="B23:B30"/>
-    <mergeCell ref="A136:A139"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="B67:B76"/>
-    <mergeCell ref="B58"/>
-    <mergeCell ref="A146"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="B88:B95"/>
-    <mergeCell ref="A127:A135"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="A54"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B59:B65"/>
-    <mergeCell ref="A66"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="A96:A110"/>
-    <mergeCell ref="A140:A145"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="B146"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="A141"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="A68:A77"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B135:B140"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="B55"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="B85:B92"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B93:B107"/>
+    <mergeCell ref="B157:B165"/>
+    <mergeCell ref="A67"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="B146:B156"/>
+    <mergeCell ref="A59"/>
+    <mergeCell ref="B108:B114"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B141"/>
+    <mergeCell ref="B59"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="A122:A130"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A135:A140"/>
+    <mergeCell ref="A157:A165"/>
+    <mergeCell ref="A85:A92"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B67"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="A131:A134"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="B122:B130"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A55"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B68:B77"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="A93:A107"/>
+    <mergeCell ref="A108:A114"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B144:B145"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas.xlsx
+++ b/generated/spreadsheet/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas.xlsx
@@ -708,7 +708,7 @@
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>A reference for the document</t>
+          <t>Unique reference for the document within this application submission, generated by the submitting system</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">

--- a/generated/spreadsheet/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas.xlsx
+++ b/generated/spreadsheet/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas.xlsx
@@ -3086,15 +3086,19 @@
       <c r="B82" s="2" t="n"/>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Drainage system details</t>
-        </is>
-      </c>
-      <c r="D82" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E82" s="2" t="inlineStr"/>
       <c r="F82" s="2" t="inlineStr"/>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>Details of the drawings/plans that show the existing drainage system</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
@@ -3104,7 +3108,7 @@
       </c>
       <c r="I82" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>

--- a/generated/spreadsheet/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas.xlsx
+++ b/generated/spreadsheet/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I167"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2614,11 +2614,19 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n"/>
-      <c r="B66" s="2" t="n"/>
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>Equipment and method</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>How oil and gas will be extracted as part of the proposed development.</t>
+        </is>
+      </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Employment impact</t>
+          <t>Equipment plan</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr"/>
@@ -2626,7 +2634,7 @@
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>Summary of net employment change (gain/loss)</t>
+          <t>Details of equipment to be used as part of the application including the maximum height and type of drilling rig to be used</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -2636,37 +2644,41 @@
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>Equipment and method</t>
+          <t>Existing use</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>How oil and gas will be extracted as part of the proposed development.</t>
+          <t>How the site is currently being used.</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Equipment plan</t>
-        </is>
-      </c>
-      <c r="D67" s="2" t="inlineStr"/>
+          <t>Existing use details[]</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="E67" s="2" t="inlineStr"/>
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>Details of equipment to be used as part of the application including the maximum height and type of drilling rig to be used</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I67" s="2" t="inlineStr">
@@ -2676,16 +2688,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="inlineStr">
-        <is>
-          <t>Existing use</t>
-        </is>
-      </c>
-      <c r="B68" s="2" t="inlineStr">
-        <is>
-          <t>How the site is currently being used.</t>
-        </is>
-      </c>
+      <c r="A68" s="2" t="n"/>
+      <c r="B68" s="2" t="n"/>
       <c r="C68" s="2" t="inlineStr">
         <is>
           <t>Existing use details[]</t>
@@ -2693,24 +2697,24 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use details</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr"/>
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Further detail of the use</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2724,14 +2728,14 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>Use details</t>
+          <t>Land part</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr"/>
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Further detail of the use</t>
+          <t>Which part of the land the use relates to</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -2741,7 +2745,7 @@
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2750,24 +2754,20 @@
       <c r="B70" s="2" t="n"/>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>Existing use details[]</t>
-        </is>
-      </c>
-      <c r="D70" s="2" t="inlineStr">
-        <is>
-          <t>Land part</t>
-        </is>
-      </c>
+          <t>Site vacant</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr"/>
       <c r="E70" s="2" t="inlineStr"/>
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>Which part of the land the use relates to</t>
+          <t>Is the site currently vacant</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I70" s="2" t="inlineStr">
@@ -2781,7 +2781,7 @@
       <c r="B71" s="2" t="n"/>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Site vacant</t>
+          <t>Last use details</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr"/>
@@ -2789,17 +2789,17 @@
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>Is the site currently vacant</t>
+          <t>Description of the last use of the site</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I71" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2808,7 +2808,7 @@
       <c r="B72" s="2" t="n"/>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Last use details</t>
+          <t>Last use end date</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr"/>
@@ -2816,12 +2816,12 @@
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Description of the last use of the site</t>
+          <t>Date the last use ended (YYYY-MM-DD format)</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I72" s="2" t="inlineStr">
@@ -2835,7 +2835,7 @@
       <c r="B73" s="2" t="n"/>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>Last use end date</t>
+          <t>Is contaminated land</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr"/>
@@ -2843,17 +2843,17 @@
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Date the last use ended (YYYY-MM-DD format)</t>
+          <t>Is the site known to be contaminated?</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I73" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2862,7 +2862,7 @@
       <c r="B74" s="2" t="n"/>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>Is contaminated land</t>
+          <t>Is suspected contaminated land</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr"/>
@@ -2870,7 +2870,7 @@
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Is the site known to be contaminated?</t>
+          <t>Is the site suspected of contamination?</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr">
@@ -2889,7 +2889,7 @@
       <c r="B75" s="2" t="n"/>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Is suspected contaminated land</t>
+          <t>Proposed use contamination risk</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr"/>
@@ -2897,7 +2897,7 @@
       <c r="F75" s="2" t="inlineStr"/>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Is the site suspected of contamination?</t>
+          <t>Is the proposed use vulnerable to the presence of contamination?</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">
@@ -2916,7 +2916,7 @@
       <c r="B76" s="2" t="n"/>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Proposed use contamination risk</t>
+          <t>Contamination assessment</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr"/>
@@ -2924,26 +2924,34 @@
       <c r="F76" s="2" t="inlineStr"/>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>Is the proposed use vulnerable to the presence of contamination?</t>
+          <t>Reference to contamination assessment document</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I76" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n"/>
-      <c r="B77" s="2" t="n"/>
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>Foul sewage disposal</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>How waste water will leave the property as part of the proposed development</t>
+        </is>
+      </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Contamination assessment</t>
+          <t>Has new disposal arrangements</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr"/>
@@ -2951,34 +2959,26 @@
       <c r="F77" s="2" t="inlineStr"/>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>Reference to contamination assessment document</t>
+          <t>Does the proposal include any new foul sewage disposal arrangments</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I77" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="inlineStr">
-        <is>
-          <t>Foul sewage disposal</t>
-        </is>
-      </c>
-      <c r="B78" s="2" t="inlineStr">
-        <is>
-          <t>How waste water will leave the property as part of the proposed development</t>
-        </is>
-      </c>
+      <c r="A78" s="2" t="n"/>
+      <c r="B78" s="2" t="n"/>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Has new disposal arrangements</t>
+          <t>Foul sewage disposal types[]</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr"/>
@@ -2986,17 +2986,17 @@
       <c r="F78" s="2" t="inlineStr"/>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include any new foul sewage disposal arrangments</t>
+          <t>List of ways foul sewage will be disposed of</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I78" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3005,7 +3005,7 @@
       <c r="B79" s="2" t="n"/>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Foul sewage disposal types[]</t>
+          <t>Produce foul sewage</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr"/>
@@ -3013,17 +3013,17 @@
       <c r="F79" s="2" t="inlineStr"/>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>List of ways foul sewage will be disposed of</t>
+          <t>Whether the proposed development will produce any foul sewage</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I79" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3032,7 +3032,7 @@
       <c r="B80" s="2" t="n"/>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Produce foul sewage</t>
+          <t>Connect to drainage system</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr"/>
@@ -3040,7 +3040,7 @@
       <c r="F80" s="2" t="inlineStr"/>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposed development will produce any foul sewage</t>
+          <t>Whether the proposal needs to connect to the existing drainage system</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
@@ -3059,20 +3059,24 @@
       <c r="B81" s="2" t="n"/>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>Connect to drainage system</t>
-        </is>
-      </c>
-      <c r="D81" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E81" s="2" t="inlineStr"/>
       <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal needs to connect to the existing drainage system</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I81" s="2" t="inlineStr">
@@ -3082,28 +3086,32 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n"/>
-      <c r="B82" s="2" t="n"/>
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substances</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>Details of hazardous substances requiring consent used as part of the development</t>
+        </is>
+      </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D82" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Hazardous substance consent required</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr"/>
       <c r="E82" s="2" t="inlineStr"/>
       <c r="F82" s="2" t="inlineStr"/>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I82" s="2" t="inlineStr">
@@ -3113,19 +3121,11 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous substances</t>
-        </is>
-      </c>
-      <c r="B83" s="2" t="inlineStr">
-        <is>
-          <t>Details of hazardous substances requiring consent used as part of the development</t>
-        </is>
-      </c>
+      <c r="A83" s="2" t="n"/>
+      <c r="B83" s="2" t="n"/>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent required</t>
+          <t>Hazardous substance consent details</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr"/>
@@ -3133,58 +3133,62 @@
       <c r="F83" s="2" t="inlineStr"/>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
+          <t>Details of hazardous substance consent requirements</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I83" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n"/>
-      <c r="B84" s="2" t="n"/>
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>Hours of operation</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
+        </is>
+      </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent details</t>
-        </is>
-      </c>
-      <c r="D84" s="2" t="inlineStr"/>
+          <t>Hours of operation[]</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="E84" s="2" t="inlineStr"/>
       <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>Details of hazardous substance consent requirements</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I84" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="inlineStr">
-        <is>
-          <t>Hours of operation</t>
-        </is>
-      </c>
-      <c r="B85" s="2" t="inlineStr">
-        <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
-        </is>
-      </c>
+      <c r="A85" s="2" t="n"/>
+      <c r="B85" s="2" t="n"/>
       <c r="C85" s="2" t="inlineStr">
         <is>
           <t>Hours of operation[]</t>
@@ -3192,24 +3196,24 @@
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr"/>
       <c r="F85" s="2" t="inlineStr"/>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I85" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3223,24 +3227,28 @@
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
-        </is>
-      </c>
-      <c r="E86" s="2" t="inlineStr"/>
+          <t>Operational times[]</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>Day type</t>
+        </is>
+      </c>
       <c r="F86" s="2" t="inlineStr"/>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Day or type of day</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I86" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3259,23 +3267,23 @@
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>Day type</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="F87" s="2" t="inlineStr"/>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>Day or type of day</t>
+          <t>True or False - explicitly state when closed</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I87" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3294,23 +3302,27 @@
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="F88" s="2" t="inlineStr"/>
+          <t>Time ranges[]</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>Open time</t>
+        </is>
+      </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>True or False - explicitly state when closed</t>
+          <t>Opening time</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I88" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3334,12 +3346,12 @@
       </c>
       <c r="F89" s="2" t="inlineStr">
         <is>
-          <t>Open time</t>
+          <t>Close time</t>
         </is>
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>Opening time</t>
+          <t>Closing time</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
@@ -3363,32 +3375,24 @@
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>Operational times[]</t>
-        </is>
-      </c>
-      <c r="E90" s="2" t="inlineStr">
-        <is>
-          <t>Time ranges[]</t>
-        </is>
-      </c>
-      <c r="F90" s="2" t="inlineStr">
-        <is>
-          <t>Close time</t>
-        </is>
-      </c>
+          <t>Hours not known</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="inlineStr"/>
+      <c r="F90" s="2" t="inlineStr"/>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>Closing time</t>
+          <t>Applicant states they do not know the hours of operation</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I90" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3397,24 +3401,20 @@
       <c r="B91" s="2" t="n"/>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation[]</t>
-        </is>
-      </c>
-      <c r="D91" s="2" t="inlineStr">
-        <is>
-          <t>Hours not known</t>
-        </is>
-      </c>
+          <t>Additional information</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="inlineStr"/>
       <c r="E91" s="2" t="inlineStr"/>
       <c r="F91" s="2" t="inlineStr"/>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>Applicant states they do not know the hours of operation</t>
+          <t>Any additional information (such as hours of use of other machinery within the site-generators, pumps, etc)</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I91" s="2" t="inlineStr">
@@ -3424,11 +3424,19 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n"/>
-      <c r="B92" s="2" t="n"/>
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+        </is>
+      </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>Additional information</t>
+          <t>Sole owner</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr"/>
@@ -3436,34 +3444,26 @@
       <c r="F92" s="2" t="inlineStr"/>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>Any additional information (such as hours of use of other machinery within the site-generators, pumps, etc)</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I92" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B93" s="2" t="inlineStr">
-        <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
-        </is>
-      </c>
+      <c r="A93" s="2" t="n"/>
+      <c r="B93" s="2" t="n"/>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
+          <t>Agricultural tenants</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr"/>
@@ -3471,7 +3471,7 @@
       <c r="F93" s="2" t="inlineStr"/>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
@@ -3490,25 +3490,33 @@
       <c r="B94" s="2" t="n"/>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
-        </is>
-      </c>
-      <c r="D94" s="2" t="inlineStr"/>
-      <c r="E94" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F94" s="2" t="inlineStr"/>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I94" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3527,13 +3535,13 @@
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F95" s="2" t="inlineStr"/>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -3543,7 +3551,7 @@
       </c>
       <c r="I95" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3562,13 +3570,13 @@
       </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F96" s="2" t="inlineStr"/>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
@@ -3597,13 +3605,13 @@
       </c>
       <c r="E97" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F97" s="2" t="inlineStr"/>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr">
@@ -3632,13 +3640,13 @@
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F98" s="2" t="inlineStr"/>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr">
@@ -3648,7 +3656,7 @@
       </c>
       <c r="I98" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3662,23 +3670,19 @@
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E99" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="inlineStr"/>
       <c r="F99" s="2" t="inlineStr"/>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I99" s="2" t="inlineStr">
@@ -3692,24 +3696,20 @@
       <c r="B100" s="2" t="n"/>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="D100" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr"/>
       <c r="E100" s="2" t="inlineStr"/>
       <c r="F100" s="2" t="inlineStr"/>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I100" s="2" t="inlineStr">
@@ -3723,15 +3723,19 @@
       <c r="B101" s="2" t="n"/>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="D101" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="E101" s="2" t="inlineStr"/>
       <c r="F101" s="2" t="inlineStr"/>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
@@ -3741,7 +3745,7 @@
       </c>
       <c r="I101" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3755,19 +3759,19 @@
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr"/>
       <c r="F102" s="2" t="inlineStr"/>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I102" s="2" t="inlineStr">
@@ -3781,29 +3785,25 @@
       <c r="B103" s="2" t="n"/>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="D103" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="inlineStr"/>
       <c r="E103" s="2" t="inlineStr"/>
       <c r="F103" s="2" t="inlineStr"/>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I103" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       <c r="B104" s="2" t="n"/>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr"/>
@@ -3820,12 +3820,12 @@
       <c r="F104" s="2" t="inlineStr"/>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I104" s="2" t="inlineStr">
@@ -3839,7 +3839,7 @@
       <c r="B105" s="2" t="n"/>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="D105" s="2" t="inlineStr"/>
@@ -3847,7 +3847,7 @@
       <c r="F105" s="2" t="inlineStr"/>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
@@ -3866,7 +3866,7 @@
       <c r="B106" s="2" t="n"/>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="D106" s="2" t="inlineStr"/>
@@ -3874,12 +3874,12 @@
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I106" s="2" t="inlineStr">
@@ -3889,11 +3889,19 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n"/>
-      <c r="B107" s="2" t="n"/>
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>Access and rights of way</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
+        </is>
+      </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>New or altered vehicle access</t>
         </is>
       </c>
       <c r="D107" s="2" t="inlineStr"/>
@@ -3901,34 +3909,26 @@
       <c r="F107" s="2" t="inlineStr"/>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I107" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="inlineStr">
-        <is>
-          <t>Access and rights of way</t>
-        </is>
-      </c>
-      <c r="B108" s="2" t="inlineStr">
-        <is>
-          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
-        </is>
-      </c>
+      <c r="A108" s="2" t="n"/>
+      <c r="B108" s="2" t="n"/>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>New or altered vehicle access</t>
+          <t>New or altered pedestrian access</t>
         </is>
       </c>
       <c r="D108" s="2" t="inlineStr"/>
@@ -3936,7 +3936,7 @@
       <c r="F108" s="2" t="inlineStr"/>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
+          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
@@ -3955,7 +3955,7 @@
       <c r="B109" s="2" t="n"/>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>New or altered pedestrian access</t>
+          <t>New right of way</t>
         </is>
       </c>
       <c r="D109" s="2" t="inlineStr"/>
@@ -3963,7 +3963,7 @@
       <c r="F109" s="2" t="inlineStr"/>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
+          <t>Will new public rights of way be provided within or adjacent to the site</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr">
@@ -3982,7 +3982,7 @@
       <c r="B110" s="2" t="n"/>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>New right of way</t>
+          <t>New public road</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr"/>
@@ -3990,7 +3990,7 @@
       <c r="F110" s="2" t="inlineStr"/>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>Will new public rights of way be provided within or adjacent to the site</t>
+          <t>Will new public roads be provided within the site</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
@@ -4009,7 +4009,7 @@
       <c r="B111" s="2" t="n"/>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>New public road</t>
+          <t>Temporary right of way changes</t>
         </is>
       </c>
       <c r="D111" s="2" t="inlineStr"/>
@@ -4017,7 +4017,7 @@
       <c r="F111" s="2" t="inlineStr"/>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>Will new public roads be provided within the site</t>
+          <t>Are temporary changes to rights of way needed while the site is worked</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr">
@@ -4036,7 +4036,7 @@
       <c r="B112" s="2" t="n"/>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>Temporary right of way changes</t>
+          <t>Future new right of way</t>
         </is>
       </c>
       <c r="D112" s="2" t="inlineStr"/>
@@ -4044,7 +4044,7 @@
       <c r="F112" s="2" t="inlineStr"/>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>Are temporary changes to rights of way needed while the site is worked</t>
+          <t>Will new public rights of way be provided after extraction?</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -4063,20 +4063,24 @@
       <c r="B113" s="2" t="n"/>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>Future new right of way</t>
-        </is>
-      </c>
-      <c r="D113" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E113" s="2" t="inlineStr"/>
       <c r="F113" s="2" t="inlineStr"/>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>Will new public rights of way be provided after extraction?</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I113" s="2" t="inlineStr">
@@ -4086,8 +4090,16 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n"/>
-      <c r="B114" s="2" t="n"/>
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>Plans, drawings and supporting materials</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>Additional materials and specifications that form part of the planning application</t>
+        </is>
+      </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
           <t>Supporting documents[]</t>
@@ -4117,31 +4129,19 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="inlineStr">
-        <is>
-          <t>Plans, drawings and supporting materials</t>
-        </is>
-      </c>
-      <c r="B115" s="2" t="inlineStr">
-        <is>
-          <t>Additional materials and specifications that form part of the planning application</t>
-        </is>
-      </c>
+      <c r="A115" s="2" t="n"/>
+      <c r="B115" s="2" t="n"/>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D115" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Inspection address</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="inlineStr"/>
       <c r="E115" s="2" t="inlineStr"/>
       <c r="F115" s="2" t="inlineStr"/>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Full postal address where supporting material can be inspected</t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr">
@@ -4156,11 +4156,19 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n"/>
-      <c r="B116" s="2" t="n"/>
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>Inspection address</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="D116" s="2" t="inlineStr"/>
@@ -4168,12 +4176,12 @@
       <c r="F116" s="2" t="inlineStr"/>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>Full postal address where supporting material can be inspected</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I116" s="2" t="inlineStr">
@@ -4183,19 +4191,11 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B117" s="2" t="inlineStr">
-        <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
-        </is>
-      </c>
+      <c r="A117" s="2" t="n"/>
+      <c r="B117" s="2" t="n"/>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="D117" s="2" t="inlineStr"/>
@@ -4203,17 +4203,17 @@
       <c r="F117" s="2" t="inlineStr"/>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I117" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4222,7 +4222,7 @@
       <c r="B118" s="2" t="n"/>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="D118" s="2" t="inlineStr"/>
@@ -4230,7 +4230,7 @@
       <c r="F118" s="2" t="inlineStr"/>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
@@ -4249,7 +4249,7 @@
       <c r="B119" s="2" t="n"/>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="D119" s="2" t="inlineStr"/>
@@ -4257,7 +4257,7 @@
       <c r="F119" s="2" t="inlineStr"/>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -4276,7 +4276,7 @@
       <c r="B120" s="2" t="n"/>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="D120" s="2" t="inlineStr"/>
@@ -4284,7 +4284,7 @@
       <c r="F120" s="2" t="inlineStr"/>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
@@ -4299,24 +4299,36 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n"/>
-      <c r="B121" s="2" t="n"/>
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
-        </is>
-      </c>
-      <c r="D121" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="E121" s="2" t="inlineStr"/>
       <c r="F121" s="2" t="inlineStr"/>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I121" s="2" t="inlineStr">
@@ -4326,16 +4338,8 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B122" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A122" s="2" t="n"/>
+      <c r="B122" s="2" t="n"/>
       <c r="C122" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -4343,19 +4347,19 @@
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr"/>
       <c r="F122" s="2" t="inlineStr"/>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I122" s="2" t="inlineStr">
@@ -4374,14 +4378,14 @@
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr"/>
       <c r="F123" s="2" t="inlineStr"/>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H123" s="2" t="inlineStr">
@@ -4405,19 +4409,19 @@
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr"/>
       <c r="F124" s="2" t="inlineStr"/>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I124" s="2" t="inlineStr">
@@ -4436,14 +4440,14 @@
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr"/>
       <c r="F125" s="2" t="inlineStr"/>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr">
@@ -4467,14 +4471,14 @@
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr"/>
       <c r="F126" s="2" t="inlineStr"/>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr">
@@ -4498,14 +4502,14 @@
       </c>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr"/>
       <c r="F127" s="2" t="inlineStr"/>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
@@ -4529,19 +4533,19 @@
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr"/>
       <c r="F128" s="2" t="inlineStr"/>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I128" s="2" t="inlineStr">
@@ -4560,14 +4564,14 @@
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr"/>
       <c r="F129" s="2" t="inlineStr"/>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr">
@@ -4582,23 +4586,31 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n"/>
-      <c r="B130" s="2" t="n"/>
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>Site ownership</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>For oil and gas extraction developments, who owns or has an interest in the site.</t>
+        </is>
+      </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
+          <t>Site owner</t>
         </is>
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>UPRNs[]</t>
+          <t>Full name</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr"/>
       <c r="F130" s="2" t="inlineStr"/>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr">
@@ -4608,21 +4620,13 @@
       </c>
       <c r="I130" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="inlineStr">
-        <is>
-          <t>Site ownership</t>
-        </is>
-      </c>
-      <c r="B131" s="2" t="inlineStr">
-        <is>
-          <t>For oil and gas extraction developments, who owns or has an interest in the site.</t>
-        </is>
-      </c>
+      <c r="A131" s="2" t="n"/>
+      <c r="B131" s="2" t="n"/>
       <c r="C131" s="2" t="inlineStr">
         <is>
           <t>Site owner</t>
@@ -4630,14 +4634,14 @@
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr"/>
       <c r="F131" s="2" t="inlineStr"/>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
@@ -4656,19 +4660,15 @@
       <c r="B132" s="2" t="n"/>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>Site owner</t>
-        </is>
-      </c>
-      <c r="D132" s="2" t="inlineStr">
-        <is>
-          <t>Address Text</t>
-        </is>
-      </c>
+          <t>Applicant interest</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="inlineStr"/>
       <c r="E132" s="2" t="inlineStr"/>
       <c r="F132" s="2" t="inlineStr"/>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Description of the applicant's interest in the land</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr">
@@ -4687,7 +4687,7 @@
       <c r="B133" s="2" t="n"/>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>Applicant interest</t>
+          <t>Applicant interest adjoining land</t>
         </is>
       </c>
       <c r="D133" s="2" t="inlineStr"/>
@@ -4695,7 +4695,7 @@
       <c r="F133" s="2" t="inlineStr"/>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>Description of the applicant's interest in the land</t>
+          <t>Description of the applicant's interest in the adjacent land</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr">
@@ -4710,11 +4710,19 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n"/>
-      <c r="B134" s="2" t="n"/>
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>Applicant interest adjoining land</t>
+          <t>Site seen from public area</t>
         </is>
       </c>
       <c r="D134" s="2" t="inlineStr"/>
@@ -4722,12 +4730,12 @@
       <c r="F134" s="2" t="inlineStr"/>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>Description of the applicant's interest in the adjacent land</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I134" s="2" t="inlineStr">
@@ -4737,19 +4745,11 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B135" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A135" s="2" t="n"/>
+      <c r="B135" s="2" t="n"/>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="D135" s="2" t="inlineStr"/>
@@ -4757,12 +4757,12 @@
       <c r="F135" s="2" t="inlineStr"/>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I135" s="2" t="inlineStr">
@@ -4776,7 +4776,7 @@
       <c r="B136" s="2" t="n"/>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="D136" s="2" t="inlineStr"/>
@@ -4784,17 +4784,17 @@
       <c r="F136" s="2" t="inlineStr"/>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I136" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4803,15 +4803,19 @@
       <c r="B137" s="2" t="n"/>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="D137" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="E137" s="2" t="inlineStr"/>
       <c r="F137" s="2" t="inlineStr"/>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr">
@@ -4821,7 +4825,7 @@
       </c>
       <c r="I137" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4835,14 +4839,14 @@
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr"/>
       <c r="F138" s="2" t="inlineStr"/>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -4866,14 +4870,14 @@
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr"/>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -4888,23 +4892,27 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n"/>
-      <c r="B140" s="2" t="n"/>
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>Storage facilities</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>For oil and gas extraction developments, how chemicals will be stored</t>
+        </is>
+      </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D140" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Storage facilities description</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="inlineStr"/>
       <c r="E140" s="2" t="inlineStr"/>
       <c r="F140" s="2" t="inlineStr"/>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Details and proposed facilities for the storage of oil, fuel and chemicals and the proposed means of their protection</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -4921,17 +4929,17 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>Storage facilities</t>
+          <t>Trade effluent</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>For oil and gas extraction developments, how chemicals will be stored</t>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>Storage facilities description</t>
+          <t>Disposal required</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr"/>
@@ -4939,12 +4947,12 @@
       <c r="F141" s="2" t="inlineStr"/>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>Details and proposed facilities for the storage of oil, fuel and chemicals and the proposed means of their protection</t>
+          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I141" s="2" t="inlineStr">
@@ -4954,19 +4962,11 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="inlineStr">
-        <is>
-          <t>Trade effluent</t>
-        </is>
-      </c>
-      <c r="B142" s="2" t="inlineStr">
-        <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
-        </is>
-      </c>
+      <c r="A142" s="2" t="n"/>
+      <c r="B142" s="2" t="n"/>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>Disposal required</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D142" s="2" t="inlineStr"/>
@@ -4974,26 +4974,34 @@
       <c r="F142" s="2" t="inlineStr"/>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
+          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I142" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n"/>
-      <c r="B143" s="2" t="n"/>
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="inlineStr">
+        <is>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+        </is>
+      </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Trees on site</t>
         </is>
       </c>
       <c r="D143" s="2" t="inlineStr"/>
@@ -5001,34 +5009,26 @@
       <c r="F143" s="2" t="inlineStr"/>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
+          <t>Whether trees or hedges are present on the proposed development site</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I143" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="inlineStr">
-        <is>
-          <t>Trees and hedges information</t>
-        </is>
-      </c>
-      <c r="B144" s="2" t="inlineStr">
-        <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
-        </is>
-      </c>
+      <c r="A144" s="2" t="n"/>
+      <c r="B144" s="2" t="n"/>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>Trees on site</t>
+          <t>Trees on adjacent land</t>
         </is>
       </c>
       <c r="D144" s="2" t="inlineStr"/>
@@ -5036,7 +5036,7 @@
       <c r="F144" s="2" t="inlineStr"/>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges are present on the proposed development site</t>
+          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
@@ -5051,11 +5051,20 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="n"/>
-      <c r="B145" s="2" t="n"/>
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>Oil and gas permission types</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
+</t>
+        </is>
+      </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>Trees on adjacent land</t>
+          <t>Oil and gas permission types[]</t>
         </is>
       </c>
       <c r="D145" s="2" t="inlineStr"/>
@@ -5063,12 +5072,12 @@
       <c r="F145" s="2" t="inlineStr"/>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
+          <t>List of permission types being applied for</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I145" s="2" t="inlineStr">
@@ -5078,33 +5087,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="inlineStr">
-        <is>
-          <t>Oil and gas permission types</t>
-        </is>
-      </c>
-      <c r="B146" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
-</t>
-        </is>
-      </c>
+      <c r="A146" s="2" t="n"/>
+      <c r="B146" s="2" t="n"/>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>Oil and gas permission types[]</t>
-        </is>
-      </c>
-      <c r="D146" s="2" t="inlineStr"/>
+          <t>Related permissions[]</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E146" s="2" t="inlineStr"/>
       <c r="F146" s="2" t="inlineStr"/>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>List of permission types being applied for</t>
+          <t>The reference for the related application that permission was received for</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I146" s="2" t="inlineStr">
@@ -5123,19 +5127,19 @@
       </c>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Oil and gas permission type</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr"/>
       <c r="F147" s="2" t="inlineStr"/>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>The reference for the related application that permission was received for</t>
+          <t>An oil and gas related permission type</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I147" s="2" t="inlineStr">
@@ -5154,19 +5158,19 @@
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>Oil and gas permission type</t>
+          <t>Decision date</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr"/>
       <c r="F148" s="2" t="inlineStr"/>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>An oil and gas related permission type</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I148" s="2" t="inlineStr">
@@ -5185,14 +5189,14 @@
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>Decision date</t>
+          <t>Condition number</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr"/>
       <c r="F149" s="2" t="inlineStr"/>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+          <t>Number of any condition being breached</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
@@ -5202,7 +5206,7 @@
       </c>
       <c r="I149" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5211,19 +5215,15 @@
       <c r="B150" s="2" t="n"/>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>Related permissions[]</t>
-        </is>
-      </c>
-      <c r="D150" s="2" t="inlineStr">
-        <is>
-          <t>Condition number</t>
-        </is>
-      </c>
+          <t>Other details</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="inlineStr"/>
       <c r="E150" s="2" t="inlineStr"/>
       <c r="F150" s="2" t="inlineStr"/>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>Number of any condition being breached</t>
+          <t>Explanation if other ground is selected</t>
         </is>
       </c>
       <c r="H150" s="2" t="inlineStr">
@@ -5242,7 +5242,7 @@
       <c r="B151" s="2" t="n"/>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>Other details</t>
+          <t>Will consolidate permissions</t>
         </is>
       </c>
       <c r="D151" s="2" t="inlineStr"/>
@@ -5250,17 +5250,17 @@
       <c r="F151" s="2" t="inlineStr"/>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>Explanation if other ground is selected</t>
+          <t>Is the applicant looking to consolidate permissions?</t>
         </is>
       </c>
       <c r="H151" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I151" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5269,7 +5269,7 @@
       <c r="B152" s="2" t="n"/>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>Will consolidate permissions</t>
+          <t>Details</t>
         </is>
       </c>
       <c r="D152" s="2" t="inlineStr"/>
@@ -5277,17 +5277,17 @@
       <c r="F152" s="2" t="inlineStr"/>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant looking to consolidate permissions?</t>
+          <t>Details about the consolidation or update of permissions</t>
         </is>
       </c>
       <c r="H152" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I152" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5296,15 +5296,19 @@
       <c r="B153" s="2" t="n"/>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>Details</t>
-        </is>
-      </c>
-      <c r="D153" s="2" t="inlineStr"/>
+          <t>Related proposals[]</t>
+        </is>
+      </c>
+      <c r="D153" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E153" s="2" t="inlineStr"/>
       <c r="F153" s="2" t="inlineStr"/>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>Details about the consolidation or update of permissions</t>
+          <t>The reference for the related application</t>
         </is>
       </c>
       <c r="H153" s="2" t="inlineStr">
@@ -5314,7 +5318,7 @@
       </c>
       <c r="I153" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5328,19 +5332,19 @@
       </c>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Application type</t>
         </is>
       </c>
       <c r="E154" s="2" t="inlineStr"/>
       <c r="F154" s="2" t="inlineStr"/>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>The reference for the related application</t>
+          <t>The type of planning application</t>
         </is>
       </c>
       <c r="H154" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I154" s="2" t="inlineStr">
@@ -5359,19 +5363,19 @@
       </c>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>Application type</t>
+          <t>Decision date</t>
         </is>
       </c>
       <c r="E155" s="2" t="inlineStr"/>
       <c r="F155" s="2" t="inlineStr"/>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>The type of planning application</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I155" s="2" t="inlineStr">
@@ -5381,28 +5385,32 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="n"/>
-      <c r="B156" s="2" t="n"/>
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>Development type</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
+        </is>
+      </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>Related proposals[]</t>
-        </is>
-      </c>
-      <c r="D156" s="2" t="inlineStr">
-        <is>
-          <t>Decision date</t>
-        </is>
-      </c>
+          <t>Development phase</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="inlineStr"/>
       <c r="E156" s="2" t="inlineStr"/>
       <c r="F156" s="2" t="inlineStr"/>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+          <t>Phases of oil and gas development the application covers</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I156" s="2" t="inlineStr">
@@ -5412,19 +5420,11 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="inlineStr">
-        <is>
-          <t>Development type</t>
-        </is>
-      </c>
-      <c r="B157" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
-        </is>
-      </c>
+      <c r="A157" s="2" t="n"/>
+      <c r="B157" s="2" t="n"/>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>Development phase</t>
+          <t>Development description</t>
         </is>
       </c>
       <c r="D157" s="2" t="inlineStr"/>
@@ -5432,12 +5432,12 @@
       <c r="F157" s="2" t="inlineStr"/>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>Phases of oil and gas development the application covers</t>
+          <t>Brief description of the development, including main oils, gases, and machinery</t>
         </is>
       </c>
       <c r="H157" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I157" s="2" t="inlineStr">
@@ -5451,7 +5451,7 @@
       <c r="B158" s="2" t="n"/>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>Development description</t>
+          <t>Quantity cubic metres</t>
         </is>
       </c>
       <c r="D158" s="2" t="inlineStr"/>
@@ -5459,12 +5459,12 @@
       <c r="F158" s="2" t="inlineStr"/>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>Brief description of the development, including main oils, gases, and machinery</t>
+          <t>Quantity of oil or gas involved in cubic metres</t>
         </is>
       </c>
       <c r="H158" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I158" s="2" t="inlineStr">
@@ -5478,7 +5478,7 @@
       <c r="B159" s="2" t="n"/>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>Quantity cubic metres</t>
+          <t>Permission period years</t>
         </is>
       </c>
       <c r="D159" s="2" t="inlineStr"/>
@@ -5486,7 +5486,7 @@
       <c r="F159" s="2" t="inlineStr"/>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>Quantity of oil or gas involved in cubic metres</t>
+          <t>Period of permission sought in years</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="I159" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5505,7 +5505,7 @@
       <c r="B160" s="2" t="n"/>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>Permission period years</t>
+          <t>Hydrocarbon licence block</t>
         </is>
       </c>
       <c r="D160" s="2" t="inlineStr"/>
@@ -5513,17 +5513,17 @@
       <c r="F160" s="2" t="inlineStr"/>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>Period of permission sought in years</t>
+          <t>Hydrocarbon licence block where the development is located</t>
         </is>
       </c>
       <c r="H160" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I160" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5532,7 +5532,7 @@
       <c r="B161" s="2" t="n"/>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>Hydrocarbon licence block</t>
+          <t>Surface site area hectares</t>
         </is>
       </c>
       <c r="D161" s="2" t="inlineStr"/>
@@ -5540,17 +5540,17 @@
       <c r="F161" s="2" t="inlineStr"/>
       <c r="G161" s="2" t="inlineStr">
         <is>
-          <t>Hydrocarbon licence block where the development is located</t>
+          <t>Surface site area in hectares</t>
         </is>
       </c>
       <c r="H161" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I161" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5559,7 +5559,7 @@
       <c r="B162" s="2" t="n"/>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>Surface site area hectares</t>
+          <t>Site hectares provided by</t>
         </is>
       </c>
       <c r="D162" s="2" t="inlineStr"/>
@@ -5567,12 +5567,12 @@
       <c r="F162" s="2" t="inlineStr"/>
       <c r="G162" s="2" t="inlineStr">
         <is>
-          <t>Surface site area in hectares</t>
+          <t>Who provided the site hectares value (applicant or system)</t>
         </is>
       </c>
       <c r="H162" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I162" s="2" t="inlineStr">
@@ -5586,7 +5586,7 @@
       <c r="B163" s="2" t="n"/>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>Site hectares provided by</t>
+          <t>Environmental statement</t>
         </is>
       </c>
       <c r="D163" s="2" t="inlineStr"/>
@@ -5594,17 +5594,17 @@
       <c r="F163" s="2" t="inlineStr"/>
       <c r="G163" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site hectares value (applicant or system)</t>
+          <t>Is an Environmental Statement attached to the application</t>
         </is>
       </c>
       <c r="H163" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I163" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5613,7 +5613,7 @@
       <c r="B164" s="2" t="n"/>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>Environmental statement</t>
+          <t>Environmental statement reference</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr"/>
@@ -5621,26 +5621,34 @@
       <c r="F164" s="2" t="inlineStr"/>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>Is an Environmental Statement attached to the application</t>
+          <t>Reference to the environmental statement document</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I164" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="n"/>
-      <c r="B165" s="2" t="n"/>
+      <c r="A165" s="2" t="inlineStr">
+        <is>
+          <t>Voluntary agreement</t>
+        </is>
+      </c>
+      <c r="B165" s="2" t="inlineStr">
+        <is>
+          <t>Details of any voluntary agreements made as part of an oil and gas extraction application.</t>
+        </is>
+      </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>Environmental statement reference</t>
+          <t>Draft agreement included</t>
         </is>
       </c>
       <c r="D165" s="2" t="inlineStr"/>
@@ -5648,34 +5656,26 @@
       <c r="F165" s="2" t="inlineStr"/>
       <c r="G165" s="2" t="inlineStr">
         <is>
-          <t>Reference to the environmental statement document</t>
+          <t>Has an outline or draft agreement been included? (True / False)</t>
         </is>
       </c>
       <c r="H165" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I165" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="inlineStr">
-        <is>
-          <t>Voluntary agreement</t>
-        </is>
-      </c>
-      <c r="B166" s="2" t="inlineStr">
-        <is>
-          <t>Details of any voluntary agreements made as part of an oil and gas extraction application.</t>
-        </is>
-      </c>
+      <c r="A166" s="2" t="n"/>
+      <c r="B166" s="2" t="n"/>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>Draft agreement included</t>
+          <t>Agreement summary</t>
         </is>
       </c>
       <c r="D166" s="2" t="inlineStr"/>
@@ -5683,42 +5683,15 @@
       <c r="F166" s="2" t="inlineStr"/>
       <c r="G166" s="2" t="inlineStr">
         <is>
-          <t>Has an outline or draft agreement been included? (True / False)</t>
+          <t>Summary of the agreement</t>
         </is>
       </c>
       <c r="H166" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I166" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="2" t="n"/>
-      <c r="B167" s="2" t="n"/>
-      <c r="C167" s="2" t="inlineStr">
-        <is>
-          <t>Agreement summary</t>
-        </is>
-      </c>
-      <c r="D167" s="2" t="inlineStr"/>
-      <c r="E167" s="2" t="inlineStr"/>
-      <c r="F167" s="2" t="inlineStr"/>
-      <c r="G167" s="2" t="inlineStr">
-        <is>
-          <t>Summary of the agreement</t>
-        </is>
-      </c>
-      <c r="H167" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I167" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -5726,66 +5699,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A141"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="A68:A77"/>
+    <mergeCell ref="A92:A106"/>
     <mergeCell ref="B51:B54"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="B135:B140"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="B145:B155"/>
+    <mergeCell ref="A140"/>
+    <mergeCell ref="B165:B166"/>
     <mergeCell ref="B55"/>
+    <mergeCell ref="B134:B139"/>
+    <mergeCell ref="B107:B113"/>
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="A24:A31"/>
-    <mergeCell ref="B85:B92"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="B130:B133"/>
     <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B93:B107"/>
-    <mergeCell ref="B157:B165"/>
-    <mergeCell ref="A67"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="B146:B156"/>
+    <mergeCell ref="A116:A120"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A67:A76"/>
+    <mergeCell ref="A145:A155"/>
     <mergeCell ref="A59"/>
-    <mergeCell ref="B108:B114"/>
-    <mergeCell ref="A144:A145"/>
     <mergeCell ref="B56:B58"/>
     <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B141"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="B143:B144"/>
     <mergeCell ref="B59"/>
-    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="B66"/>
+    <mergeCell ref="A84:A91"/>
+    <mergeCell ref="B140"/>
     <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="A122:A130"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B67:B76"/>
     <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A156:A164"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="A121:A129"/>
+    <mergeCell ref="A165:A166"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A135:A140"/>
-    <mergeCell ref="A157:A165"/>
-    <mergeCell ref="A85:A92"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B67"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="A131:A134"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="A107:A113"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A66"/>
+    <mergeCell ref="A134:A139"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B84:B91"/>
+    <mergeCell ref="B92:B106"/>
     <mergeCell ref="B36:B41"/>
     <mergeCell ref="A42:A47"/>
-    <mergeCell ref="B122:B130"/>
+    <mergeCell ref="B141:B142"/>
     <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B156:B164"/>
     <mergeCell ref="A55"/>
     <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B68:B77"/>
+    <mergeCell ref="B121:B129"/>
+    <mergeCell ref="A130:A133"/>
     <mergeCell ref="B2:B19"/>
     <mergeCell ref="B24:B31"/>
-    <mergeCell ref="A93:A107"/>
-    <mergeCell ref="A108:A114"/>
+    <mergeCell ref="B116:B120"/>
+    <mergeCell ref="A82:A83"/>
     <mergeCell ref="A51:A54"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="A114:A115"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas.xlsx
+++ b/generated/spreadsheet/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas.xlsx
@@ -437,7 +437,7 @@
   <cols>
     <col width="58" customWidth="1" min="1" max="1"/>
     <col width="72" customWidth="1" min="2" max="2"/>
-    <col width="38" customWidth="1" min="3" max="3"/>
+    <col width="42" customWidth="1" min="3" max="3"/>
     <col width="29" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
@@ -3032,7 +3032,7 @@
       <c r="B80" s="2" t="n"/>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Connect to drainage system</t>
+          <t>Connect to drainage system (oil and gas)</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr"/>
@@ -3040,12 +3040,12 @@
       <c r="F80" s="2" t="inlineStr"/>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal needs to connect to the existing drainage system</t>
+          <t>Whether the proposal needs to connect to the existing drainage system (oil and gas applications)</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I80" s="2" t="inlineStr">

--- a/generated/spreadsheet/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas.xlsx
+++ b/generated/spreadsheet/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="H72" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I72" s="2" t="inlineStr">
@@ -3682,7 +3682,7 @@
       </c>
       <c r="H99" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I99" s="2" t="inlineStr">
@@ -3771,7 +3771,7 @@
       </c>
       <c r="H102" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I102" s="2" t="inlineStr">
@@ -3879,7 +3879,7 @@
       </c>
       <c r="H106" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I106" s="2" t="inlineStr">

--- a/generated/spreadsheet/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas.xlsx
+++ b/generated/spreadsheet/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas.xlsx
@@ -3866,7 +3866,7 @@
       <c r="B106" s="2" t="n"/>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D106" s="2" t="inlineStr"/>
@@ -3874,12 +3874,12 @@
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I106" s="2" t="inlineStr">
